--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="601"/>
+    <workbookView windowWidth="14100" windowHeight="12015" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
   <si>
     <t>#</t>
   </si>
@@ -194,15 +194,33 @@
     <t>效果点节点名称</t>
   </si>
   <si>
+    <t>回旋镖 技能伤害 lv1</t>
+  </si>
+  <si>
+    <t>1,1500,1</t>
+  </si>
+  <si>
+    <t>hit_pos</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv2</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv3</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv4</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv5</t>
+  </si>
+  <si>
     <t>上官翎普通攻击投掷物效果计算</t>
   </si>
   <si>
     <t>1,1000,1</t>
   </si>
   <si>
-    <t>hit_pos</t>
-  </si>
-  <si>
     <t>上官翎 Q 技能 投掷物效果计算</t>
   </si>
   <si>
@@ -234,9 +252,6 @@
   </si>
   <si>
     <t>唐依q技能伤害</t>
-  </si>
-  <si>
-    <t>1,1500,1</t>
   </si>
   <si>
     <t>唐依 W 技能伤害</t>
@@ -1320,12 +1335,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1447,240 +1462,76 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
+    <row r="4" customFormat="1" spans="2:11">
       <c r="B4">
-        <v>4001001</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="9">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>15008027</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>4001002</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>15008006</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>4001003</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>15008006</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>4001050</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>15008006</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
+        <v>4000001</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" spans="3:11">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="3:11">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="3:11">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="3:11">
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>4001004</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>15008006</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>4001005</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>15008006</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:11">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="3:11">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>4001006</v>
+        <v>4100101</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1698,24 +1549,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" customFormat="1" spans="1:11">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>4001007</v>
+        <v>4100102</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1733,30 +1584,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" customFormat="1" spans="1:11">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>4001008</v>
+        <v>4100103</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>15008019</v>
+        <v>15008006</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1768,177 +1619,191 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="3:6">
+    <row r="14" customFormat="1" spans="1:11">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4100104</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>15008006</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:11">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4100105</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>15008006</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="3:11">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>4002001</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>15008028</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4002002</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>15008006</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" spans="3:11">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" customFormat="1" spans="3:11">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:11">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" spans="3:11">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="3:11">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="3:6">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="3:11">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>4002004</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>15008006</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="3:11">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>4001001</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>15008027</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25">
-        <v>4002006</v>
+        <v>4001002</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E25" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1955,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>4002007</v>
+        <v>4001003</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E26" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1985,11 +1850,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>4001050</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>15008006</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="8"/>
@@ -1997,30 +1891,88 @@
       <c r="E28" s="9"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>4001004</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>15008006</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>4001005</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>15008006</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
-        <v>4002010</v>
+        <v>4001006</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E31" s="9">
         <v>2</v>
@@ -2032,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2049,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>4002011</v>
+        <v>4001007</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E32" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2079,135 +2031,83 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>4002020</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>15008006</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>4002021</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>15008006</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>4002022</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>15008013</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>4001008</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>15008019</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37">
-        <v>4002023</v>
+        <v>4002001</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E37" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>15008020</v>
+        <v>15008028</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2219,108 +2119,506 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>4002030</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>15008020</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>4002031</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>15008020</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>4002002</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>15008006</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>4002004</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>15008006</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45">
+        <v>4002006</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>15008028</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>4002007</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>15008006</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>4002010</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>15008028</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>4002011</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>15008006</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>4002020</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>15008006</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>4002021</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>15008006</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>4002022</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>15008013</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>4002023</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>15008020</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>4002030</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>15008020</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>4002031</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>15008020</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
         <v>4005001</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
+      <c r="C65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>15008013</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14100" windowHeight="12015" tabRatio="601"/>
+    <workbookView windowWidth="19485" windowHeight="11445" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,11 +78,12 @@
           <t xml:space="preserve">
 x,y,z :
 x:伤害加成 
-  0 固定伤害 
-  1 物理攻击的千分比
-  3 生命加成的千分比
-  20 造成伤害的千分比
-y:对应效果值 ， x:0 对应的是数值 其他的是千分比
+   0 固定值
+  1 当前物理攻击的千分比数量
+  3 最大生命加成的千分比数量
+  20 造成伤害的千分比数量
+  30 损失生命的千分比比值
+y:对应效果值 ， x:0 对应的是数值 其他的是千分比计算后的数量或者是比值
 z:效果类型 1:物理 2:法强
 </t>
         </r>
@@ -489,12 +490,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1337,10 +1338,10 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="11445" tabRatio="601"/>
+    <workbookView windowWidth="16605" windowHeight="6945" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -153,6 +153,9 @@
     <t>effectPosName</t>
   </si>
   <si>
+    <t>isForShow</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
     <t>效果点节点名称</t>
   </si>
   <si>
+    <t>是否为了显示（只同步效果，实际效果等均不触发）</t>
+  </si>
+  <si>
     <t>回旋镖 技能伤害 lv1</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
   </si>
   <si>
     <t>回旋镖 技能伤害 lv5</t>
+  </si>
+  <si>
+    <t>驱散所有buff（只是显示） lv1</t>
   </si>
   <si>
     <t>上官翎普通攻击投掷物效果计算</t>
@@ -490,12 +499,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -957,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +996,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1336,12 +1348,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1356,9 +1368,10 @@
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,75 +1405,84 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="93" customHeight="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="93" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="2:11">
@@ -1523,16 +1545,16 @@
         <v>4100101</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1547,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:11">
@@ -1558,16 +1580,16 @@
         <v>4100102</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1582,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:11">
@@ -1593,16 +1615,16 @@
         <v>4100103</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1617,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:11">
@@ -1628,16 +1650,16 @@
         <v>4100104</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" s="9">
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1652,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:11">
@@ -1663,16 +1685,16 @@
         <v>4100105</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="9">
         <v>2</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1687,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:11">
@@ -1704,12 +1726,41 @@
       <c r="F17" s="8"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" customFormat="1" spans="3:11">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+    <row r="18" customFormat="1" spans="1:12">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4100205</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
       <c r="F18" s="8"/>
-      <c r="K18" s="2"/>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>15008006</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="1" spans="3:11">
       <c r="C19" s="8"/>
@@ -1754,16 +1805,16 @@
         <v>4001001</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1778,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1789,16 +1840,16 @@
         <v>4001002</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1813,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1824,16 +1875,16 @@
         <v>4001003</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1848,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1859,16 +1910,16 @@
         <v>4001050</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1883,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:6">
@@ -1900,16 +1951,16 @@
         <v>4001004</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1924,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1935,16 +1986,16 @@
         <v>4001005</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E30" s="9">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1959,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1970,16 +2021,16 @@
         <v>4001006</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E31" s="9">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1994,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2005,16 +2056,16 @@
         <v>4001007</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E32" s="9">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2029,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2040,16 +2091,16 @@
         <v>4001008</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E33" s="9">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2064,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="3:6">
@@ -2093,16 +2144,16 @@
         <v>4002001</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E37" s="9">
         <v>2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2117,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2128,16 +2179,16 @@
         <v>4002002</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2152,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="3:6">
@@ -2181,16 +2232,16 @@
         <v>4002004</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E43" s="9">
         <v>0</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2205,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="3:6">
@@ -2222,16 +2273,16 @@
         <v>4002006</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E45" s="9">
         <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2246,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2257,16 +2308,16 @@
         <v>4002007</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E46" s="9">
         <v>2</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2281,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -2316,16 +2367,16 @@
         <v>4002010</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E51" s="9">
         <v>2</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2340,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2351,16 +2402,16 @@
         <v>4002011</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2375,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2386,16 +2437,16 @@
         <v>4002020</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2410,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2421,16 +2472,16 @@
         <v>4002021</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2445,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2456,16 +2507,16 @@
         <v>4002022</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2480,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2491,16 +2542,16 @@
         <v>4002023</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2515,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2526,16 +2577,16 @@
         <v>4002030</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2550,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2561,16 +2612,16 @@
         <v>4002031</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E61" s="9">
         <v>0</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2585,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2596,16 +2647,16 @@
         <v>4005001</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2620,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16605" windowHeight="6945" tabRatio="601"/>
+    <workbookView windowWidth="17565" windowHeight="12075" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,39 +204,45 @@
     <t>回旋镖 技能伤害 lv1</t>
   </si>
   <si>
+    <t>1,500,1</t>
+  </si>
+  <si>
+    <t>hit_pos</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv2</t>
+  </si>
+  <si>
+    <t>1,1000,1</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv3</t>
+  </si>
+  <si>
     <t>1,1500,1</t>
   </si>
   <si>
-    <t>hit_pos</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv2</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv3</t>
-  </si>
-  <si>
     <t>回旋镖 技能伤害 lv4</t>
   </si>
   <si>
+    <t>1,2000,1</t>
+  </si>
+  <si>
     <t>回旋镖 技能伤害 lv5</t>
   </si>
   <si>
+    <t>1,2500,1</t>
+  </si>
+  <si>
     <t>驱散所有buff（只是显示） lv1</t>
   </si>
   <si>
     <t>上官翎普通攻击投掷物效果计算</t>
   </si>
   <si>
-    <t>1,1000,1</t>
-  </si>
-  <si>
     <t>上官翎 Q 技能 投掷物效果计算</t>
   </si>
   <si>
-    <t>1,500,1</t>
-  </si>
-  <si>
     <t>上官翎 W 技能 击晕伤害计算</t>
   </si>
   <si>
@@ -273,9 +279,6 @@
     <t>唐依 R 技能伤害</t>
   </si>
   <si>
-    <t>1,2000,1</t>
-  </si>
-  <si>
     <t>怪物1普通攻击投掷物效果计算</t>
   </si>
   <si>
@@ -294,9 +297,6 @@
     <t>怪物2 技能计算</t>
   </si>
   <si>
-    <t>1,2500,1</t>
-  </si>
-  <si>
     <t>刀疤普通攻击投掷物效果计算</t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>概率回血效果计算</t>
   </si>
   <si>
-    <t>20,-200,1</t>
+    <t>20,-1,1</t>
   </si>
   <si>
     <t>上官唯普通命中群攻计算</t>
@@ -966,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,9 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1350,10 +1347,10 @@
   <sheetPr/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1481,7 +1478,7 @@
       <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1589,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1615,16 +1612,16 @@
         <v>4100103</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1650,16 +1647,16 @@
         <v>4100104</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9">
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1685,16 +1682,16 @@
         <v>4100105</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="9">
         <v>2</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1734,10 +1731,10 @@
         <v>4100205</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
@@ -1805,16 +1802,16 @@
         <v>4001001</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1840,16 +1837,16 @@
         <v>4001002</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1875,16 +1872,16 @@
         <v>4001003</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1910,16 +1907,16 @@
         <v>4001050</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1951,16 +1948,16 @@
         <v>4001004</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1986,16 +1983,16 @@
         <v>4001005</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="9">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2021,16 +2018,16 @@
         <v>4001006</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E31" s="9">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2056,16 +2053,16 @@
         <v>4001007</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E32" s="9">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2091,16 +2088,16 @@
         <v>4001008</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E33" s="9">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2144,16 +2141,16 @@
         <v>4002001</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" s="9">
         <v>2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2179,16 +2176,16 @@
         <v>4002002</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2232,16 +2229,16 @@
         <v>4002004</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E43" s="9">
         <v>0</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2273,16 +2270,16 @@
         <v>4002006</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E45" s="9">
         <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2308,16 +2305,16 @@
         <v>4002007</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E46" s="9">
         <v>2</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2376,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2411,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2551,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2586,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17565" windowHeight="12075" tabRatio="601"/>
+    <workbookView windowWidth="14145" windowHeight="8685" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>0,-500,1</t>
+  </si>
+  <si>
+    <t>ai 远程兵 单体伤害</t>
+  </si>
+  <si>
+    <t>1,4000,1</t>
+  </si>
+  <si>
+    <t>ai 远程兵 区域伤害</t>
+  </si>
+  <si>
+    <t>1,1200,1</t>
   </si>
 </sst>
 </file>
@@ -1345,12 +1357,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2670,6 +2682,60 @@
       <c r="K65" s="2" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>4006101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>15008006</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:11">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>4006201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>15008006</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685" tabRatio="601"/>
+    <workbookView windowWidth="15435" windowHeight="8685" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>1,1200,1</t>
+  </si>
+  <si>
+    <t>ai 远程兵 测试 单体加血</t>
+  </si>
+  <si>
+    <t>0,-150,1</t>
   </si>
 </sst>
 </file>
@@ -1357,12 +1363,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2736,6 +2742,34 @@
         <v>1</v>
       </c>
       <c r="K69" s="2"/>
+    </row>
+    <row r="70" customFormat="1" spans="1:11">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>4006301</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>15008013</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15435" windowHeight="8685" tabRatio="601"/>
+    <workbookView windowWidth="17220" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -201,21 +201,27 @@
     <t>是否为了显示（只同步效果，实际效果等均不触发）</t>
   </si>
   <si>
+    <t>上官翎普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>1,1000,1</t>
+  </si>
+  <si>
+    <t>hit_pos</t>
+  </si>
+  <si>
+    <t>怪物1普通攻击投掷物效果计算</t>
+  </si>
+  <si>
     <t>回旋镖 技能伤害 lv1</t>
   </si>
   <si>
     <t>1,500,1</t>
   </si>
   <si>
-    <t>hit_pos</t>
-  </si>
-  <si>
     <t>回旋镖 技能伤害 lv2</t>
   </si>
   <si>
-    <t>1,1000,1</t>
-  </si>
-  <si>
     <t>回旋镖 技能伤害 lv3</t>
   </si>
   <si>
@@ -237,9 +243,6 @@
     <t>驱散所有buff（只是显示） lv1</t>
   </si>
   <si>
-    <t>上官翎普通攻击投掷物效果计算</t>
-  </si>
-  <si>
     <t>上官翎 Q 技能 投掷物效果计算</t>
   </si>
   <si>
@@ -277,9 +280,6 @@
   </si>
   <si>
     <t>唐依 R 技能伤害</t>
-  </si>
-  <si>
-    <t>怪物1普通攻击投掷物效果计算</t>
   </si>
   <si>
     <t>怪物1技能1投掷物效果计算</t>
@@ -1363,12 +1363,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1500,10 +1500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="2:11">
-      <c r="B4">
-        <v>4000001</v>
-      </c>
+    <row r="4" customFormat="1" spans="3:11">
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1524,12 +1521,40 @@
       <c r="F6" s="8"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" customFormat="1" spans="3:11">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="K7" s="2"/>
+    <row r="7" customFormat="1" spans="1:11">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4003101</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>15008027</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" customFormat="1" spans="3:11">
       <c r="C8" s="8"/>
@@ -1557,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>4100101</v>
+        <v>4101101</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
@@ -1575,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1587,145 +1612,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:11">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>4100102</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>15008006</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:11">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>4100103</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>15008006</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:11">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>4100104</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>15008006</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:11">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>4100105</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>15008006</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="12" customFormat="1" spans="3:11">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="3:11">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="3:11">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" spans="3:11">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" customFormat="1" spans="3:11">
       <c r="C16" s="8"/>
@@ -1741,41 +1654,12 @@
       <c r="F17" s="8"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" customFormat="1" spans="1:12">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>4100205</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
+    <row r="18" customFormat="1" spans="3:11">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="8"/>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>15008006</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" customFormat="1" spans="3:11">
       <c r="C19" s="8"/>
@@ -1791,51 +1675,123 @@
       <c r="F20" s="8"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" customFormat="1" spans="3:11">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" spans="3:11">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" customFormat="1" spans="3:11">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
+    <row r="21" customFormat="1" spans="2:11">
+      <c r="B21">
+        <v>4100101</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>15008006</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="2:11">
+      <c r="B22">
+        <v>4100102</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>15008006</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="2:11">
+      <c r="B23">
+        <v>4100103</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>15008006</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:11">
       <c r="B24">
-        <v>4001001</v>
+        <v>4100104</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>15008027</v>
+        <v>15008006</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1847,24 +1803,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
+    <row r="25" customFormat="1" spans="2:11">
       <c r="B25">
-        <v>4001002</v>
+        <v>4100105</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1882,387 +1835,371 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
+    <row r="26" customFormat="1" spans="3:11">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:11">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" spans="2:12">
+      <c r="B28">
+        <v>4100205</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>15008006</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="3:11">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" customFormat="1" spans="3:11">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" customFormat="1" spans="3:11">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" customFormat="1" spans="3:11">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" customFormat="1" spans="3:11">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>4001001</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>15008027</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <v>4001002</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>15008006</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36">
         <v>4001003</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
+      <c r="D36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>15008006</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37">
         <v>4001050</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
+      <c r="C37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>15008006</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39">
         <v>4001004</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
+      <c r="D39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>15008006</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40">
         <v>4001005</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="C40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="9">
         <v>2</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
+      <c r="F40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>15008006</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41">
         <v>4001006</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="9">
+      <c r="D41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="9">
         <v>2</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
+      <c r="F41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>15008006</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42">
         <v>4001007</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="C42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="F42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>15008006</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43">
         <v>4001008</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="C43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="9">
         <v>2</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
+      <c r="F43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>15008019</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>4002001</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="9">
-        <v>2</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>15008028</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>4002002</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>15008006</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>4002004</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>15008006</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2280,87 +2217,81 @@
       <c r="E44" s="9"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45">
-        <v>4002006</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="9">
+    <row r="45" spans="3:6">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47">
+        <v>4002001</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="9">
         <v>2</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
+      <c r="F47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>15008028</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46">
-        <v>4002007</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="9">
-        <v>2</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48">
+        <v>4002002</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>15008006</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="8"/>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="8"/>
@@ -2368,408 +2299,504 @@
       <c r="E49" s="9"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="3:6">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51">
+    <row r="51" spans="3:6">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53">
+        <v>4002004</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>15008006</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55">
+        <v>4002006</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="9">
+        <v>2</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>15008028</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56">
+        <v>4002007</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="9">
+        <v>2</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>15008006</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61">
         <v>4002010</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E61" s="9">
         <v>2</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
+      <c r="F61" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
         <v>15008028</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62">
         <v>4002011</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
+      <c r="E62" s="9">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>15008006</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64">
         <v>4002020</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8" t="s">
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>15008006</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65">
         <v>4002021</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>15008006</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66">
         <v>4002022</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8" t="s">
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
         <v>15008013</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67">
         <v>4002023</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
         <v>15008020</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70">
         <v>4002030</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
         <v>15008020</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71">
         <v>4002031</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8" t="s">
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
         <v>15008020</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75">
         <v>4005001</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
         <v>15008013</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78">
         <v>4006101</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C78" t="s">
         <v>72</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D78" t="s">
         <v>72</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F78" t="s">
         <v>73</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
         <v>15008006</v>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:11">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="2:11">
+      <c r="B79">
         <v>4006201</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C79" t="s">
         <v>74</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D79" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" t="s">
         <v>75</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
         <v>15008006</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" customFormat="1" spans="1:11">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70">
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" customFormat="1" spans="2:11">
+      <c r="B80">
         <v>4006301</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C80" t="s">
         <v>76</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D80" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" t="s">
         <v>77</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
         <v>15008013</v>
       </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2"/>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="30240" windowHeight="14540" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -118,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -201,48 +188,57 @@
     <t>是否为了显示（只同步效果，实际效果等均不触发）</t>
   </si>
   <si>
+    <t>唐依普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>1,1000,1</t>
+  </si>
+  <si>
+    <t>hit_pos</t>
+  </si>
+  <si>
+    <t>唐依 q 技能穿刺投掷物效果计算</t>
+  </si>
+  <si>
+    <t>1,1200,1</t>
+  </si>
+  <si>
+    <t>怪物1普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv1</t>
+  </si>
+  <si>
+    <t>1,500,1</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv2</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv3</t>
+  </si>
+  <si>
+    <t>1,1500,1</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv4</t>
+  </si>
+  <si>
+    <t>1,2000,1</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv5</t>
+  </si>
+  <si>
+    <t>1,2500,1</t>
+  </si>
+  <si>
+    <t>驱散所有buff（只是显示） lv1</t>
+  </si>
+  <si>
     <t>上官翎普通攻击投掷物效果计算</t>
   </si>
   <si>
-    <t>1,1000,1</t>
-  </si>
-  <si>
-    <t>hit_pos</t>
-  </si>
-  <si>
-    <t>怪物1普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv1</t>
-  </si>
-  <si>
-    <t>1,500,1</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv2</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv3</t>
-  </si>
-  <si>
-    <t>1,1500,1</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv4</t>
-  </si>
-  <si>
-    <t>1,2000,1</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv5</t>
-  </si>
-  <si>
-    <t>1,2500,1</t>
-  </si>
-  <si>
-    <t>驱散所有buff（只是显示） lv1</t>
-  </si>
-  <si>
     <t>上官翎 Q 技能 投掷物效果计算</t>
   </si>
   <si>
@@ -343,9 +339,6 @@
   </si>
   <si>
     <t>ai 远程兵 区域伤害</t>
-  </si>
-  <si>
-    <t>1,1200,1</t>
   </si>
   <si>
     <t>ai 远程兵 测试 单体加血</t>
@@ -357,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -517,12 +510,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -997,20 +990,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1368,10 +1361,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
@@ -1399,7 +1392,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1417,7 +1410,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1437,7 +1430,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1455,7 +1448,7 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1466,22 +1459,22 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1493,32 +1486,32 @@
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="3:11">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="6"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="3:11">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="3:11">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="6"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="1:11">
@@ -1528,16 +1521,16 @@
       <c r="B7">
         <v>4003101</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G7">
@@ -1556,25 +1549,53 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="3:11">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="K8" s="2"/>
+    <row r="8" customFormat="1" spans="1:11">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>4003201</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>15008027</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" customFormat="1" spans="3:11">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" customFormat="1" spans="3:11">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="1" spans="1:11">
@@ -1584,16 +1605,16 @@
       <c r="B11">
         <v>4101101</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G11">
@@ -1613,83 +1634,83 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="3:11">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="6"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" customFormat="1" spans="3:11">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="6"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" customFormat="1" spans="3:11">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" customFormat="1" spans="3:11">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" customFormat="1" spans="3:11">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" customFormat="1" spans="3:11">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="6"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" customFormat="1" spans="3:11">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="6"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" customFormat="1" spans="3:11">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="6"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" customFormat="1" spans="3:11">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="6"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" customFormat="1" spans="2:11">
       <c r="B21">
         <v>4100101</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>31</v>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="9">
         <v>2</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>32</v>
+      <c r="F21" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1711,16 +1732,16 @@
       <c r="B22">
         <v>4100102</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>33</v>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E22" s="9">
         <v>2</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G22">
@@ -1743,17 +1764,17 @@
       <c r="B23">
         <v>4100103</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>34</v>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="9">
         <v>2</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>35</v>
+      <c r="F23" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1775,17 +1796,17 @@
       <c r="B24">
         <v>4100104</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>36</v>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>37</v>
+      <c r="F24" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1807,17 +1828,17 @@
       <c r="B25">
         <v>4100105</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>38</v>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E25" s="9">
         <v>2</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>39</v>
+      <c r="F25" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1836,33 +1857,33 @@
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:11">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="6"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" customFormat="1" spans="3:11">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="6"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" customFormat="1" spans="2:12">
       <c r="B28">
         <v>4100205</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>40</v>
+      <c r="C28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="6"/>
       <c r="G28">
         <v>1</v>
       </c>
@@ -1883,54 +1904,54 @@
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:11">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="6"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="3:11">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="6"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" customFormat="1" spans="3:11">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="6"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" customFormat="1" spans="3:11">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="6"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" customFormat="1" spans="3:11">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="6"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34">
         <v>4001001</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>27</v>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E34" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G34">
@@ -1953,17 +1974,17 @@
       <c r="B35">
         <v>4001002</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>41</v>
+      <c r="C35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>32</v>
+      <c r="F35" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1985,17 +2006,17 @@
       <c r="B36">
         <v>4001003</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>42</v>
+      <c r="C36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>43</v>
+      <c r="F36" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2017,16 +2038,16 @@
       <c r="B37">
         <v>4001050</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>44</v>
+      <c r="C37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G37">
@@ -2046,26 +2067,26 @@
       </c>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39">
         <v>4001004</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>45</v>
+      <c r="C39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E39" s="9">
         <v>0</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>46</v>
+      <c r="F39" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2087,17 +2108,17 @@
       <c r="B40">
         <v>4001005</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>47</v>
+      <c r="C40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E40" s="9">
         <v>2</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>48</v>
+      <c r="F40" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2119,17 +2140,17 @@
       <c r="B41">
         <v>4001006</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>50</v>
+      <c r="C41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E41" s="9">
         <v>2</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>35</v>
+      <c r="F41" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2151,17 +2172,17 @@
       <c r="B42">
         <v>4001007</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>51</v>
+      <c r="C42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E42" s="9">
         <v>2</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>52</v>
+      <c r="F42" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2183,17 +2204,17 @@
       <c r="B43">
         <v>4001008</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>53</v>
+      <c r="C43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E43" s="9">
         <v>2</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>37</v>
+      <c r="F43" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2212,37 +2233,37 @@
       </c>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="3:6">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="3:6">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47">
         <v>4002001</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>30</v>
+      <c r="C47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E47" s="9">
         <v>2</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G47">
@@ -2265,17 +2286,17 @@
       <c r="B48">
         <v>4002002</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>54</v>
+      <c r="C48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>55</v>
+      <c r="F48" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2294,38 +2315,38 @@
       </c>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="51" spans="3:6">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:11">
       <c r="B53">
         <v>4002004</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>56</v>
+      <c r="C53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E53" s="9">
         <v>0</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>35</v>
+      <c r="F53" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2344,25 +2365,25 @@
       </c>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55">
         <v>4002006</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>57</v>
+      <c r="C55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E55" s="9">
         <v>2</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G55">
@@ -2385,17 +2406,17 @@
       <c r="B56">
         <v>4002007</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>58</v>
+      <c r="C56" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E56" s="9">
         <v>2</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>39</v>
+      <c r="F56" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2414,43 +2435,43 @@
       </c>
     </row>
     <row r="57" spans="3:6">
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="8"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="8"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" spans="2:11">
       <c r="B61">
         <v>4002010</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>59</v>
+      <c r="C61" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E61" s="9">
         <v>2</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G61">
@@ -2473,17 +2494,17 @@
       <c r="B62">
         <v>4002011</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>60</v>
+      <c r="C62" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>32</v>
+      <c r="F62" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2505,17 +2526,17 @@
       <c r="B64">
         <v>4002020</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>61</v>
+      <c r="C64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>62</v>
+      <c r="F64" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2537,17 +2558,17 @@
       <c r="B65">
         <v>4002021</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>63</v>
+      <c r="C65" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>64</v>
+      <c r="F65" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2569,17 +2590,17 @@
       <c r="B66">
         <v>4002022</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>65</v>
+      <c r="C66" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>66</v>
+      <c r="F66" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2601,17 +2622,17 @@
       <c r="B67">
         <v>4002023</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>67</v>
+      <c r="C67" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E67" s="9">
         <v>0</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>32</v>
+      <c r="F67" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2633,17 +2654,17 @@
       <c r="B70">
         <v>4002030</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>68</v>
+      <c r="C70" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>35</v>
+      <c r="F70" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2665,17 +2686,17 @@
       <c r="B71">
         <v>4002031</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>69</v>
+      <c r="C71" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>64</v>
+      <c r="F71" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2697,17 +2718,17 @@
       <c r="B75">
         <v>4005001</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>70</v>
+      <c r="C75" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>71</v>
+      <c r="F75" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2730,13 +2751,13 @@
         <v>4006101</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2753,14 +2774,14 @@
         <v>4006201</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2778,14 +2799,14 @@
         <v>4006301</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2815,7 +2836,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2832,7 +2853,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14540" tabRatio="601"/>
+    <workbookView windowWidth="14505" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -105,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -201,6 +214,9 @@
   </si>
   <si>
     <t>1,1200,1</t>
+  </si>
+  <si>
+    <t>唐依大招群攻效果计算</t>
   </si>
   <si>
     <t>怪物1普通攻击投掷物效果计算</t>
@@ -350,7 +366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -990,20 +1006,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1364,7 +1380,7 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
@@ -1392,7 +1408,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1410,7 +1426,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1430,7 +1446,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1448,7 +1464,7 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1459,22 +1475,22 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1486,32 +1502,32 @@
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="3:11">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="8"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="3:11">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="8"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="3:11">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="8"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="1:11">
@@ -1521,16 +1537,16 @@
       <c r="B7">
         <v>4003101</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G7">
@@ -1556,16 +1572,16 @@
       <c r="B8">
         <v>4003201</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G8">
@@ -1584,18 +1600,46 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="3:11">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="K9" s="2"/>
+    <row r="9" customFormat="1" spans="1:11">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>4003301</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>15008027</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" customFormat="1" spans="3:11">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="1" spans="1:11">
@@ -1605,16 +1649,16 @@
       <c r="B11">
         <v>4101101</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G11">
@@ -1634,83 +1678,83 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="3:11">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="8"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" customFormat="1" spans="3:11">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="8"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" customFormat="1" spans="3:11">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="8"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" customFormat="1" spans="3:11">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="8"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" customFormat="1" spans="3:11">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="8"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" customFormat="1" spans="3:11">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="8"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" customFormat="1" spans="3:11">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="8"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" customFormat="1" spans="3:11">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="8"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" customFormat="1" spans="3:11">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="8"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" customFormat="1" spans="2:11">
       <c r="B21">
         <v>4100101</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="9">
         <v>2</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>34</v>
+      <c r="F21" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1732,16 +1776,16 @@
       <c r="B22">
         <v>4100102</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>35</v>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E22" s="9">
         <v>2</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G22">
@@ -1764,17 +1808,17 @@
       <c r="B23">
         <v>4100103</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>36</v>
+      <c r="C23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E23" s="9">
         <v>2</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>37</v>
+      <c r="F23" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1796,17 +1840,17 @@
       <c r="B24">
         <v>4100104</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>38</v>
+      <c r="C24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>39</v>
+      <c r="F24" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1828,17 +1872,17 @@
       <c r="B25">
         <v>4100105</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>40</v>
+      <c r="C25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E25" s="9">
         <v>2</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>41</v>
+      <c r="F25" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1857,33 +1901,33 @@
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:11">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="8"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" customFormat="1" spans="3:11">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="8"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" customFormat="1" spans="2:12">
       <c r="B28">
         <v>4100205</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>42</v>
+      <c r="C28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="8"/>
       <c r="G28">
         <v>1</v>
       </c>
@@ -1904,54 +1948,54 @@
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:11">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="8"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="3:11">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="8"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" customFormat="1" spans="3:11">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="8"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" customFormat="1" spans="3:11">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="8"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" customFormat="1" spans="3:11">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="8"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34">
         <v>4001001</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>43</v>
+      <c r="C34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E34" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G34">
@@ -1974,17 +2018,17 @@
       <c r="B35">
         <v>4001002</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>44</v>
+      <c r="C35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>34</v>
+      <c r="F35" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2006,17 +2050,17 @@
       <c r="B36">
         <v>4001003</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>45</v>
+      <c r="C36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>46</v>
+      <c r="F36" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2038,16 +2082,16 @@
       <c r="B37">
         <v>4001050</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>47</v>
+      <c r="C37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G37">
@@ -2067,26 +2111,26 @@
       </c>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39">
         <v>4001004</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>48</v>
+      <c r="C39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E39" s="9">
         <v>0</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>49</v>
+      <c r="F39" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2108,17 +2152,17 @@
       <c r="B40">
         <v>4001005</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>50</v>
+      <c r="C40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E40" s="9">
         <v>2</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>51</v>
+      <c r="F40" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2140,17 +2184,17 @@
       <c r="B41">
         <v>4001006</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>53</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E41" s="9">
         <v>2</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>37</v>
+      <c r="F41" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2172,17 +2216,17 @@
       <c r="B42">
         <v>4001007</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>54</v>
+      <c r="C42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E42" s="9">
         <v>2</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>55</v>
+      <c r="F42" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2204,17 +2248,17 @@
       <c r="B43">
         <v>4001008</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>56</v>
+      <c r="C43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E43" s="9">
         <v>2</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>39</v>
+      <c r="F43" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2233,37 +2277,37 @@
       </c>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="3:6">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="3:6">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47">
         <v>4002001</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>32</v>
+      <c r="C47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E47" s="9">
         <v>2</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G47">
@@ -2286,17 +2330,17 @@
       <c r="B48">
         <v>4002002</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>57</v>
+      <c r="C48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>58</v>
+      <c r="F48" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2315,38 +2359,38 @@
       </c>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="51" spans="3:6">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="2:11">
       <c r="B53">
         <v>4002004</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>59</v>
+      <c r="C53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E53" s="9">
         <v>0</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>37</v>
+      <c r="F53" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2365,25 +2409,25 @@
       </c>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55">
         <v>4002006</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>60</v>
+      <c r="C55" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E55" s="9">
         <v>2</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G55">
@@ -2406,17 +2450,17 @@
       <c r="B56">
         <v>4002007</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>61</v>
+      <c r="C56" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E56" s="9">
         <v>2</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>41</v>
+      <c r="F56" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2435,43 +2479,43 @@
       </c>
     </row>
     <row r="57" spans="3:6">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" spans="2:11">
       <c r="B61">
         <v>4002010</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>62</v>
+      <c r="C61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="E61" s="9">
         <v>2</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G61">
@@ -2494,17 +2538,17 @@
       <c r="B62">
         <v>4002011</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>63</v>
+      <c r="C62" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>34</v>
+      <c r="F62" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2526,17 +2570,17 @@
       <c r="B64">
         <v>4002020</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>64</v>
+      <c r="C64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>65</v>
+      <c r="F64" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2558,17 +2602,17 @@
       <c r="B65">
         <v>4002021</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>66</v>
+      <c r="C65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>67</v>
+      <c r="F65" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2590,17 +2634,17 @@
       <c r="B66">
         <v>4002022</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>68</v>
+      <c r="C66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>69</v>
+      <c r="F66" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2622,17 +2666,17 @@
       <c r="B67">
         <v>4002023</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>70</v>
+      <c r="C67" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E67" s="9">
         <v>0</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>34</v>
+      <c r="F67" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2654,17 +2698,17 @@
       <c r="B70">
         <v>4002030</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>71</v>
+      <c r="C70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>37</v>
+      <c r="F70" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2686,17 +2730,17 @@
       <c r="B71">
         <v>4002031</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>72</v>
+      <c r="C71" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
       </c>
-      <c r="F71" s="6" t="s">
-        <v>67</v>
+      <c r="F71" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2718,17 +2762,17 @@
       <c r="B75">
         <v>4005001</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>73</v>
+      <c r="C75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>74</v>
+      <c r="F75" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2751,13 +2795,13 @@
         <v>4006101</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2774,10 +2818,10 @@
         <v>4006201</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s">
@@ -2799,14 +2843,14 @@
         <v>4006301</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2836,7 +2880,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2853,7 +2897,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14505" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="18855" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,7 @@
 x:伤害加成 
    0 固定值
   1 当前物理攻击的千分比数量
+  2 护甲的千分比数量
   3 最大生命加成的千分比数量
   20 造成伤害的千分比数量
   30 损失生命的千分比比值
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -217,6 +218,15 @@
   </si>
   <si>
     <t>唐依大招群攻效果计算</t>
+  </si>
+  <si>
+    <t>夜魂普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>夜魂q被动区域效果计算</t>
+  </si>
+  <si>
+    <t>2,1000,1</t>
   </si>
   <si>
     <t>怪物1普通攻击投掷物效果计算</t>
@@ -526,12 +536,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1372,12 +1382,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1642,54 +1652,82 @@
       <c r="F10" s="8"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" customFormat="1" spans="1:11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>4101101</v>
-      </c>
-      <c r="C11" s="8" t="s">
+    <row r="11" customFormat="1" spans="3:11">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:11">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>4004101</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>15008028</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="3:11">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:11">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="K13" s="2"/>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:11">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4004201</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>15008027</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" customFormat="1" spans="3:11">
       <c r="C14" s="8"/>
@@ -1740,27 +1778,30 @@
       <c r="F20" s="8"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" customFormat="1" spans="2:11">
+    <row r="21" customFormat="1" spans="1:11">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
       <c r="B21">
-        <v>4100101</v>
+        <v>4101101</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="9">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1772,133 +1813,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="2:11">
-      <c r="B22">
-        <v>4100102</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>15008006</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="2:11">
-      <c r="B23">
-        <v>4100103</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>15008006</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="2:11">
-      <c r="B24">
-        <v>4100104</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>15008006</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:11">
-      <c r="B25">
-        <v>4100105</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="9">
-        <v>2</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>15008006</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="22" customFormat="1" spans="3:11">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="3:11">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" spans="3:11">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:11">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" customFormat="1" spans="3:11">
       <c r="C26" s="8"/>
@@ -1914,38 +1855,12 @@
       <c r="F27" s="8"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" customFormat="1" spans="2:12">
-      <c r="B28">
-        <v>4100205</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
+    <row r="28" customFormat="1" spans="3:11">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="8"/>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>15008006</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" customFormat="1" spans="3:11">
       <c r="C29" s="8"/>
@@ -1961,48 +1876,123 @@
       <c r="F30" s="8"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" customFormat="1" spans="3:11">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" customFormat="1" spans="3:11">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" customFormat="1" spans="3:11">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="2:11">
+    <row r="31" customFormat="1" spans="2:11">
+      <c r="B31">
+        <v>4100101</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>15008006</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:11">
+      <c r="B32">
+        <v>4100102</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>15008006</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:11">
+      <c r="B33">
+        <v>4100103</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>15008006</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="2:11">
       <c r="B34">
-        <v>4001001</v>
+        <v>4100104</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34" s="9">
         <v>2</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>15008027</v>
+        <v>15008006</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2014,21 +2004,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" customFormat="1" spans="2:11">
       <c r="B35">
-        <v>4001002</v>
+        <v>4100105</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2046,266 +2036,196 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
-      <c r="B36">
+    <row r="36" customFormat="1" spans="3:11">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" customFormat="1" spans="3:11">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" customFormat="1" spans="2:12">
+      <c r="B38">
+        <v>4100205</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>15008006</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="3:11">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" customFormat="1" spans="3:11">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" customFormat="1" spans="3:11">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="8"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" customFormat="1" spans="3:11">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" customFormat="1" spans="3:11">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44">
+        <v>4001001</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>15008027</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45">
+        <v>4001002</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>15008006</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46">
         <v>4001003</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
+      <c r="C46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
         <v>15008006</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37">
-        <v>4001050</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>15008006</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39">
-        <v>4001004</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>15008006</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40">
-        <v>4001005</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="9">
-        <v>2</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>15008006</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41">
-        <v>4001006</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="9">
-        <v>2</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>15008006</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42">
-        <v>4001007</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="9">
-        <v>2</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>15008006</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43">
-        <v>4001008</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="9">
-        <v>2</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>15008019</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="8"/>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47">
-        <v>4002001</v>
+        <v>4001050</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E47" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>28</v>
@@ -2314,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2326,59 +2246,143 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
-      <c r="B48">
-        <v>4002002</v>
-      </c>
-      <c r="C48" s="8" t="s">
+    <row r="48" spans="3:6">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49">
+        <v>4001004</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>15008006</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50">
+        <v>4001005</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="9">
+        <v>2</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>15008006</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51">
+        <v>4001006</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>15008006</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52">
+        <v>4001007</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="E52" s="9">
+        <v>2</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
         <v>15008006</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="8"/>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53">
-        <v>4002004</v>
+        <v>4001008</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>60</v>
@@ -2387,16 +2391,16 @@
         <v>60</v>
       </c>
       <c r="E53" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>15008006</v>
+        <v>15008019</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2414,81 +2418,81 @@
       <c r="E54" s="9"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="2:11">
-      <c r="B55">
-        <v>4002006</v>
-      </c>
-      <c r="C55" s="8" t="s">
+    <row r="55" spans="3:6">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57">
+        <v>4002001</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>15008028</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58">
+        <v>4002002</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="9">
-        <v>2</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>15008028</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56">
-        <v>4002007</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="9">
-        <v>2</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
         <v>15008006</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="8"/>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" spans="3:6">
       <c r="C59" s="8"/>
@@ -2496,129 +2500,77 @@
       <c r="E59" s="9"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="3:6">
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61">
-        <v>4002010</v>
-      </c>
-      <c r="C61" s="8" t="s">
+    <row r="61" spans="3:6">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63">
+        <v>4002004</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E61" s="9">
-        <v>2</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>15008028</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62">
-        <v>4002011</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
+      <c r="E63" s="9">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
         <v>15008006</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64">
-        <v>4002020</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>15008006</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="2:11">
       <c r="B65">
-        <v>4002021</v>
+        <v>4002006</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E65" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2632,25 +2584,25 @@
     </row>
     <row r="66" spans="2:11">
       <c r="B66">
-        <v>4002022</v>
+        <v>4002007</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E66" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>15008013</v>
+        <v>15008006</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2662,206 +2614,390 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
-      <c r="B67">
-        <v>4002023</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>15008020</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70">
-        <v>4002030</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>15008020</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="67" spans="3:6">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="8"/>
     </row>
     <row r="71" spans="2:11">
       <c r="B71">
-        <v>4002031</v>
+        <v>4002010</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E71" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>15008028</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72">
+        <v>4002011</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>15008006</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74">
+        <v>4002020</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>15008020</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="D74" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>15008006</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75">
+        <v>4002021</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>15008006</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76">
+        <v>4002022</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>15008013</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77">
+        <v>4002023</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>15008020</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80">
+        <v>4002030</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>15008020</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81">
+        <v>4002031</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="9">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>15008020</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85">
         <v>4005001</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
+      <c r="C85" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
         <v>15008013</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88">
         <v>4006101</v>
       </c>
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" t="s">
-        <v>76</v>
-      </c>
-      <c r="F78" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
         <v>15008006</v>
       </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="2:11">
-      <c r="B79">
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="2:11">
+      <c r="B89">
         <v>4006201</v>
       </c>
-      <c r="C79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s">
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s">
         <v>31</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
         <v>15008006</v>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" customFormat="1" spans="2:11">
-      <c r="B80">
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" customFormat="1" spans="2:11">
+      <c r="B90">
         <v>4006301</v>
       </c>
-      <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s">
-        <v>80</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
+      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
         <v>15008013</v>
       </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2"/>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="15735" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -229,6 +229,21 @@
     <t>2,1000,1</t>
   </si>
   <si>
+    <t>萧玉普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>萧玉 q 队友加血效果计算</t>
+  </si>
+  <si>
+    <t>1,-750,1</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算</t>
+  </si>
+  <si>
+    <t>1,1500,1</t>
+  </si>
+  <si>
     <t>怪物1普通攻击投掷物效果计算</t>
   </si>
   <si>
@@ -242,9 +257,6 @@
   </si>
   <si>
     <t>回旋镖 技能伤害 lv3</t>
-  </si>
-  <si>
-    <t>1,1500,1</t>
   </si>
   <si>
     <t>回旋镖 技能伤害 lv4</t>
@@ -1387,7 +1399,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1743,26 +1755,110 @@
       <c r="F15" s="8"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" customFormat="1" spans="3:11">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" customFormat="1" spans="3:11">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" customFormat="1" spans="3:11">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="K18" s="2"/>
+    <row r="16" customFormat="1" spans="1:11">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>4005101</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>15008027</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:11">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>4005201</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>15008027</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:11">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4005301</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>15008027</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" customFormat="1" spans="3:11">
       <c r="C19" s="8"/>
@@ -1786,10 +1882,10 @@
         <v>4101101</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E21" s="9">
         <v>2</v>
@@ -1881,16 +1977,16 @@
         <v>4100101</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E31" s="9">
         <v>2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1913,10 +2009,10 @@
         <v>4100102</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E32" s="9">
         <v>2</v>
@@ -1945,16 +2041,16 @@
         <v>4100103</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E33" s="9">
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1977,16 +2073,16 @@
         <v>4100104</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E34" s="9">
         <v>2</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2009,16 +2105,16 @@
         <v>4100105</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E35" s="9">
         <v>2</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2055,10 +2151,10 @@
         <v>4100205</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
@@ -2123,10 +2219,10 @@
         <v>4001001</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E44" s="9">
         <v>2</v>
@@ -2155,16 +2251,16 @@
         <v>4001002</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2187,16 +2283,16 @@
         <v>4001003</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2219,10 +2315,10 @@
         <v>4001050</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
@@ -2257,16 +2353,16 @@
         <v>4001004</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E49" s="9">
         <v>0</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2289,16 +2385,16 @@
         <v>4001005</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E50" s="9">
         <v>2</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2321,16 +2417,16 @@
         <v>4001006</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E51" s="9">
         <v>2</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2353,16 +2449,16 @@
         <v>4001007</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E52" s="9">
         <v>2</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2385,16 +2481,16 @@
         <v>4001008</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E53" s="9">
         <v>2</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2435,10 +2531,10 @@
         <v>4002001</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E57" s="9">
         <v>2</v>
@@ -2467,16 +2563,16 @@
         <v>4002002</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2517,16 +2613,16 @@
         <v>4002004</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E63" s="9">
         <v>0</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2555,10 +2651,10 @@
         <v>4002006</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E65" s="9">
         <v>2</v>
@@ -2587,16 +2683,16 @@
         <v>4002007</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E66" s="9">
         <v>2</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2643,10 +2739,10 @@
         <v>4002010</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E71" s="9">
         <v>2</v>
@@ -2675,16 +2771,16 @@
         <v>4002011</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2707,16 +2803,16 @@
         <v>4002020</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2739,16 +2835,16 @@
         <v>4002021</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2771,16 +2867,16 @@
         <v>4002022</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2803,16 +2899,16 @@
         <v>4002023</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2835,16 +2931,16 @@
         <v>4002030</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2867,16 +2963,16 @@
         <v>4002031</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2899,16 +2995,16 @@
         <v>4005001</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E85" s="9">
         <v>0</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2931,13 +3027,13 @@
         <v>4006101</v>
       </c>
       <c r="C88" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F88" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2954,10 +3050,10 @@
         <v>4006201</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s">
@@ -2979,14 +3075,14 @@
         <v>4006301</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G90">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="30240" windowHeight="17400" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -119,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -227,6 +214,12 @@
   </si>
   <si>
     <t>2,1000,1</t>
+  </si>
+  <si>
+    <t>夜魂q攻击附带护甲伤害效果计算</t>
+  </si>
+  <si>
+    <t>2,1500,1</t>
   </si>
   <si>
     <t>萧玉普通攻击投掷物效果计算</t>
@@ -388,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -548,12 +541,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1028,20 +1021,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1394,15 +1387,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
@@ -1430,7 +1423,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1448,7 +1441,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1468,7 +1461,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1486,7 +1479,7 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1497,22 +1490,22 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1524,32 +1517,32 @@
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="3:11">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="6"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="3:11">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="3:11">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="6"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="1:11">
@@ -1559,16 +1552,16 @@
       <c r="B7">
         <v>4003101</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G7">
@@ -1594,16 +1587,16 @@
       <c r="B8">
         <v>4003201</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G8">
@@ -1629,16 +1622,16 @@
       <c r="B9">
         <v>4003301</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G9">
@@ -1658,17 +1651,17 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="3:11">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="1" spans="3:11">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="6"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" customFormat="1" spans="1:11">
@@ -1678,16 +1671,16 @@
       <c r="B12">
         <v>4004101</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G12">
@@ -1713,16 +1706,16 @@
       <c r="B13">
         <v>4004201</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G13">
@@ -1741,73 +1734,73 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="3:11">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="K14" s="2"/>
+    <row r="14" customFormat="1" spans="1:11">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4004301</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>15008027</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" customFormat="1" spans="3:11">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" customFormat="1" spans="1:11">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>4005101</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>15008027</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="16" customFormat="1" spans="3:11">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>4005201</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>4005101</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>38</v>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1830,18 +1823,18 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>4005301</v>
-      </c>
-      <c r="C18" s="8" t="s">
+        <v>4005201</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="9">
         <v>2</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G18">
@@ -1860,165 +1853,168 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="3:11">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
-      <c r="K19" s="2"/>
+    <row r="19" customFormat="1" spans="1:11">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>4005301</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>15008027</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" customFormat="1" spans="3:11">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="6"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" customFormat="1" spans="1:11">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
+    <row r="21" customFormat="1" spans="3:11">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
         <v>4101101</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="9">
         <v>2</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>15008028</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="3:11">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="K22" s="2"/>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" customFormat="1" spans="3:11">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="6"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" customFormat="1" spans="3:11">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="6"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" customFormat="1" spans="3:11">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="6"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" customFormat="1" spans="3:11">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="6"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" customFormat="1" spans="3:11">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="6"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" customFormat="1" spans="3:11">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="6"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" customFormat="1" spans="3:11">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="6"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="3:11">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="6"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" customFormat="1" spans="2:11">
-      <c r="B31">
-        <v>4100101</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="9">
-        <v>2</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>15008006</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="31" customFormat="1" spans="3:11">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="6"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" customFormat="1" spans="2:11">
       <c r="B32">
-        <v>4100102</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>4100101</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>28</v>
+      <c r="F32" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2038,19 +2034,19 @@
     </row>
     <row r="33" customFormat="1" spans="2:11">
       <c r="B33">
-        <v>4100103</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>45</v>
+        <v>4100102</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E33" s="9">
         <v>2</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>40</v>
+      <c r="F33" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2070,19 +2066,19 @@
     </row>
     <row r="34" customFormat="1" spans="2:11">
       <c r="B34">
-        <v>4100104</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>46</v>
+        <v>4100103</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E34" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>47</v>
+      <c r="F34" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2102,18 +2098,18 @@
     </row>
     <row r="35" customFormat="1" spans="2:11">
       <c r="B35">
-        <v>4100105</v>
-      </c>
-      <c r="C35" s="8" t="s">
+        <v>4100104</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="9">
         <v>2</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G35">
@@ -2132,141 +2128,141 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="3:11">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="K36" s="2"/>
+    <row r="36" customFormat="1" spans="2:11">
+      <c r="B36">
+        <v>4100105</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>15008006</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37" customFormat="1" spans="3:11">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="6"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" customFormat="1" spans="2:12">
-      <c r="B38">
+    <row r="38" customFormat="1" spans="3:11">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="6"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" customFormat="1" spans="2:12">
+      <c r="B39">
         <v>4100205</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="C39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>15008006</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="3:11">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8"/>
-      <c r="K39" s="2"/>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="1" spans="3:11">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="6"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" customFormat="1" spans="3:11">
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="6"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" customFormat="1" spans="3:11">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="6"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" customFormat="1" spans="3:11">
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="6"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11">
-      <c r="B44">
-        <v>4001001</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="9">
-        <v>2</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>15008027</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="44" customFormat="1" spans="3:11">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="6"/>
+      <c r="K44" s="2"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45">
-        <v>4001002</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>52</v>
+        <v>4001001</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>15008006</v>
+        <v>15008027</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2280,19 +2276,19 @@
     </row>
     <row r="46" spans="2:11">
       <c r="B46">
-        <v>4001003</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>53</v>
+        <v>4001002</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>54</v>
+      <c r="F46" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2312,19 +2308,19 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47">
-        <v>4001050</v>
-      </c>
-      <c r="C47" s="8" t="s">
+        <v>4001003</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>28</v>
+      <c r="F47" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2342,58 +2338,58 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49">
-        <v>4001004</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8" t="s">
+    <row r="48" spans="2:11">
+      <c r="B48">
+        <v>4001050</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
+      <c r="D48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>15008006</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50">
-        <v>4001005</v>
-      </c>
-      <c r="C50" s="8" t="s">
+        <v>4001004</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="9">
-        <v>2</v>
-      </c>
-      <c r="F50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G50">
@@ -2414,19 +2410,19 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51">
-        <v>4001006</v>
-      </c>
-      <c r="C51" s="8" t="s">
+        <v>4001005</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>61</v>
+      <c r="D51" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E51" s="9">
         <v>2</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>40</v>
+      <c r="F51" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2446,19 +2442,19 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52">
-        <v>4001007</v>
-      </c>
-      <c r="C52" s="8" t="s">
+        <v>4001006</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>62</v>
+      <c r="D52" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E52" s="9">
         <v>2</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>63</v>
+      <c r="F52" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2478,372 +2474,372 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53">
-        <v>4001008</v>
-      </c>
-      <c r="C53" s="8" t="s">
+        <v>4001007</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="9">
         <v>2</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>47</v>
+      <c r="F53" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
+        <v>15008006</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54">
+        <v>4001008</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="9">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
         <v>15008019</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="8"/>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="55" spans="3:6">
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="3:6">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57">
-        <v>4002001</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="9">
-        <v>2</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>15008028</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="2:11">
       <c r="B58">
+        <v>4002001</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="9">
+        <v>2</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>15008028</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59">
         <v>4002002</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
+      <c r="C59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>15008006</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6">
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="8"/>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64">
         <v>4002004</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
+      <c r="C64" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>15008006</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6">
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65">
-        <v>4002006</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" s="9">
-        <v>2</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>15008028</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" spans="2:11">
       <c r="B66">
-        <v>4002007</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>69</v>
+        <v>4002006</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E66" s="9">
         <v>2</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>49</v>
+      <c r="F66" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
+        <v>15008028</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67">
+        <v>4002007</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="9">
+        <v>2</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
         <v>15008006</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="8"/>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69" spans="3:6">
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" spans="3:6">
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71">
-        <v>4002010</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71" s="9">
-        <v>2</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>15008028</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72" spans="2:11">
       <c r="B72">
+        <v>4002010</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="9">
+        <v>2</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>15008028</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73">
         <v>4002011</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
+      <c r="C73" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
         <v>15008006</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="B74">
-        <v>4002020</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>15008006</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75">
-        <v>4002021</v>
-      </c>
-      <c r="C75" s="8" t="s">
+        <v>4002020</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G75">
@@ -2864,25 +2860,25 @@
     </row>
     <row r="76" spans="2:11">
       <c r="B76">
-        <v>4002022</v>
-      </c>
-      <c r="C76" s="8" t="s">
+        <v>4002021</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="6" t="s">
         <v>77</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>15008013</v>
+        <v>15008006</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2896,83 +2892,83 @@
     </row>
     <row r="77" spans="2:11">
       <c r="B77">
+        <v>4002022</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>15008013</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78">
         <v>4002023</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
+      <c r="C78" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
         <v>15008020</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80">
-        <v>4002030</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>15008020</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81">
-        <v>4002031</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>80</v>
+        <v>4002030</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>75</v>
+      <c r="F81" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2990,64 +2986,73 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
-      <c r="B85">
+    <row r="82" spans="2:11">
+      <c r="B82">
+        <v>4002031</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>15008020</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86">
         <v>4005001</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E85" s="9">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
+      <c r="C86" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
         <v>15008013</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="B88">
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89">
         <v>4006101</v>
-      </c>
-      <c r="C88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" t="s">
-        <v>83</v>
-      </c>
-      <c r="F88" t="s">
-        <v>84</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>15008006</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="2:11">
-      <c r="B89">
-        <v>4006201</v>
       </c>
       <c r="C89" t="s">
         <v>85</v>
@@ -3055,9 +3060,8 @@
       <c r="D89" t="s">
         <v>85</v>
       </c>
-      <c r="E89" s="2"/>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3068,32 +3072,56 @@
       <c r="J89">
         <v>1</v>
       </c>
-      <c r="K89" s="2"/>
     </row>
     <row r="90" customFormat="1" spans="2:11">
       <c r="B90">
-        <v>4006301</v>
+        <v>4006201</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
+        <v>15008006</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" customFormat="1" spans="2:11">
+      <c r="B91">
+        <v>4006301</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
         <v>15008013</v>
       </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2"/>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3112,7 +3140,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3129,7 +3157,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="17400" tabRatio="601"/>
+    <workbookView windowWidth="26640" windowHeight="17400" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>#</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>2,1500,1</t>
+  </si>
+  <si>
+    <t>夜魂大招伤害</t>
+  </si>
+  <si>
+    <t>2,2000,1</t>
   </si>
   <si>
     <t>萧玉普通攻击投掷物效果计算</t>
@@ -1392,7 +1398,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1769,12 +1775,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="3:11">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
-      <c r="K15" s="2"/>
+    <row r="15" customFormat="1" spans="1:11">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4004401</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>15008027</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" customFormat="1" spans="3:11">
       <c r="C16" s="6"/>
@@ -1791,10 +1825,10 @@
         <v>4005101</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
@@ -1826,16 +1860,16 @@
         <v>4005201</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="9">
         <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1861,16 +1895,16 @@
         <v>4005301</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="9">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1910,10 +1944,10 @@
         <v>4101101</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="9">
         <v>2</v>
@@ -2005,16 +2039,16 @@
         <v>4100101</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9">
         <v>2</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2037,10 +2071,10 @@
         <v>4100102</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33" s="9">
         <v>2</v>
@@ -2069,16 +2103,16 @@
         <v>4100103</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E34" s="9">
         <v>2</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2101,16 +2135,16 @@
         <v>4100104</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E35" s="9">
         <v>2</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2133,16 +2167,16 @@
         <v>4100105</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E36" s="9">
         <v>2</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2179,10 +2213,10 @@
         <v>4100205</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E39" s="9">
         <v>0</v>
@@ -2247,10 +2281,10 @@
         <v>4001001</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E45" s="9">
         <v>2</v>
@@ -2279,16 +2313,16 @@
         <v>4001002</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2311,16 +2345,16 @@
         <v>4001003</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2343,10 +2377,10 @@
         <v>4001050</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
@@ -2381,16 +2415,16 @@
         <v>4001004</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2413,16 +2447,16 @@
         <v>4001005</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E51" s="9">
         <v>2</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2445,16 +2479,16 @@
         <v>4001006</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E52" s="9">
         <v>2</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2477,16 +2511,16 @@
         <v>4001007</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E53" s="9">
         <v>2</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2509,16 +2543,16 @@
         <v>4001008</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E54" s="9">
         <v>2</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2559,10 +2593,10 @@
         <v>4002001</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E58" s="9">
         <v>2</v>
@@ -2591,16 +2625,16 @@
         <v>4002002</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E59" s="9">
         <v>0</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2641,16 +2675,16 @@
         <v>4002004</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2679,10 +2713,10 @@
         <v>4002006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E66" s="9">
         <v>2</v>
@@ -2711,16 +2745,16 @@
         <v>4002007</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E67" s="9">
         <v>2</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2767,10 +2801,10 @@
         <v>4002010</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E72" s="9">
         <v>2</v>
@@ -2799,16 +2833,16 @@
         <v>4002011</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E73" s="9">
         <v>0</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2831,16 +2865,16 @@
         <v>4002020</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2863,16 +2897,16 @@
         <v>4002021</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2895,16 +2929,16 @@
         <v>4002022</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2927,16 +2961,16 @@
         <v>4002023</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2959,16 +2993,16 @@
         <v>4002030</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2991,16 +3025,16 @@
         <v>4002031</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3023,16 +3057,16 @@
         <v>4005001</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3055,13 +3089,13 @@
         <v>4006101</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3078,10 +3112,10 @@
         <v>4006201</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s">
@@ -3103,14 +3137,14 @@
         <v>4006301</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G91">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>1,1500,1</t>
+  </si>
+  <si>
+    <t>萧玉 q 被动加血效果计算</t>
+  </si>
+  <si>
+    <t>1,-200,1</t>
   </si>
   <si>
     <t>怪物1普通攻击投掷物效果计算</t>
@@ -1398,7 +1404,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1922,12 +1928,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="3:11">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="K20" s="2"/>
+    <row r="20" customFormat="1" spans="1:11">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>4005401</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>15008027</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" customFormat="1" spans="3:11">
       <c r="C21" s="6"/>
@@ -1944,10 +1978,10 @@
         <v>4101101</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" s="9">
         <v>2</v>
@@ -2039,16 +2073,16 @@
         <v>4100101</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32" s="9">
         <v>2</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2071,10 +2105,10 @@
         <v>4100102</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" s="9">
         <v>2</v>
@@ -2103,10 +2137,10 @@
         <v>4100103</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="9">
         <v>2</v>
@@ -2135,16 +2169,16 @@
         <v>4100104</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E35" s="9">
         <v>2</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2167,16 +2201,16 @@
         <v>4100105</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E36" s="9">
         <v>2</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2213,10 +2247,10 @@
         <v>4100205</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E39" s="9">
         <v>0</v>
@@ -2281,10 +2315,10 @@
         <v>4001001</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E45" s="9">
         <v>2</v>
@@ -2313,16 +2347,16 @@
         <v>4001002</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2345,16 +2379,16 @@
         <v>4001003</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2377,10 +2411,10 @@
         <v>4001050</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
@@ -2415,16 +2449,16 @@
         <v>4001004</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2447,16 +2481,16 @@
         <v>4001005</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E51" s="9">
         <v>2</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2479,10 +2513,10 @@
         <v>4001006</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E52" s="9">
         <v>2</v>
@@ -2511,16 +2545,16 @@
         <v>4001007</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E53" s="9">
         <v>2</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2543,16 +2577,16 @@
         <v>4001008</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E54" s="9">
         <v>2</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2593,10 +2627,10 @@
         <v>4002001</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E58" s="9">
         <v>2</v>
@@ -2625,16 +2659,16 @@
         <v>4002002</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E59" s="9">
         <v>0</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2675,10 +2709,10 @@
         <v>4002004</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
@@ -2713,10 +2747,10 @@
         <v>4002006</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E66" s="9">
         <v>2</v>
@@ -2745,16 +2779,16 @@
         <v>4002007</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E67" s="9">
         <v>2</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2801,10 +2835,10 @@
         <v>4002010</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E72" s="9">
         <v>2</v>
@@ -2833,16 +2867,16 @@
         <v>4002011</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E73" s="9">
         <v>0</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2865,16 +2899,16 @@
         <v>4002020</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2897,16 +2931,16 @@
         <v>4002021</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2929,16 +2963,16 @@
         <v>4002022</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2961,16 +2995,16 @@
         <v>4002023</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2993,10 +3027,10 @@
         <v>4002030</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
@@ -3025,16 +3059,16 @@
         <v>4002031</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3057,16 +3091,16 @@
         <v>4005001</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3089,13 +3123,13 @@
         <v>4006101</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3112,10 +3146,10 @@
         <v>4006201</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D90" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s">
@@ -3137,14 +3171,14 @@
         <v>4006301</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G91">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="17400" tabRatio="601"/>
+    <workbookView windowWidth="18270" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -66,11 +79,20 @@
 x,y,z :
 x:伤害加成 
    0 固定值
-  1 当前物理攻击的千分比数量
-  2 护甲的千分比数量
-  3 最大生命加成的千分比数量
-  20 造成伤害的千分比数量
-  30 损失生命的千分比比值
+     //固定伤害值
+        Fixed = 0,
+        //物理攻击的千分比
+        PhysicAttack_Permillage = 1,
+        //魔法攻击的千分比数量
+        MagicAttack_Permillage = 2,
+        //生命值的千分比数量
+        MaxHealth_Permillage = 3,
+        //护甲的千分比数量
+        Defence_Permillage = 4,
+        //造成伤害的千分比数量
+        HurtDamage_Permillage = 20,
+        //已经损失的生命值的千分比值
+        LostHealth_Permillage_Rate = 30,
 y:对应效果值 ， x:0 对应的是数值 其他的是千分比计算后的数量或者是比值
 z:效果类型 1:物理 2:法强
 </t>
@@ -106,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -213,19 +235,19 @@
     <t>夜魂q被动区域效果计算</t>
   </si>
   <si>
-    <t>2,1000,1</t>
+    <t>4,1000,1</t>
   </si>
   <si>
     <t>夜魂q攻击附带护甲伤害效果计算</t>
   </si>
   <si>
-    <t>2,1500,1</t>
+    <t>4,1500,1</t>
   </si>
   <si>
     <t>夜魂大招伤害</t>
   </si>
   <si>
-    <t>2,2000,1</t>
+    <t>4,2000,1</t>
   </si>
   <si>
     <t>萧玉普通攻击投掷物效果计算</t>
@@ -249,6 +271,12 @@
     <t>1,-200,1</t>
   </si>
   <si>
+    <t>萧玉 大招伤害计算</t>
+  </si>
+  <si>
+    <t>1,2000,1</t>
+  </si>
+  <si>
     <t>怪物1普通攻击投掷物效果计算</t>
   </si>
   <si>
@@ -265,9 +293,6 @@
   </si>
   <si>
     <t>回旋镖 技能伤害 lv4</t>
-  </si>
-  <si>
-    <t>1,2000,1</t>
   </si>
   <si>
     <t>回旋镖 技能伤害 lv5</t>
@@ -393,7 +418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -553,12 +578,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1033,20 +1058,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1399,15 +1424,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
@@ -1435,7 +1460,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1453,7 +1478,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1473,7 +1498,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1491,7 +1516,7 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1502,22 +1527,22 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1529,32 +1554,32 @@
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="3:11">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="8"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="3:11">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="8"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="3:11">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="8"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="1:11">
@@ -1564,16 +1589,16 @@
       <c r="B7">
         <v>4003101</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G7">
@@ -1599,16 +1624,16 @@
       <c r="B8">
         <v>4003201</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G8">
@@ -1634,16 +1659,16 @@
       <c r="B9">
         <v>4003301</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G9">
@@ -1663,17 +1688,17 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="3:11">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="1" spans="3:11">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="8"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" customFormat="1" spans="1:11">
@@ -1683,16 +1708,16 @@
       <c r="B12">
         <v>4004101</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G12">
@@ -1718,16 +1743,16 @@
       <c r="B13">
         <v>4004201</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G13">
@@ -1753,16 +1778,16 @@
       <c r="B14">
         <v>4004301</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="9">
         <v>2</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G14">
@@ -1788,16 +1813,16 @@
       <c r="B15">
         <v>4004401</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="9">
         <v>2</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G15">
@@ -1817,10 +1842,10 @@
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:11">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="8"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
@@ -1830,16 +1855,16 @@
       <c r="B17">
         <v>4005101</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G17">
@@ -1865,16 +1890,16 @@
       <c r="B18">
         <v>4005201</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="9">
         <v>2</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="G18">
@@ -1900,16 +1925,16 @@
       <c r="B19">
         <v>4005301</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G19">
@@ -1935,16 +1960,16 @@
       <c r="B20">
         <v>4005401</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="9">
         <v>2</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G20">
@@ -1963,299 +1988,254 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="3:11">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:11">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
+    <row r="21" customFormat="1" spans="1:11">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>4005501</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>15008027</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="3:11">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="3:11">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" spans="3:11">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:11">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:11">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:11">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
         <v>4101101</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="9">
         <v>2</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>15008028</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="3:11">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" customFormat="1" spans="3:11">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" customFormat="1" spans="3:11">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" customFormat="1" spans="3:11">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="6"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" customFormat="1" spans="3:11">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="6"/>
-      <c r="K27" s="2"/>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" customFormat="1" spans="3:11">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="8"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" customFormat="1" spans="3:11">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="8"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="3:11">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="8"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" customFormat="1" spans="3:11">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="8"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" customFormat="1" spans="2:11">
-      <c r="B32">
+    <row r="32" customFormat="1" spans="3:11">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" customFormat="1" spans="3:11">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" customFormat="1" spans="3:11">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" customFormat="1" spans="3:11">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" customFormat="1" spans="3:11">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" customFormat="1" spans="2:11">
+      <c r="B37">
         <v>4100101</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="C37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="F37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>15008006</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="2:11">
-      <c r="B33">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="2:11">
+      <c r="B38">
         <v>4100102</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="C38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="9">
         <v>2</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>15008006</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="2:11">
-      <c r="B34">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="2:11">
+      <c r="B39">
         <v>4100103</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="C39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>15008006</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="2:11">
-      <c r="B35">
-        <v>4100104</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="9">
-        <v>2</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>15008006</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="2:11">
-      <c r="B36">
-        <v>4100105</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="9">
-        <v>2</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>15008006</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="3:11">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="6"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" customFormat="1" spans="3:11">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="6"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" customFormat="1" spans="2:12">
-      <c r="B39">
-        <v>4100205</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6"/>
       <c r="G39">
         <v>1</v>
       </c>
@@ -2271,200 +2251,174 @@
       <c r="K39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="3:11">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="6"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" customFormat="1" spans="3:11">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="6"/>
-      <c r="K41" s="2"/>
+    </row>
+    <row r="40" customFormat="1" spans="2:11">
+      <c r="B40">
+        <v>4100104</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>15008006</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="2:11">
+      <c r="B41">
+        <v>4100105</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>15008006</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="42" customFormat="1" spans="3:11">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="8"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" customFormat="1" spans="3:11">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="8"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" customFormat="1" spans="3:11">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="6"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45">
-        <v>4001001</v>
-      </c>
-      <c r="C45" s="6" t="s">
+    <row r="44" customFormat="1" spans="2:12">
+      <c r="B44">
+        <v>4100205</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="9">
-        <v>2</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>15008027</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46">
-        <v>4001002</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>15008006</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47">
-        <v>4001003</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>15008006</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48">
-        <v>4001050</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>15008006</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="3:11">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="8"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" customFormat="1" spans="3:11">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" customFormat="1" spans="3:11">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" spans="3:11">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="8"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" spans="3:11">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="8"/>
+      <c r="K49" s="2"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50">
-        <v>4001004</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>62</v>
+        <v>4001001</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>15008006</v>
+        <v>15008027</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2478,19 +2432,19 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51">
-        <v>4001005</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>64</v>
+        <v>4001002</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E51" s="9">
-        <v>2</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2510,19 +2464,19 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52">
-        <v>4001006</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>67</v>
+        <v>4001003</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E52" s="9">
-        <v>2</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2542,19 +2496,19 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53">
-        <v>4001007</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>68</v>
+        <v>4001050</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E53" s="9">
-        <v>2</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2572,77 +2526,129 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
-      <c r="B54">
-        <v>4001008</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="9">
+    <row r="54" spans="3:6">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55">
+        <v>4001004</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>15008006</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56">
+        <v>4001005</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="9">
         <v>2</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>15008019</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="6"/>
+      <c r="F56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>15008006</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57">
+        <v>4001006</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>15008006</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58">
-        <v>4002001</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>47</v>
+        <v>4001007</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E58" s="9">
         <v>2</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>28</v>
+      <c r="F58" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2656,25 +2662,25 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59">
-        <v>4002002</v>
-      </c>
-      <c r="C59" s="6" t="s">
+        <v>4001008</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>15008006</v>
+        <v>15008019</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2687,38 +2693,70 @@
       </c>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="3:6">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="6"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63">
+        <v>4002001</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="9">
+        <v>2</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>15008028</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64">
-        <v>4002004</v>
-      </c>
-      <c r="C64" s="6" t="s">
+        <v>4002002</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2737,120 +2775,114 @@
       </c>
     </row>
     <row r="65" spans="3:6">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69">
+        <v>4002004</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>15008006</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71">
         <v>4002006</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="9">
+      <c r="C71" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="9">
         <v>2</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F71" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
         <v>15008028</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67">
-        <v>4002007</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="9">
-        <v>2</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>15008006</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="6"/>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72">
-        <v>4002010</v>
-      </c>
-      <c r="C72" s="6" t="s">
+        <v>4002007</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E72" s="9">
         <v>2</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>28</v>
+      <c r="F72" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2862,123 +2894,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
-      <c r="B73">
-        <v>4002011</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="9">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>15008006</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="B75">
-        <v>4002020</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>15008006</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76">
-        <v>4002021</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>15008006</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="73" spans="3:6">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="8"/>
     </row>
     <row r="77" spans="2:11">
       <c r="B77">
-        <v>4002022</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>82</v>
+        <v>4002010</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>15008013</v>
+        <v>15008028</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2992,25 +2952,25 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78">
-        <v>4002023</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>84</v>
+        <v>4002011</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>49</v>
+      <c r="F78" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>15008020</v>
+        <v>15008006</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3019,30 +2979,62 @@
         <v>1</v>
       </c>
       <c r="K78" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80">
+        <v>4002020</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>15008006</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81">
-        <v>4002030</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>85</v>
+        <v>4002021</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
-      <c r="F81" s="6" t="s">
-        <v>44</v>
+      <c r="F81" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>15008020</v>
+        <v>15008006</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3056,129 +3048,147 @@
     </row>
     <row r="82" spans="2:11">
       <c r="B82">
-        <v>4002031</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>86</v>
+        <v>4002022</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>81</v>
+      <c r="F82" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
+        <v>15008013</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83">
+        <v>4002023</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
         <v>15008020</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86">
+        <v>4002030</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>15008020</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87">
+        <v>4002031</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>15008020</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91">
         <v>4005001</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="6" t="s">
+      <c r="C91" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>15008013</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89">
-        <v>4006101</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D91" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D89" t="s">
-        <v>89</v>
-      </c>
-      <c r="F89" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>15008006</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="2:11">
-      <c r="B90">
-        <v>4006201</v>
-      </c>
-      <c r="C90" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>15008006</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" customFormat="1" spans="2:11">
-      <c r="B91">
-        <v>4006301</v>
-      </c>
-      <c r="C91" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s">
-        <v>93</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3186,10 +3196,88 @@
       <c r="H91">
         <v>15008013</v>
       </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
       <c r="J91">
         <v>1</v>
       </c>
-      <c r="K91" s="2"/>
+      <c r="K91" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94">
+        <v>4006101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
+        <v>90</v>
+      </c>
+      <c r="F94" t="s">
+        <v>91</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>15008006</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="2:11">
+      <c r="B95">
+        <v>4006201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>15008006</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" customFormat="1" spans="2:11">
+      <c r="B96">
+        <v>4006301</v>
+      </c>
+      <c r="C96" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s">
+        <v>94</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>15008013</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3208,7 +3296,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3225,7 +3313,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -1429,7 +1429,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="18105" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -277,7 +277,13 @@
     <t>1,2000,1</t>
   </si>
   <si>
+    <t>承灵 普通攻击投掷物效果计算</t>
+  </si>
+  <si>
     <t>怪物1普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>承灵 q 召唤物 普通攻击效果计算</t>
   </si>
   <si>
     <t>回旋镖 技能伤害 lv1</t>
@@ -1427,9 +1433,9 @@
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2037,12 +2043,40 @@
       <c r="F23" s="8"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" customFormat="1" spans="3:11">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="K24" s="2"/>
+    <row r="24" customFormat="1" spans="1:11">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>4006101</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>15008028</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" customFormat="1" spans="3:11">
       <c r="C25" s="8"/>
@@ -2066,10 +2100,10 @@
         <v>4101101</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="9">
         <v>2</v>
@@ -2100,12 +2134,40 @@
       <c r="F28" s="8"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" customFormat="1" spans="3:11">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="K29" s="2"/>
+    <row r="29" customFormat="1" spans="1:11">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>4501101</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>15008028</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" customFormat="1" spans="3:11">
       <c r="C30" s="8"/>
@@ -2161,16 +2223,16 @@
         <v>4100101</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E37" s="9">
         <v>2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2193,10 +2255,10 @@
         <v>4100102</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E38" s="9">
         <v>2</v>
@@ -2225,10 +2287,10 @@
         <v>4100103</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E39" s="9">
         <v>2</v>
@@ -2257,10 +2319,10 @@
         <v>4100104</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E40" s="9">
         <v>2</v>
@@ -2289,16 +2351,16 @@
         <v>4100105</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E41" s="9">
         <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2335,10 +2397,10 @@
         <v>4100205</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
@@ -2403,10 +2465,10 @@
         <v>4001001</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E50" s="9">
         <v>2</v>
@@ -2435,16 +2497,16 @@
         <v>4001002</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2467,16 +2529,16 @@
         <v>4001003</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2499,10 +2561,10 @@
         <v>4001050</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E53" s="9">
         <v>0</v>
@@ -2537,16 +2599,16 @@
         <v>4001004</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2569,16 +2631,16 @@
         <v>4001005</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E56" s="9">
         <v>2</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2601,10 +2663,10 @@
         <v>4001006</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E57" s="9">
         <v>2</v>
@@ -2633,16 +2695,16 @@
         <v>4001007</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E58" s="9">
         <v>2</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2665,10 +2727,10 @@
         <v>4001008</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E59" s="9">
         <v>2</v>
@@ -2715,10 +2777,10 @@
         <v>4002001</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E63" s="9">
         <v>2</v>
@@ -2747,16 +2809,16 @@
         <v>4002002</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2797,10 +2859,10 @@
         <v>4002004</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E69" s="9">
         <v>0</v>
@@ -2835,10 +2897,10 @@
         <v>4002006</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E71" s="9">
         <v>2</v>
@@ -2867,16 +2929,16 @@
         <v>4002007</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E72" s="9">
         <v>2</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2923,10 +2985,10 @@
         <v>4002010</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E77" s="9">
         <v>2</v>
@@ -2955,16 +3017,16 @@
         <v>4002011</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2987,16 +3049,16 @@
         <v>4002020</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3019,16 +3081,16 @@
         <v>4002021</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3051,16 +3113,16 @@
         <v>4002022</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3083,16 +3145,16 @@
         <v>4002023</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E83" s="9">
         <v>0</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3115,10 +3177,10 @@
         <v>4002030</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
@@ -3147,16 +3209,16 @@
         <v>4002031</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E87" s="9">
         <v>0</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -3179,16 +3241,16 @@
         <v>4005001</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E91" s="9">
         <v>0</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3211,13 +3273,13 @@
         <v>4006101</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3234,10 +3296,10 @@
         <v>4006201</v>
       </c>
       <c r="C95" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s">
@@ -3259,14 +3321,14 @@
         <v>4006301</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G96">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="98">
   <si>
     <t>#</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>承灵 q 召唤物 普通攻击效果计算</t>
+  </si>
+  <si>
+    <t>承灵 大招 召唤物 普通攻击效果计算</t>
   </si>
   <si>
     <t>回旋镖 技能伤害 lv1</t>
@@ -1433,9 +1436,9 @@
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2169,12 +2172,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="3:11">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
-      <c r="K30" s="2"/>
+    <row r="30" customFormat="1" spans="1:11">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>4502101</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>15008028</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" customFormat="1" spans="3:11">
       <c r="C31" s="8"/>
@@ -2223,16 +2254,16 @@
         <v>4100101</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" s="9">
         <v>2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2255,10 +2286,10 @@
         <v>4100102</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" s="9">
         <v>2</v>
@@ -2287,10 +2318,10 @@
         <v>4100103</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="9">
         <v>2</v>
@@ -2319,10 +2350,10 @@
         <v>4100104</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" s="9">
         <v>2</v>
@@ -2351,16 +2382,16 @@
         <v>4100105</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" s="9">
         <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2397,10 +2428,10 @@
         <v>4100205</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
@@ -2465,10 +2496,10 @@
         <v>4001001</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E50" s="9">
         <v>2</v>
@@ -2497,16 +2528,16 @@
         <v>4001002</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2529,16 +2560,16 @@
         <v>4001003</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2561,10 +2592,10 @@
         <v>4001050</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53" s="9">
         <v>0</v>
@@ -2599,16 +2630,16 @@
         <v>4001004</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2631,16 +2662,16 @@
         <v>4001005</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E56" s="9">
         <v>2</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2663,10 +2694,10 @@
         <v>4001006</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E57" s="9">
         <v>2</v>
@@ -2695,16 +2726,16 @@
         <v>4001007</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E58" s="9">
         <v>2</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2727,10 +2758,10 @@
         <v>4001008</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E59" s="9">
         <v>2</v>
@@ -2809,16 +2840,16 @@
         <v>4002002</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2859,10 +2890,10 @@
         <v>4002004</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E69" s="9">
         <v>0</v>
@@ -2897,10 +2928,10 @@
         <v>4002006</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E71" s="9">
         <v>2</v>
@@ -2929,16 +2960,16 @@
         <v>4002007</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E72" s="9">
         <v>2</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2985,10 +3016,10 @@
         <v>4002010</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E77" s="9">
         <v>2</v>
@@ -3017,16 +3048,16 @@
         <v>4002011</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3049,16 +3080,16 @@
         <v>4002020</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3081,16 +3112,16 @@
         <v>4002021</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3113,16 +3144,16 @@
         <v>4002022</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3145,16 +3176,16 @@
         <v>4002023</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" s="9">
         <v>0</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3177,10 +3208,10 @@
         <v>4002030</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
@@ -3209,16 +3240,16 @@
         <v>4002031</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E87" s="9">
         <v>0</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -3241,16 +3272,16 @@
         <v>4005001</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="9">
         <v>0</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3273,13 +3304,13 @@
         <v>4006101</v>
       </c>
       <c r="C94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3296,10 +3327,10 @@
         <v>4006201</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s">
@@ -3321,14 +3352,14 @@
         <v>4006301</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G96">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -1438,7 +1438,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="16245" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,6 +93,10 @@
         HurtDamage_Permillage = 20,
         //已经损失的生命值的千分比值
         LostHealth_Permillage_Rate = 30,
+        //召唤兽造成的伤害的千分比值
+        SummonEntityHurtDamage_Permilage = 40,
+        //召唤兽受到伤害的千分比值
+        SummonEntityBeHurtDamage_Permilage = 41,
 y:对应效果值 ， x:0 对应的是数值 其他的是千分比计算后的数量或者是比值
 z:效果类型 1:物理 2:法强
 </t>
@@ -128,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -278,6 +282,18 @@
   </si>
   <si>
     <t>承灵 普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>承灵 q 被动 召唤物造成伤害自己加血的计算</t>
+  </si>
+  <si>
+    <t>20,-10,1</t>
+  </si>
+  <si>
+    <t>承灵 q 被动 自己造成伤害给召唤兽加血的计算</t>
+  </si>
+  <si>
+    <t>20,-20,1</t>
   </si>
   <si>
     <t>怪物1普通攻击投掷物效果计算</t>
@@ -1433,12 +1449,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2081,54 +2097,82 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="3:11">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" customFormat="1" spans="3:11">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:11">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>4101101</v>
-      </c>
-      <c r="C27" s="8" t="s">
+    <row r="25" customFormat="1" spans="1:11">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>4006201</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E25" s="9">
         <v>2</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
+      <c r="F25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>15008028</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:11">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>4006301</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>15008028</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="3:11">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" customFormat="1" spans="3:11">
       <c r="C28" s="8"/>
@@ -2137,53 +2181,25 @@
       <c r="F28" s="8"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" customFormat="1" spans="1:11">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>4501101</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="9">
-        <v>2</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>15008028</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="29" customFormat="1" spans="3:11">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:11">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>4502101</v>
+        <v>4101101</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E30" s="9">
         <v>2</v>
@@ -2214,25 +2230,85 @@
       <c r="F31" s="8"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" customFormat="1" spans="3:11">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" customFormat="1" spans="3:11">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="K33" s="2"/>
+    <row r="32" customFormat="1" spans="1:11">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>4501101</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>15008028</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:11">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>4502101</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>15008028</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34" customFormat="1" spans="3:11">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
       <c r="F34" s="8"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" customFormat="1" spans="3:11">
@@ -2249,105 +2325,30 @@
       <c r="F36" s="8"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" customFormat="1" spans="2:11">
-      <c r="B37">
-        <v>4100101</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="9">
-        <v>2</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>15008006</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="2:11">
-      <c r="B38">
-        <v>4100102</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="9">
-        <v>2</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>15008006</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="2:11">
-      <c r="B39">
-        <v>4100103</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="9">
-        <v>2</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>15008006</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="37" customFormat="1" spans="3:11">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" customFormat="1" spans="3:11">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" customFormat="1" spans="3:11">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" customFormat="1" spans="2:11">
       <c r="B40">
-        <v>4100104</v>
+        <v>4100101</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>57</v>
@@ -2359,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2379,19 +2380,19 @@
     </row>
     <row r="41" customFormat="1" spans="2:11">
       <c r="B41">
-        <v>4100105</v>
+        <v>4100102</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E41" s="9">
         <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2409,34 +2410,86 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="3:11">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="8"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" customFormat="1" spans="3:11">
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="8"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" customFormat="1" spans="2:12">
+    <row r="42" customFormat="1" spans="2:11">
+      <c r="B42">
+        <v>4100103</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="9">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>15008006</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="2:11">
+      <c r="B43">
+        <v>4100104</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>15008006</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="2:11">
       <c r="B44">
-        <v>4100205</v>
+        <v>4100105</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="G44">
         <v>1</v>
       </c>
@@ -2451,9 +2504,6 @@
       </c>
       <c r="K44" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="3:11">
@@ -2470,12 +2520,38 @@
       <c r="F46" s="8"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" customFormat="1" spans="3:11">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
+    <row r="47" customFormat="1" spans="2:12">
+      <c r="B47">
+        <v>4100205</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
       <c r="F47" s="8"/>
-      <c r="K47" s="2"/>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>15008006</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="1" spans="3:11">
       <c r="C48" s="8"/>
@@ -2491,105 +2567,30 @@
       <c r="F49" s="8"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11">
-      <c r="B50">
-        <v>4001001</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="9">
-        <v>2</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>15008027</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51">
-        <v>4001002</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>15008006</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52">
-        <v>4001003</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>15008006</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="50" customFormat="1" spans="3:11">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" customFormat="1" spans="3:11">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="8"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" customFormat="1" spans="3:11">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="8"/>
+      <c r="K52" s="2"/>
     </row>
     <row r="53" spans="2:11">
       <c r="B53">
-        <v>4001050</v>
+        <v>4001001</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>65</v>
@@ -2598,7 +2599,7 @@
         <v>65</v>
       </c>
       <c r="E53" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>28</v>
@@ -2607,39 +2608,65 @@
         <v>1</v>
       </c>
       <c r="H53">
+        <v>15008027</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54">
+        <v>4001002</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
         <v>15008006</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="8"/>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55">
-        <v>4001004</v>
+        <v>4001003</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2659,19 +2686,19 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56">
-        <v>4001005</v>
+        <v>4001050</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E56" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2689,53 +2716,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
-      <c r="B57">
-        <v>4001006</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" s="9">
-        <v>2</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>15008006</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="57" spans="3:6">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="2:11">
       <c r="B58">
-        <v>4001007</v>
+        <v>4001004</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E58" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2755,117 +2756,143 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59">
-        <v>4001008</v>
+        <v>4001005</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E59" s="9">
         <v>2</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>15008006</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60">
+        <v>4001006</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="9">
+        <v>2</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>15008006</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61">
+        <v>4001007</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="9">
+        <v>2</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>15008006</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62">
+        <v>4001008</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="9">
+        <v>2</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>15008019</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6">
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="3:6">
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63">
-        <v>4002001</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" s="9">
-        <v>2</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>15008028</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64">
-        <v>4002002</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>15008006</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="8"/>
@@ -2873,11 +2900,69 @@
       <c r="E65" s="9"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="67" spans="3:6">
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="8"/>
+    <row r="66" spans="2:11">
+      <c r="B66">
+        <v>4002001</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="9">
+        <v>2</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>15008028</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67">
+        <v>4002002</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>15008006</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="68" spans="3:6">
       <c r="C68" s="8"/>
@@ -2885,91 +2970,33 @@
       <c r="E68" s="9"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="2:11">
-      <c r="B69">
-        <v>4002004</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>15008006</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="70" spans="3:6">
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="9"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="2:11">
-      <c r="B71">
-        <v>4002006</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71" s="9">
-        <v>2</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>15008028</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="71" spans="3:6">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" spans="2:11">
       <c r="B72">
-        <v>4002007</v>
+        <v>4002004</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E72" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2993,17 +3020,69 @@
       <c r="E73" s="9"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="3:6">
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="8"/>
+    <row r="74" spans="2:11">
+      <c r="B74">
+        <v>4002006</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="9">
+        <v>2</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>15008028</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75">
+        <v>4002007</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="9">
+        <v>2</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>15008006</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="76" spans="3:6">
       <c r="C76" s="8"/>
@@ -3011,91 +3090,45 @@
       <c r="E76" s="9"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="2:11">
-      <c r="B77">
-        <v>4002010</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="9">
-        <v>2</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>15008028</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78">
-        <v>4002011</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>15008006</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="77" spans="3:6">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="3:6">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="8"/>
     </row>
     <row r="80" spans="2:11">
       <c r="B80">
-        <v>4002020</v>
+        <v>4002010</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E80" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3109,19 +3142,19 @@
     </row>
     <row r="81" spans="2:11">
       <c r="B81">
-        <v>4002021</v>
+        <v>4002011</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3139,85 +3172,117 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
-      <c r="B82">
-        <v>4002022</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>15008013</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="83" spans="2:11">
       <c r="B83">
-        <v>4002023</v>
+        <v>4002020</v>
       </c>
       <c r="C83" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>15008006</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84">
+        <v>4002021</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>15008020</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="E84" s="9">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>15008006</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85">
+        <v>4002022</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>15008013</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86">
-        <v>4002030</v>
+        <v>4002023</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3235,142 +3300,174 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
-      <c r="B87">
+    <row r="89" spans="2:11">
+      <c r="B89">
+        <v>4002030</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="9">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>15008020</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90">
         <v>4002031</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
+      <c r="C90" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
         <v>15008020</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="B91">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94">
         <v>4005001</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="9">
-        <v>0</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
+      <c r="C94" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
         <v>15008013</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97">
         <v>4006101</v>
       </c>
-      <c r="C94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" t="s">
-        <v>93</v>
-      </c>
-      <c r="F94" t="s">
-        <v>94</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
+      <c r="C97" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
         <v>15008006</v>
       </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="2:11">
-      <c r="B95">
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="2:11">
+      <c r="B98">
         <v>4006201</v>
       </c>
-      <c r="C95" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s">
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s">
         <v>31</v>
       </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
         <v>15008006</v>
       </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" customFormat="1" spans="2:11">
-      <c r="B96">
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" customFormat="1" spans="2:11">
+      <c r="B99">
         <v>4006301</v>
       </c>
-      <c r="C96" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" t="s">
-        <v>96</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s">
-        <v>97</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s">
+        <v>101</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
         <v>15008013</v>
       </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2"/>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="104">
   <si>
     <t>#</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>承灵 大招 召唤物 普通攻击效果计算</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv1</t>
   </si>
   <si>
     <t>回旋镖 技能伤害 lv1</t>
@@ -1451,10 +1457,10 @@
   <sheetPr/>
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="$A37:$XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2325,12 +2331,40 @@
       <c r="F36" s="8"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" customFormat="1" spans="3:11">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="8"/>
-      <c r="K37" s="2"/>
+    <row r="37" customFormat="1" spans="1:11">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>4801101</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>15008028</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="38" customFormat="1" spans="3:11">
       <c r="C38" s="8"/>
@@ -2351,16 +2385,16 @@
         <v>4100101</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E40" s="9">
         <v>2</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2383,10 +2417,10 @@
         <v>4100102</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E41" s="9">
         <v>2</v>
@@ -2415,10 +2449,10 @@
         <v>4100103</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42" s="9">
         <v>2</v>
@@ -2447,10 +2481,10 @@
         <v>4100104</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E43" s="9">
         <v>2</v>
@@ -2479,16 +2513,16 @@
         <v>4100105</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E44" s="9">
         <v>2</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2525,10 +2559,10 @@
         <v>4100205</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
@@ -2593,10 +2627,10 @@
         <v>4001001</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E53" s="9">
         <v>2</v>
@@ -2625,16 +2659,16 @@
         <v>4001002</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2657,16 +2691,16 @@
         <v>4001003</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2689,10 +2723,10 @@
         <v>4001050</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
@@ -2727,16 +2761,16 @@
         <v>4001004</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2759,16 +2793,16 @@
         <v>4001005</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E59" s="9">
         <v>2</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2791,10 +2825,10 @@
         <v>4001006</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E60" s="9">
         <v>2</v>
@@ -2823,16 +2857,16 @@
         <v>4001007</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E61" s="9">
         <v>2</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2855,10 +2889,10 @@
         <v>4001008</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="9">
         <v>2</v>
@@ -2937,16 +2971,16 @@
         <v>4002002</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E67" s="9">
         <v>0</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2987,10 +3021,10 @@
         <v>4002004</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
@@ -3025,10 +3059,10 @@
         <v>4002006</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E74" s="9">
         <v>2</v>
@@ -3057,16 +3091,16 @@
         <v>4002007</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E75" s="9">
         <v>2</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -3113,10 +3147,10 @@
         <v>4002010</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E80" s="9">
         <v>2</v>
@@ -3145,16 +3179,16 @@
         <v>4002011</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3177,16 +3211,16 @@
         <v>4002020</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E83" s="9">
         <v>0</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3209,16 +3243,16 @@
         <v>4002021</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3241,16 +3275,16 @@
         <v>4002022</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="9">
         <v>0</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3273,16 +3307,16 @@
         <v>4002023</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3305,10 +3339,10 @@
         <v>4002030</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E89" s="9">
         <v>0</v>
@@ -3337,16 +3371,16 @@
         <v>4002031</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E90" s="9">
         <v>0</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3369,16 +3403,16 @@
         <v>4005001</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3401,13 +3435,13 @@
         <v>4006101</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3424,10 +3458,10 @@
         <v>4006201</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s">
@@ -3449,14 +3483,14 @@
         <v>4006301</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G99">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="15780" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,9 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>0 选取的目标
-1 技能释放单位
-2 技能目标单位</t>
+          <t>0 释放效果者（技能释放者）
+1 技能目标者
+5 释放者的召唤者（自己是召唤物的时候）</t>
         </r>
       </text>
     </comment>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -146,7 +146,7 @@
     <t>describe</t>
   </si>
   <si>
-    <t>effectTargetType</t>
+    <t>calculateEffectTargetType</t>
   </si>
   <si>
     <t>addedValueGroup</t>
@@ -191,7 +191,7 @@
     <t>技能介绍</t>
   </si>
   <si>
-    <t>施加效果的目标类型</t>
+    <t>计算目标类型</t>
   </si>
   <si>
     <t>附加伤害组（, | ）</t>
@@ -305,10 +305,19 @@
     <t>承灵 大招 召唤物 普通攻击效果计算</t>
   </si>
   <si>
-    <t>随机技能 连锁球</t>
-  </si>
-  <si>
     <t>随机技能 连锁球 lv1</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv1</t>
+  </si>
+  <si>
+    <t>20,500,1</t>
+  </si>
+  <si>
+    <t>随机技能 自爆人自爆伤害 lv1</t>
+  </si>
+  <si>
+    <t>1,10000,1</t>
   </si>
   <si>
     <t>回旋镖 技能伤害 lv1</t>
@@ -1076,20 +1085,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1098,13 +1110,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1455,12 +1470,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="$A37:$XFD37"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1474,7 +1489,7 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1482,7 +1497,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1491,7 +1506,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1509,7 +1524,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1529,7 +1544,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1547,7 +1562,7 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1558,22 +1573,22 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1585,33 +1600,33 @@
       <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="3:11">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="K4" s="2"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" customFormat="1" spans="3:11">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
-      <c r="K5" s="2"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" customFormat="1" spans="3:11">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="K6" s="2"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" customFormat="1" spans="1:11">
       <c r="A7" t="s">
@@ -1620,16 +1635,14 @@
       <c r="B7">
         <v>4003101</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G7">
@@ -1644,7 +1657,7 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1655,16 +1668,14 @@
       <c r="B8">
         <v>4003201</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="9">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G8">
@@ -1679,7 +1690,7 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1690,16 +1701,14 @@
       <c r="B9">
         <v>4003301</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G9">
@@ -1714,23 +1723,23 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="3:11">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="K10" s="2"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="3:11">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-      <c r="K11" s="2"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="1:11">
       <c r="A12" t="s">
@@ -1739,16 +1748,14 @@
       <c r="B12">
         <v>4004101</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="9">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G12">
@@ -1763,7 +1770,7 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1774,16 +1781,14 @@
       <c r="B13">
         <v>4004201</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="9">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G13">
@@ -1798,7 +1803,7 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1809,16 +1814,14 @@
       <c r="B14">
         <v>4004301</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="9">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G14">
@@ -1833,7 +1836,7 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1844,16 +1847,14 @@
       <c r="B15">
         <v>4004401</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="9">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G15">
@@ -1868,16 +1869,16 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:11">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="K16" s="2"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
       <c r="A17" t="s">
@@ -1886,16 +1887,14 @@
       <c r="B17">
         <v>4005101</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G17">
@@ -1910,7 +1909,7 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1921,16 +1920,14 @@
       <c r="B18">
         <v>4005201</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G18">
@@ -1945,7 +1942,7 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1956,16 +1953,14 @@
       <c r="B19">
         <v>4005301</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="9">
-        <v>2</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G19">
@@ -1980,7 +1975,7 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1991,16 +1986,14 @@
       <c r="B20">
         <v>4005401</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="9">
-        <v>2</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G20">
@@ -2015,7 +2008,7 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2026,16 +2019,14 @@
       <c r="B21">
         <v>4005501</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="9">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G21">
@@ -2050,23 +2041,23 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:11">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-      <c r="K22" s="2"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" customFormat="1" spans="3:11">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
-      <c r="K23" s="2"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" customFormat="1" spans="1:11">
       <c r="A24" t="s">
@@ -2075,16 +2066,14 @@
       <c r="B24">
         <v>4006101</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="9">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G24">
@@ -2099,7 +2088,7 @@
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2110,16 +2099,14 @@
       <c r="B25">
         <v>4006201</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="9">
-        <v>2</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G25">
@@ -2134,7 +2121,7 @@
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2145,16 +2132,14 @@
       <c r="B26">
         <v>4006301</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="9">
-        <v>2</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G26">
@@ -2169,30 +2154,30 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="3:11">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="K27" s="2"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" customFormat="1" spans="3:11">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="K28" s="2"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" customFormat="1" spans="3:11">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="K29" s="2"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" customFormat="1" spans="1:11">
       <c r="A30" t="s">
@@ -2201,16 +2186,14 @@
       <c r="B30">
         <v>4101101</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G30">
@@ -2225,16 +2208,16 @@
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="3:11">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="K31" s="2"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" customFormat="1" spans="1:11">
       <c r="A32" t="s">
@@ -2243,16 +2226,14 @@
       <c r="B32">
         <v>4501101</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="9">
-        <v>2</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G32">
@@ -2267,7 +2248,7 @@
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2278,16 +2259,14 @@
       <c r="B33">
         <v>4502101</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="9">
-        <v>2</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G33">
@@ -2302,34 +2281,34 @@
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="3:11">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" customFormat="1" spans="3:11">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="K35" s="2"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" customFormat="1" spans="3:11">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="K36" s="2"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" customFormat="1" spans="1:11">
       <c r="A37" t="s">
@@ -2338,16 +2317,14 @@
       <c r="B37">
         <v>4801101</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="9">
-        <v>2</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="D37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G37">
@@ -2362,313 +2339,281 @@
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="3:11">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" customFormat="1" spans="3:11">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" customFormat="1" spans="2:11">
-      <c r="B40">
+      <c r="K37" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:11">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>4801201</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>15008028</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:11">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>4801301</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="10">
+        <v>5</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>15008028</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="3:11">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" customFormat="1" spans="3:11">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" customFormat="1" spans="3:11">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" customFormat="1" spans="3:11">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" customFormat="1" spans="3:11">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" customFormat="1" spans="3:11">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" customFormat="1" spans="3:11">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" customFormat="1" spans="3:11">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" customFormat="1" spans="3:11">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" customFormat="1" spans="3:11">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" customFormat="1" spans="2:11">
+      <c r="B50">
         <v>4100101</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="9">
-        <v>2</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
+      <c r="C50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>15008006</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="2:11">
-      <c r="B41">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="2:11">
+      <c r="B51">
         <v>4100102</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="9">
-        <v>2</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="C51" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
         <v>15008006</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="2:11">
-      <c r="B42">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="2:11">
+      <c r="B52">
         <v>4100103</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="9">
-        <v>2</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="C52" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
         <v>15008006</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="2:11">
-      <c r="B43">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="2:11">
+      <c r="B53">
         <v>4100104</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="9">
-        <v>2</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="C53" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
         <v>15008006</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="2:11">
-      <c r="B44">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="2:11">
+      <c r="B54">
         <v>4100105</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="9">
-        <v>2</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>15008006</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="3:11">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="8"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" customFormat="1" spans="3:11">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="8"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" customFormat="1" spans="2:12">
-      <c r="B47">
-        <v>4100205</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>15008006</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="3:11">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="8"/>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" spans="3:11">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" spans="3:11">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="8"/>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" customFormat="1" spans="3:11">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="8"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" customFormat="1" spans="3:11">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="8"/>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53">
-        <v>4001001</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="9">
-        <v>2</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>15008027</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54">
-        <v>4001002</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2682,279 +2627,199 @@
       <c r="J54">
         <v>1</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55">
+      <c r="K54" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="3:11">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="9"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" customFormat="1" spans="3:11">
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="9"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" customFormat="1" spans="2:12">
+      <c r="B57">
+        <v>4100205</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="9"/>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>15008006</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="3:11">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="9"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" customFormat="1" spans="3:11">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="9"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" customFormat="1" spans="3:11">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="9"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" customFormat="1" spans="3:11">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="9"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" customFormat="1" spans="3:11">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="9"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63">
+        <v>4001001</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>15008027</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64">
+        <v>4001002</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>15008006</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65">
         <v>4001003</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
+      <c r="C65" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>15008006</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56">
-        <v>4001050</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>15008006</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58">
-        <v>4001004</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>15008006</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59">
-        <v>4001005</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="9">
-        <v>2</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>15008006</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60">
-        <v>4001006</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="9">
-        <v>2</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>15008006</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61">
-        <v>4001007</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="9">
-        <v>2</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>15008006</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62">
-        <v>4001008</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="9">
-        <v>2</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>15008019</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6">
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="3:6">
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="8"/>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66">
-        <v>4002001</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="9">
-        <v>2</v>
-      </c>
-      <c r="F66" s="8" t="s">
+        <v>4001050</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2962,303 +2827,320 @@
       <c r="J66">
         <v>1</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67">
-        <v>4002002</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="K66" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68">
+        <v>4001004</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>15008006</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69">
+        <v>4001005</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>15008006</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70">
+        <v>4001006</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>15008006</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71">
+        <v>4001007</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8" t="s">
+      <c r="E71" s="10"/>
+      <c r="F71" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
         <v>15008006</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="8"/>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72">
+        <v>4001008</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>15008019</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76">
+        <v>4002001</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>15008028</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77">
+        <v>4002002</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>15008006</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82">
         <v>4002004</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8" t="s">
+      <c r="C82" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
         <v>15008006</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="B74">
-        <v>4002006</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="9">
-        <v>2</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>15008028</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="B75">
-        <v>4002007</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" s="9">
-        <v>2</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>15008006</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6">
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="3:6">
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="3:6">
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="3:6">
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80">
-        <v>4002010</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="9">
-        <v>2</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>15008028</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81">
-        <v>4002011</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>15008006</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83">
-        <v>4002020</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>15008006</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="2:11">
       <c r="B84">
-        <v>4002021</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>91</v>
+        <v>4002006</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3266,31 +3148,29 @@
       <c r="J84">
         <v>1</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85">
-        <v>4002022</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="9">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>93</v>
+        <v>4002007</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>15008013</v>
+        <v>15008006</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3298,210 +3178,401 @@
       <c r="J85">
         <v>1</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86">
-        <v>4002023</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>15008020</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89">
-        <v>4002030</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>15008020</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="K85" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="2:11">
       <c r="B90">
-        <v>4002031</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8" t="s">
+        <v>4002010</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>15008028</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91">
+        <v>4002011</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>15008006</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93">
+        <v>4002020</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>15008020</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="D93" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>15008006</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94">
+        <v>4002021</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>15008006</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95">
+        <v>4002022</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>15008013</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96">
+        <v>4002023</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>15008020</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99">
+        <v>4002030</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>15008020</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100">
+        <v>4002031</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>15008020</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104">
         <v>4005001</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
+      <c r="C104" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
         <v>15008013</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97">
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107">
         <v>4006101</v>
       </c>
-      <c r="C97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" t="s">
-        <v>99</v>
-      </c>
-      <c r="F97" t="s">
-        <v>100</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
+      <c r="C107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" t="s">
+        <v>103</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
         <v>15008006</v>
       </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" spans="2:11">
-      <c r="B98">
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="2:11">
+      <c r="B108">
         <v>4006201</v>
       </c>
-      <c r="C98" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" t="s">
-        <v>101</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s">
+      <c r="C108" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" t="s">
         <v>31</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
         <v>15008006</v>
       </c>
-      <c r="J98">
-        <v>1</v>
-      </c>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" customFormat="1" spans="2:11">
-      <c r="B99">
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" customFormat="1" spans="2:11">
+      <c r="B109">
         <v>4006301</v>
       </c>
-      <c r="C99" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" t="s">
-        <v>102</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
+      <c r="C109" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" t="s">
+        <v>106</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
         <v>15008013</v>
       </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99" s="2"/>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -1472,10 +1472,10 @@
   <sheetPr/>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="$A40:$XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2416,6 +2416,10 @@
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="9"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" customFormat="1" spans="3:11">

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>1,10000,1</t>
+  </si>
+  <si>
+    <t>随机技能 周周敌人击晕伤害 lv1</t>
   </si>
   <si>
     <t>回旋镖 技能伤害 lv1</t>
@@ -1475,7 +1478,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="$A40:$XFD40"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2411,16 +2414,38 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="3:11">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+    <row r="40" customFormat="1" spans="1:11">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>4804301</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40" s="3"/>
+      <c r="F40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>15008028</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" customFormat="1" spans="3:11">
       <c r="C41" s="9"/>
@@ -2490,14 +2515,14 @@
         <v>4100101</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2520,10 +2545,10 @@
         <v>4100102</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="9" t="s">
@@ -2550,10 +2575,10 @@
         <v>4100103</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="9" t="s">
@@ -2580,10 +2605,10 @@
         <v>4100104</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="9" t="s">
@@ -2610,14 +2635,14 @@
         <v>4100105</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2654,10 +2679,10 @@
         <v>4100205</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="9"/>
@@ -2720,10 +2745,10 @@
         <v>4001001</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="9" t="s">
@@ -2750,14 +2775,14 @@
         <v>4001002</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2780,14 +2805,14 @@
         <v>4001003</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2810,10 +2835,10 @@
         <v>4001050</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="9" t="s">
@@ -2846,14 +2871,14 @@
         <v>4001004</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2876,14 +2901,14 @@
         <v>4001005</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2906,10 +2931,10 @@
         <v>4001006</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="9" t="s">
@@ -2936,14 +2961,14 @@
         <v>4001007</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2966,10 +2991,10 @@
         <v>4001008</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="9" t="s">
@@ -3044,14 +3069,14 @@
         <v>4002002</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3095,10 +3120,10 @@
         <v>4002004</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="9" t="s">
@@ -3131,10 +3156,10 @@
         <v>4002006</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="9" t="s">
@@ -3161,14 +3186,14 @@
         <v>4002007</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3215,10 +3240,10 @@
         <v>4002010</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="9" t="s">
@@ -3245,14 +3270,14 @@
         <v>4002011</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3278,14 +3303,14 @@
         <v>4002020</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3308,14 +3333,14 @@
         <v>4002021</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3338,14 +3363,14 @@
         <v>4002022</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3368,14 +3393,14 @@
         <v>4002023</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3404,10 +3429,10 @@
         <v>4002030</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9" t="s">
@@ -3434,14 +3459,14 @@
         <v>4002031</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3473,14 +3498,14 @@
         <v>4005001</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3509,14 +3534,14 @@
         <v>4006101</v>
       </c>
       <c r="C107" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D107" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3533,10 +3558,10 @@
         <v>4006201</v>
       </c>
       <c r="C108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" t="s">
@@ -3558,14 +3583,14 @@
         <v>4006301</v>
       </c>
       <c r="C109" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D109" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G109">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15780" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="14940" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv1</t>
+  </si>
+  <si>
+    <t>道具技能 被攻击反射一个攻击球</t>
   </si>
   <si>
     <t>回旋镖 技能伤害 lv1</t>
@@ -1476,9 +1479,9 @@
   <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2475,12 +2478,38 @@
       <c r="F44" s="9"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" customFormat="1" spans="3:11">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+    <row r="45" customFormat="1" spans="1:11">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>4820101</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="9"/>
-      <c r="K45" s="3"/>
+      <c r="F45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>15008028</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" customFormat="1" spans="3:11">
       <c r="C46" s="9"/>
@@ -2515,14 +2544,14 @@
         <v>4100101</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2545,10 +2574,10 @@
         <v>4100102</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="9" t="s">
@@ -2575,10 +2604,10 @@
         <v>4100103</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="9" t="s">
@@ -2605,10 +2634,10 @@
         <v>4100104</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="9" t="s">
@@ -2635,14 +2664,14 @@
         <v>4100105</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2679,10 +2708,10 @@
         <v>4100205</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="9"/>
@@ -2745,10 +2774,10 @@
         <v>4001001</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="9" t="s">
@@ -2775,14 +2804,14 @@
         <v>4001002</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2805,14 +2834,14 @@
         <v>4001003</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2835,10 +2864,10 @@
         <v>4001050</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="9" t="s">
@@ -2871,14 +2900,14 @@
         <v>4001004</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2901,14 +2930,14 @@
         <v>4001005</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2931,10 +2960,10 @@
         <v>4001006</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="9" t="s">
@@ -2961,14 +2990,14 @@
         <v>4001007</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2991,10 +3020,10 @@
         <v>4001008</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="9" t="s">
@@ -3069,14 +3098,14 @@
         <v>4002002</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3120,10 +3149,10 @@
         <v>4002004</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="9" t="s">
@@ -3156,10 +3185,10 @@
         <v>4002006</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="9" t="s">
@@ -3186,14 +3215,14 @@
         <v>4002007</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3240,10 +3269,10 @@
         <v>4002010</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="9" t="s">
@@ -3270,14 +3299,14 @@
         <v>4002011</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3303,14 +3332,14 @@
         <v>4002020</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3333,14 +3362,14 @@
         <v>4002021</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3363,14 +3392,14 @@
         <v>4002022</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3393,14 +3422,14 @@
         <v>4002023</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3429,10 +3458,10 @@
         <v>4002030</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9" t="s">
@@ -3459,14 +3488,14 @@
         <v>4002031</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3498,14 +3527,14 @@
         <v>4005001</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3534,14 +3563,14 @@
         <v>4006101</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D107" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3558,10 +3587,10 @@
         <v>4006201</v>
       </c>
       <c r="C108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" t="s">
@@ -3583,14 +3612,14 @@
         <v>4006301</v>
       </c>
       <c r="C109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G109">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -1481,7 +1481,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="16530" windowHeight="10890" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="115">
   <si>
     <t>#</t>
   </si>
@@ -263,12 +263,36 @@
     <t>1,-750,1</t>
   </si>
   <si>
-    <t>萧玉 q 敌人减血效果计算</t>
+    <t>萧玉 q 敌人减血效果计算 lv1</t>
+  </si>
+  <si>
+    <t>1,500,1</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv2</t>
   </si>
   <si>
     <t>1,1500,1</t>
   </si>
   <si>
+    <t>萧玉 q 敌人减血效果计算 lv3</t>
+  </si>
+  <si>
+    <t>1,2500,1</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv4</t>
+  </si>
+  <si>
+    <t>1,3500,1</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv5</t>
+  </si>
+  <si>
+    <t>1,4500,1</t>
+  </si>
+  <si>
     <t>萧玉 q 被动加血效果计算</t>
   </si>
   <si>
@@ -329,9 +353,6 @@
     <t>回旋镖 技能伤害 lv1</t>
   </si>
   <si>
-    <t>1,500,1</t>
-  </si>
-  <si>
     <t>回旋镖 技能伤害 lv2</t>
   </si>
   <si>
@@ -342,9 +363,6 @@
   </si>
   <si>
     <t>回旋镖 技能伤害 lv5</t>
-  </si>
-  <si>
-    <t>1,2500,1</t>
   </si>
   <si>
     <t>驱散所有buff（只是显示） lv1</t>
@@ -1476,12 +1494,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1990,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>4005401</v>
+        <v>4005302</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>45</v>
@@ -2023,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>4005501</v>
+        <v>4005303</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>47</v>
@@ -2051,42 +2069,94 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="3:11">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>4005304</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" customFormat="1" spans="3:11">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>15008027</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:11">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>4005305</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="9"/>
-      <c r="K23" s="3"/>
+      <c r="F23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>15008027</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" customFormat="1" spans="1:11">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>4006101</v>
+        <v>4005401</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2103,23 +2173,23 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>4006201</v>
+        <v>4005501</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2131,38 +2201,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:11">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>4006301</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>52</v>
-      </c>
+    <row r="26" customFormat="1" spans="3:11">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>15008028</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F26" s="9"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" customFormat="1" spans="3:11">
       <c r="C27" s="9"/>
@@ -2171,36 +2215,88 @@
       <c r="F27" s="9"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" customFormat="1" spans="3:11">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+    <row r="28" customFormat="1" spans="1:11">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>4006101</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="9"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" customFormat="1" spans="3:11">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>15008028</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:11">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>4006201</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="9"/>
-      <c r="K29" s="3"/>
+      <c r="F29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>15008028</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" customFormat="1" spans="1:11">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>4101101</v>
+        <v>4006301</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2225,82 +2321,52 @@
       <c r="F31" s="9"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" customFormat="1" spans="1:11">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>4501101</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>55</v>
-      </c>
+    <row r="32" customFormat="1" spans="3:11">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="9"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" customFormat="1" spans="3:11">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:11">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>4101101</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>15008028</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:11">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>4502101</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>15008028</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="3:11">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34" s="3"/>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" customFormat="1" spans="3:11">
       <c r="C35" s="9"/>
@@ -2309,29 +2375,55 @@
       <c r="F35" s="9"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" customFormat="1" spans="3:11">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+    <row r="36" customFormat="1" spans="1:11">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>4501101</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="K36" s="3"/>
+      <c r="F36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>15008028</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37" customFormat="1" spans="1:11">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37">
-        <v>4801101</v>
+        <v>4502101</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2349,167 +2441,171 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:11">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
+    <row r="38" customFormat="1" spans="3:11">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" customFormat="1" spans="3:11">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" customFormat="1" spans="3:11">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:11">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>4801101</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>15008028</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:11">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
         <v>4801201</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="C42" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>15008028</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:11">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:11">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
         <v>4801301</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="C43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="10">
         <v>5</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
+      <c r="F43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>15008028</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:11">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:11">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
         <v>4804301</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
+      <c r="C44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>15008028</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="3:11">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" customFormat="1" spans="3:11">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" customFormat="1" spans="3:11">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="9"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" customFormat="1" spans="3:11">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" customFormat="1" spans="1:11">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45">
-        <v>4820101</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="3:11">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>15008028</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F45" s="9"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" customFormat="1" spans="3:11">
       <c r="C46" s="9"/>
@@ -2532,146 +2628,80 @@
       <c r="F48" s="9"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" customFormat="1" spans="3:11">
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+    <row r="49" customFormat="1" spans="1:11">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>4820101</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" customFormat="1" spans="2:11">
-      <c r="B50">
-        <v>4100101</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="F49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>15008028</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="3:11">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>15008006</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="2:11">
-      <c r="B51">
-        <v>4100102</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="F50" s="9"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" customFormat="1" spans="3:11">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>15008006</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="2:11">
-      <c r="B52">
-        <v>4100103</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="F51" s="9"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" customFormat="1" spans="3:11">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>15008006</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="2:11">
-      <c r="B53">
-        <v>4100104</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="F52" s="9"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" customFormat="1" spans="3:11">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>15008006</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F53" s="9"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" customFormat="1" spans="2:11">
       <c r="B54">
-        <v>4100105</v>
+        <v>4100101</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="9" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2689,32 +2719,80 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="3:11">
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+    <row r="55" customFormat="1" spans="2:11">
+      <c r="B55">
+        <v>4100102</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="E55" s="10"/>
-      <c r="F55" s="9"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" customFormat="1" spans="3:11">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>15008006</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="2:11">
+      <c r="B56">
+        <v>4100103</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="E56" s="10"/>
-      <c r="F56" s="9"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" customFormat="1" spans="2:12">
+      <c r="F56" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>15008006</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="2:11">
       <c r="B57">
-        <v>4100205</v>
+        <v>4100104</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="G57">
         <v>1</v>
       </c>
@@ -2730,16 +2808,36 @@
       <c r="K57" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="3:11">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+    </row>
+    <row r="58" customFormat="1" spans="2:11">
+      <c r="B58">
+        <v>4100105</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="9"/>
-      <c r="K58" s="3"/>
+      <c r="F58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>15008006</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" customFormat="1" spans="3:11">
       <c r="C59" s="9"/>
@@ -2755,12 +2853,36 @@
       <c r="F60" s="9"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" customFormat="1" spans="3:11">
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+    <row r="61" customFormat="1" spans="2:12">
+      <c r="B61">
+        <v>4100205</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="E61" s="10"/>
       <c r="F61" s="9"/>
-      <c r="K61" s="3"/>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>15008006</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="1" spans="3:11">
       <c r="C62" s="9"/>
@@ -2769,145 +2891,77 @@
       <c r="F62" s="9"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="2:11">
-      <c r="B63">
+    <row r="63" customFormat="1" spans="3:11">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="9"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" customFormat="1" spans="3:11">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="9"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" customFormat="1" spans="3:11">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="9"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" customFormat="1" spans="3:11">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="9"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67">
         <v>4001001</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="9" t="s">
+      <c r="C67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
         <v>15008027</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64">
-        <v>4001002</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>15008006</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65">
-        <v>4001003</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>15008006</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66">
-        <v>4001050</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>15008006</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="9"/>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68">
-        <v>4001004</v>
+        <v>4001002</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="9" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2927,17 +2981,17 @@
     </row>
     <row r="69" spans="2:11">
       <c r="B69">
-        <v>4001005</v>
+        <v>4001003</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2957,17 +3011,17 @@
     </row>
     <row r="70" spans="2:11">
       <c r="B70">
-        <v>4001006</v>
+        <v>4001050</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2985,55 +3039,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
-      <c r="B71">
-        <v>4001007</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>83</v>
-      </c>
+    <row r="71" spans="3:6">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>15008006</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="2:11">
       <c r="B72">
-        <v>4001008</v>
+        <v>4001004</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="9" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>15008019</v>
+        <v>15008006</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3045,43 +3075,115 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="3:6">
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+    <row r="73" spans="2:11">
+      <c r="B73">
+        <v>4001005</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="E73" s="10"/>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="3:6">
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>15008006</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74">
+        <v>4001006</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="F74" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>15008006</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75">
+        <v>4001007</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="E75" s="10"/>
-      <c r="F75" s="9"/>
+      <c r="F75" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>15008006</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76">
-        <v>4002001</v>
+        <v>4001008</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="9" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>15008028</v>
+        <v>15008019</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3093,35 +3195,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
-      <c r="B77">
-        <v>4002002</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>86</v>
-      </c>
+    <row r="77" spans="3:6">
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>15008006</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" spans="3:6">
       <c r="C78" s="9"/>
@@ -3129,122 +3207,122 @@
       <c r="E78" s="10"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="5:5">
+    <row r="79" spans="3:6">
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="3:6">
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80">
+        <v>4002001</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E80" s="10"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="F80" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>15008028</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81">
+        <v>4002002</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E81" s="10"/>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82">
+      <c r="F81" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>15008006</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86">
         <v>4002004</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
+      <c r="C86" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
         <v>15008006</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6">
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="2:11">
-      <c r="B84">
-        <v>4002006</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>15008028</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85">
-        <v>4002007</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>15008006</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6">
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="9"/>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="87" spans="3:6">
       <c r="C87" s="9"/>
@@ -3252,130 +3330,109 @@
       <c r="E87" s="10"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="3:6">
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
+    <row r="88" spans="2:11">
+      <c r="B88">
+        <v>4002006</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="E88" s="10"/>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="3:6">
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="F88" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>15008028</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89">
+        <v>4002007</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="E89" s="10"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90">
-        <v>4002010</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="F89" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>15008006</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="10"/>
-      <c r="F90" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>15008028</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="B91">
-        <v>4002011</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="10"/>
-      <c r="F91" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>15008006</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5">
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
       <c r="E92" s="10"/>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93">
-        <v>4002020</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>15008006</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="2:11">
       <c r="B94">
-        <v>4002021</v>
+        <v>4002010</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="9" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -3389,23 +3446,23 @@
     </row>
     <row r="95" spans="2:11">
       <c r="B95">
-        <v>4002022</v>
+        <v>4002011</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="9" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>15008013</v>
+        <v>15008006</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -3417,61 +3474,88 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
-      <c r="B96">
-        <v>4002023</v>
-      </c>
-      <c r="C96" s="9" t="s">
+    <row r="96" spans="5:5">
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97">
+        <v>4002020</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D97" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>15008020</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5">
       <c r="E97" s="10"/>
-    </row>
-    <row r="98" spans="5:5">
+      <c r="F97" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>15008006</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98">
+        <v>4002021</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E98" s="10"/>
+      <c r="F98" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>15008006</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99">
-        <v>4002030</v>
+        <v>4002022</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>15008020</v>
+        <v>15008013</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -3485,17 +3569,17 @@
     </row>
     <row r="100" spans="2:11">
       <c r="B100">
-        <v>4002031</v>
+        <v>4002023</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3519,28 +3603,55 @@
     <row r="102" spans="5:5">
       <c r="E102" s="10"/>
     </row>
-    <row r="103" spans="5:5">
+    <row r="103" spans="2:11">
+      <c r="B103">
+        <v>4002030</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="E103" s="10"/>
+      <c r="F103" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>15008020</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="104" spans="2:11">
       <c r="B104">
-        <v>4005001</v>
+        <v>4002031</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>15008013</v>
+        <v>15008020</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -3558,79 +3669,118 @@
     <row r="106" spans="5:5">
       <c r="E106" s="10"/>
     </row>
-    <row r="107" spans="2:10">
-      <c r="B107">
+    <row r="107" spans="5:5">
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108">
+        <v>4005001</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>15008013</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111">
         <v>4006101</v>
       </c>
-      <c r="C107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D107" t="s">
-        <v>104</v>
-      </c>
-      <c r="E107" s="10"/>
-      <c r="F107" t="s">
-        <v>105</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
+      <c r="C111" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" t="s">
+        <v>111</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
         <v>15008006</v>
       </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" spans="2:11">
-      <c r="B108">
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="2:11">
+      <c r="B112">
         <v>4006201</v>
       </c>
-      <c r="C108" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" t="s">
-        <v>106</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" t="s">
+      <c r="C112" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" t="s">
         <v>31</v>
       </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
         <v>15008006</v>
       </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" customFormat="1" spans="2:11">
-      <c r="B109">
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" customFormat="1" spans="2:11">
+      <c r="B113">
         <v>4006301</v>
       </c>
-      <c r="C109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" s="10"/>
-      <c r="F109" t="s">
-        <v>108</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
+      <c r="C113" t="s">
+        <v>113</v>
+      </c>
+      <c r="D113" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" t="s">
+        <v>114</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
         <v>15008013</v>
       </c>
-      <c r="J109">
-        <v>1</v>
-      </c>
-      <c r="K109" s="3"/>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16530" windowHeight="10890" tabRatio="601"/>
+    <workbookView windowWidth="16065" windowHeight="11430" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="116">
   <si>
     <t>#</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>怪物1普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>怪物区域3连击效果计算</t>
   </si>
   <si>
     <t>承灵 q 召唤物 普通攻击效果计算</t>
@@ -642,12 +645,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1494,12 +1497,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2380,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>4501101</v>
+        <v>4102101</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>63</v>
@@ -2390,7 +2393,7 @@
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="9" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2408,48 +2411,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:11">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>4502101</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>64</v>
-      </c>
+    <row r="37" customFormat="1" spans="3:11">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>15008028</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F37" s="9"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" customFormat="1" spans="3:11">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" customFormat="1" spans="3:11">
@@ -2466,139 +2439,33 @@
       <c r="F40" s="9"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" customFormat="1" spans="1:11">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>4801101</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>65</v>
-      </c>
+    <row r="41" customFormat="1" spans="3:11">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>15008028</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:11">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>4801201</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="F41" s="9"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" customFormat="1" spans="3:11">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>15008028</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:11">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>4801301</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="10">
-        <v>5</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>15008028</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:11">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44">
-        <v>4804301</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="F42" s="9"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" customFormat="1" spans="3:11">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" customFormat="1" spans="3:11">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>15008028</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F44" s="9"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" customFormat="1" spans="3:11">
       <c r="C45" s="9"/>
@@ -2614,52 +2481,82 @@
       <c r="F46" s="9"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" customFormat="1" spans="3:11">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+    <row r="47" customFormat="1" spans="1:11">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>4501101</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="9"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" customFormat="1" spans="3:11">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>15008028</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:11">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>4502101</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="9"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" customFormat="1" spans="1:11">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>4820101</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="F48" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>15008028</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="3:11">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>15008028</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F49" s="9"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" customFormat="1" spans="3:11">
       <c r="C50" s="9"/>
@@ -2675,39 +2572,96 @@
       <c r="F51" s="9"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" customFormat="1" spans="3:11">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+    <row r="52" customFormat="1" spans="1:11">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>4801101</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="9"/>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" customFormat="1" spans="3:11">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>15008028</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:11">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>4801201</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="9"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" customFormat="1" spans="2:11">
+      <c r="F53" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>15008028</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:11">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
       <c r="B54">
-        <v>4100101</v>
+        <v>4801301</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="E54" s="10">
+        <v>5</v>
+      </c>
       <c r="F54" s="9" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2719,25 +2673,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="2:11">
+    <row r="55" customFormat="1" spans="1:11">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
       <c r="B55">
-        <v>4100102</v>
+        <v>4804301</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2749,95 +2706,26 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" customFormat="1" spans="2:11">
-      <c r="B56">
-        <v>4100103</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>74</v>
-      </c>
+    <row r="56" customFormat="1" spans="3:11">
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="10"/>
-      <c r="F56" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>15008006</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="2:11">
-      <c r="B57">
-        <v>4100104</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="F56" s="9"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" customFormat="1" spans="3:11">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>15008006</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="2:11">
-      <c r="B58">
-        <v>4100105</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="F57" s="9"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" customFormat="1" spans="3:11">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>15008006</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F58" s="9"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" customFormat="1" spans="3:11">
       <c r="C59" s="9"/>
@@ -2846,43 +2734,45 @@
       <c r="F59" s="9"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" customFormat="1" spans="3:11">
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+    <row r="60" customFormat="1" spans="1:11">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>4820101</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="9"/>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" customFormat="1" spans="2:12">
-      <c r="B61">
-        <v>4100205</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="F60" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>15008028</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="3:11">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="10"/>
       <c r="F61" s="9"/>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>15008006</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" customFormat="1" spans="3:11">
       <c r="C62" s="9"/>
@@ -2905,39 +2795,85 @@
       <c r="F64" s="9"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" customFormat="1" spans="3:11">
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+    <row r="65" customFormat="1" spans="2:11">
+      <c r="B65">
+        <v>4100101</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="9"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" customFormat="1" spans="3:11">
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>15008006</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="2:11">
+      <c r="B66">
+        <v>4100102</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="E66" s="10"/>
-      <c r="F66" s="9"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11">
+      <c r="F66" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>15008006</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="2:11">
       <c r="B67">
-        <v>4001001</v>
+        <v>4100103</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>15008027</v>
+        <v>15008006</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2949,19 +2885,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" customFormat="1" spans="2:11">
       <c r="B68">
-        <v>4001002</v>
+        <v>4100104</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2979,19 +2915,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" customFormat="1" spans="2:11">
       <c r="B69">
-        <v>4001003</v>
+        <v>4100105</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="9" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -3009,56 +2945,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
-      <c r="B70">
-        <v>4001050</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>82</v>
-      </c>
+    <row r="70" customFormat="1" spans="3:11">
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>15008006</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6">
+      <c r="F70" s="9"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" customFormat="1" spans="3:11">
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="10"/>
       <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="2:11">
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" customFormat="1" spans="2:12">
       <c r="B72">
-        <v>4001004</v>
+        <v>4100205</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E72" s="10"/>
-      <c r="F72" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="F72" s="9"/>
       <c r="G72">
         <v>1</v>
       </c>
@@ -3074,164 +2986,124 @@
       <c r="K72" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="B73">
-        <v>4001005</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="3:11">
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>15008006</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11">
-      <c r="B74">
-        <v>4001006</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="F73" s="9"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" customFormat="1" spans="3:11">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>15008006</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="B75">
-        <v>4001007</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="F74" s="9"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" customFormat="1" spans="3:11">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>15008006</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76">
-        <v>4001008</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="F75" s="9"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" customFormat="1" spans="3:11">
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>15008019</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6">
+      <c r="F76" s="9"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" customFormat="1" spans="3:11">
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="10"/>
       <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="3:6">
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78">
+        <v>4001001</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="E78" s="10"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="3:6">
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="F78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>15008027</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79">
+        <v>4001002</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="E79" s="10"/>
-      <c r="F79" s="9"/>
+      <c r="F79" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>15008006</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80">
-        <v>4002001</v>
+        <v>4001003</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="9" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3245,17 +3117,17 @@
     </row>
     <row r="81" spans="2:11">
       <c r="B81">
-        <v>4002002</v>
+        <v>4001050</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="9" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3279,34 +3151,109 @@
       <c r="E82" s="10"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="5:5">
+    <row r="83" spans="2:11">
+      <c r="B83">
+        <v>4001004</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="E83" s="10"/>
-    </row>
-    <row r="84" spans="3:6">
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="F83" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>15008006</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84">
+        <v>4001005</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="E84" s="10"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="3:6">
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="F84" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>15008006</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85">
+        <v>4001006</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="E85" s="10"/>
-      <c r="F85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>15008006</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86">
-        <v>4002004</v>
+        <v>4001007</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="9" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3324,71 +3271,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="3:6">
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+    <row r="87" spans="2:11">
+      <c r="B87">
+        <v>4001008</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="E87" s="10"/>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88">
-        <v>4002006</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="F87" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>15008019</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>15008028</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89">
-        <v>4002007</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>15008006</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="3:6">
       <c r="C90" s="9"/>
@@ -3396,17 +3319,65 @@
       <c r="E90" s="10"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" spans="3:6">
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+    <row r="91" spans="2:11">
+      <c r="B91">
+        <v>4002001</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="E91" s="10"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="3:6">
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+      <c r="F91" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>15008028</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92">
+        <v>4002002</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="E92" s="10"/>
-      <c r="F92" s="9"/>
+      <c r="F92" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>15008006</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="93" spans="3:6">
       <c r="C93" s="9"/>
@@ -3414,82 +3385,34 @@
       <c r="E93" s="10"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="2:11">
-      <c r="B94">
-        <v>4002010</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>97</v>
-      </c>
+    <row r="94" spans="5:5">
       <c r="E94" s="10"/>
-      <c r="F94" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>15008028</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95">
-        <v>4002011</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>98</v>
-      </c>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>15008006</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5">
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="10"/>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" spans="2:11">
       <c r="B97">
-        <v>4002020</v>
+        <v>4002004</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="9" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3507,55 +3430,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
-      <c r="B98">
-        <v>4002021</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>101</v>
-      </c>
+    <row r="98" spans="3:6">
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>15008006</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>1</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99">
-        <v>4002022</v>
+        <v>4002006</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>15008013</v>
+        <v>15008028</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -3569,218 +3468,425 @@
     </row>
     <row r="100" spans="2:11">
       <c r="B100">
-        <v>4002023</v>
+        <v>4002007</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>15008006</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="3:6">
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="3:6">
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="3:6">
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105">
+        <v>4002010</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>15008028</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106">
+        <v>4002011</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>15008020</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="10"/>
-    </row>
-    <row r="102" spans="5:5">
-      <c r="E102" s="10"/>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="B103">
-        <v>4002030</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
-        <v>15008020</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104">
-        <v>4002031</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>15008020</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="10"/>
-    </row>
-    <row r="106" spans="5:5">
-      <c r="E106" s="10"/>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>15008006</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="10"/>
     </row>
     <row r="108" spans="2:11">
       <c r="B108">
-        <v>4005001</v>
+        <v>4002020</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>15008006</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109">
+        <v>4002021</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>15008006</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110">
+        <v>4002022</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>15008013</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111">
+        <v>4002023</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>15008020</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114">
+        <v>4002030</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>15008020</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115">
+        <v>4002031</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>15008020</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119">
+        <v>4005001</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
+      <c r="D119" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
         <v>15008013</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="5:5">
-      <c r="E109" s="10"/>
-    </row>
-    <row r="110" spans="5:5">
-      <c r="E110" s="10"/>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111">
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122">
         <v>4006101</v>
       </c>
-      <c r="C111" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" t="s">
-        <v>110</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" t="s">
+      <c r="C122" t="s">
         <v>111</v>
       </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
+      <c r="D122" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" t="s">
+        <v>112</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
         <v>15008006</v>
       </c>
-      <c r="J111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" spans="2:11">
-      <c r="B112">
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="2:11">
+      <c r="B123">
         <v>4006201</v>
       </c>
-      <c r="C112" t="s">
-        <v>112</v>
-      </c>
-      <c r="D112" t="s">
-        <v>112</v>
-      </c>
-      <c r="E112" s="10"/>
-      <c r="F112" t="s">
+      <c r="C123" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" t="s">
+        <v>113</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" t="s">
         <v>31</v>
       </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112">
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
         <v>15008006</v>
       </c>
-      <c r="J112">
-        <v>1</v>
-      </c>
-      <c r="K112" s="3"/>
-    </row>
-    <row r="113" customFormat="1" spans="2:11">
-      <c r="B113">
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" customFormat="1" spans="2:11">
+      <c r="B124">
         <v>4006301</v>
       </c>
-      <c r="C113" t="s">
-        <v>113</v>
-      </c>
-      <c r="D113" t="s">
-        <v>113</v>
-      </c>
-      <c r="E113" s="10"/>
-      <c r="F113" t="s">
+      <c r="C124" t="s">
         <v>114</v>
       </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113">
+      <c r="D124" t="s">
+        <v>114</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" t="s">
+        <v>115</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
         <v>15008013</v>
       </c>
-      <c r="J113">
-        <v>1</v>
-      </c>
-      <c r="K113" s="3"/>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16065" windowHeight="11430" tabRatio="601"/>
+    <workbookView windowWidth="19305" windowHeight="11430" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="117">
   <si>
     <t>#</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>怪物区域3连击效果计算</t>
+  </si>
+  <si>
+    <t>怪物拉人伤害效果计算</t>
   </si>
   <si>
     <t>承灵 q 召唤物 普通攻击效果计算</t>
@@ -645,12 +648,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1502,7 +1505,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2411,12 +2414,38 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="3:11">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+    <row r="37" customFormat="1" spans="1:11">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>4103101</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="9"/>
-      <c r="K37" s="3"/>
+      <c r="F37" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>15008028</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="38" customFormat="1" spans="3:11">
       <c r="C38" s="9"/>
@@ -2489,10 +2518,10 @@
         <v>4501101</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="9" t="s">
@@ -2522,10 +2551,10 @@
         <v>4502101</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="9" t="s">
@@ -2580,10 +2609,10 @@
         <v>4801101</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="9" t="s">
@@ -2613,14 +2642,14 @@
         <v>4801201</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2646,16 +2675,16 @@
         <v>4801301</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="10">
         <v>5</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2681,10 +2710,10 @@
         <v>4804301</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="9" t="s">
@@ -2742,10 +2771,10 @@
         <v>4820101</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="9" t="s">
@@ -2800,10 +2829,10 @@
         <v>4100101</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="9" t="s">
@@ -2830,10 +2859,10 @@
         <v>4100102</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="9" t="s">
@@ -2860,10 +2889,10 @@
         <v>4100103</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="9" t="s">
@@ -2890,10 +2919,10 @@
         <v>4100104</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="9" t="s">
@@ -2920,10 +2949,10 @@
         <v>4100105</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="9" t="s">
@@ -2964,10 +2993,10 @@
         <v>4100205</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="9"/>
@@ -3030,10 +3059,10 @@
         <v>4001001</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="9" t="s">
@@ -3060,10 +3089,10 @@
         <v>4001002</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="9" t="s">
@@ -3090,14 +3119,14 @@
         <v>4001003</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3120,10 +3149,10 @@
         <v>4001050</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="9" t="s">
@@ -3156,14 +3185,14 @@
         <v>4001004</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3186,14 +3215,14 @@
         <v>4001005</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3216,10 +3245,10 @@
         <v>4001006</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="9" t="s">
@@ -3246,14 +3275,14 @@
         <v>4001007</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3276,10 +3305,10 @@
         <v>4001008</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="9" t="s">
@@ -3354,14 +3383,14 @@
         <v>4002002</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3405,10 +3434,10 @@
         <v>4002004</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="9" t="s">
@@ -3441,10 +3470,10 @@
         <v>4002006</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9" t="s">
@@ -3471,10 +3500,10 @@
         <v>4002007</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9" t="s">
@@ -3525,10 +3554,10 @@
         <v>4002010</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="9" t="s">
@@ -3555,10 +3584,10 @@
         <v>4002011</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="9" t="s">
@@ -3588,14 +3617,14 @@
         <v>4002020</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -3618,14 +3647,14 @@
         <v>4002021</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -3648,14 +3677,14 @@
         <v>4002022</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -3678,10 +3707,10 @@
         <v>4002023</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="9" t="s">
@@ -3714,10 +3743,10 @@
         <v>4002030</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="9" t="s">
@@ -3744,14 +3773,14 @@
         <v>4002031</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3783,14 +3812,14 @@
         <v>4005001</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -3819,14 +3848,14 @@
         <v>4006101</v>
       </c>
       <c r="C122" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -3843,10 +3872,10 @@
         <v>4006201</v>
       </c>
       <c r="C123" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D123" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" t="s">
@@ -3868,14 +3897,14 @@
         <v>4006301</v>
       </c>
       <c r="C124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G124">
         <v>1</v>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -1505,7 +1505,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="$A37:$XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19305" windowHeight="11430" tabRatio="601"/>
+    <workbookView windowWidth="31460" windowHeight="18120" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -132,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="119">
   <si>
     <t>#</t>
   </si>
@@ -215,15 +202,24 @@
     <t>是否为了显示（只同步效果，实际效果等均不触发）</t>
   </si>
   <si>
+    <t>隐墨普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>1,1000,1</t>
+  </si>
+  <si>
+    <t>hit_pos</t>
+  </si>
+  <si>
+    <t>隐墨 q 技能穿刺投掷物效果计算</t>
+  </si>
+  <si>
+    <t>1,1500,1</t>
+  </si>
+  <si>
     <t>唐依普通攻击投掷物效果计算</t>
   </si>
   <si>
-    <t>1,1000,1</t>
-  </si>
-  <si>
-    <t>hit_pos</t>
-  </si>
-  <si>
     <t>唐依 q 技能穿刺投掷物效果计算</t>
   </si>
   <si>
@@ -270,9 +266,6 @@
   </si>
   <si>
     <t>萧玉 q 敌人减血效果计算 lv2</t>
-  </si>
-  <si>
-    <t>1,1500,1</t>
   </si>
   <si>
     <t>萧玉 q 敌人减血效果计算 lv3</t>
@@ -488,7 +481,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -648,12 +641,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1131,20 +1124,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1500,15 +1493,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="$A37:$XFD37"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
@@ -1536,7 +1529,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1574,7 +1567,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1603,22 +1596,22 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1633,142 +1626,116 @@
       <c r="K3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="3:11">
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" customFormat="1" spans="3:11">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+    <row r="5" customFormat="1" spans="1:11">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4001101</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" customFormat="1" spans="3:11">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>15008027</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:11">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4001201</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:11">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>4003101</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>15008027</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="3:11">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>15008027</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:11">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>4003201</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="F7" s="7"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" customFormat="1" spans="3:11">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>15008027</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:11">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>4003301</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="F8" s="7"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:11">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>15008027</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="7"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="3:11">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" customFormat="1" spans="3:11">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="1:11">
@@ -1776,23 +1743,23 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>4004101</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>4003101</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1809,17 +1776,17 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>4004201</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>4003201</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1842,17 +1809,17 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>4004301</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
+        <v>4003301</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="9" t="s">
-        <v>37</v>
+      <c r="F14" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1870,44 +1837,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:11">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>4004401</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>38</v>
-      </c>
+    <row r="15" customFormat="1" spans="3:11">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>15008027</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F15" s="7"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" customFormat="1" spans="3:11">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" customFormat="1" spans="1:11">
@@ -1915,23 +1856,23 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>4005101</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>4004101</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>15008027</v>
+        <v>15008028</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1948,17 +1889,17 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>4005201</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>41</v>
+        <v>4004201</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="9" t="s">
-        <v>42</v>
+      <c r="F18" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1981,17 +1922,17 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>4005301</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>43</v>
+        <v>4004301</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="9" t="s">
-        <v>44</v>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2014,17 +1955,17 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>4005302</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>45</v>
+        <v>4004401</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="9" t="s">
-        <v>46</v>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2042,55 +1983,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:11">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>4005303</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>47</v>
-      </c>
+    <row r="21" customFormat="1" spans="3:11">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>15008027</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F21" s="7"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" customFormat="1" spans="1:11">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>4005304</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>49</v>
+        <v>4005101</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="9" t="s">
-        <v>50</v>
+      <c r="F22" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2113,17 +2028,17 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>4005305</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>51</v>
+        <v>4005201</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="9" t="s">
-        <v>52</v>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2146,17 +2061,17 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>4005401</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>53</v>
+        <v>4005301</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="9" t="s">
-        <v>54</v>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2179,17 +2094,17 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>4005501</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>55</v>
+        <v>4005302</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="9" t="s">
-        <v>56</v>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2207,42 +2122,94 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="3:11">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+    <row r="26" customFormat="1" spans="1:11">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>4005303</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="9"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" customFormat="1" spans="3:11">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="F26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>15008027</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:11">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>4005304</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="9"/>
-      <c r="K27" s="3"/>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>15008027</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" customFormat="1" spans="1:11">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>4006101</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>57</v>
+        <v>4005305</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="9" t="s">
-        <v>28</v>
+      <c r="F28" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2259,23 +2226,23 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>4006201</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>58</v>
+        <v>4005401</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="9" t="s">
-        <v>59</v>
+      <c r="F29" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2292,71 +2259,97 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>4006301</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>60</v>
+        <v>4005501</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="9" t="s">
-        <v>61</v>
+      <c r="F30" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
+        <v>15008027</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="3:11">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="7"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" customFormat="1" spans="3:11">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="7"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:11">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>4006101</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>15008028</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="3:11">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" customFormat="1" spans="3:11">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" customFormat="1" spans="3:11">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9"/>
-      <c r="K33" s="3"/>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34" customFormat="1" spans="1:11">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34">
-        <v>4101101</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>62</v>
+        <v>4006201</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="9" t="s">
-        <v>28</v>
+      <c r="F34" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2374,231 +2367,227 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="3:11">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+    <row r="35" customFormat="1" spans="1:11">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>4006301</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="9"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:11">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
+      <c r="F35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>15008028</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="3:11">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="7"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" customFormat="1" spans="3:11">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="7"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" customFormat="1" spans="3:11">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="7"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:11">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>4101101</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>15008028</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="3:11">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="7"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:11">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
         <v>4102101</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
+      <c r="C41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>15008028</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:11">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:11">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
         <v>4103101</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
+      <c r="C42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>15008028</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="3:11">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" customFormat="1" spans="3:11">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" customFormat="1" spans="3:11">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" customFormat="1" spans="3:11">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" customFormat="1" spans="3:11">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-      <c r="K42" s="3"/>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43" customFormat="1" spans="3:11">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="9"/>
+      <c r="F43" s="7"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" customFormat="1" spans="3:11">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="9"/>
+      <c r="F44" s="7"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" customFormat="1" spans="3:11">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="9"/>
+      <c r="F45" s="7"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" customFormat="1" spans="3:11">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="7"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" customFormat="1" spans="1:11">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>4501101</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>65</v>
-      </c>
+    <row r="47" customFormat="1" spans="3:11">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>15008028</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:11">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48">
-        <v>4502101</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="F47" s="7"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" customFormat="1" spans="3:11">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>15008028</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F48" s="7"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" customFormat="1" spans="3:11">
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
+      <c r="F49" s="7"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" customFormat="1" spans="3:11">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="9"/>
+      <c r="F50" s="7"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" customFormat="1" spans="3:11">
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="7"/>
       <c r="K51" s="3"/>
     </row>
     <row r="52" customFormat="1" spans="1:11">
@@ -2606,17 +2595,17 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>4801101</v>
-      </c>
-      <c r="C52" s="9" t="s">
+        <v>4501101</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="9" t="s">
-        <v>46</v>
+      <c r="F52" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2639,17 +2628,17 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>4801201</v>
-      </c>
-      <c r="C53" s="9" t="s">
+        <v>4502101</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="9" t="s">
-        <v>69</v>
+      <c r="F53" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2667,118 +2656,144 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="1:11">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54">
+    <row r="54" customFormat="1" spans="3:11">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="7"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" customFormat="1" spans="3:11">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="7"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" customFormat="1" spans="3:11">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="7"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" customFormat="1" spans="1:11">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>4801101</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>15008028</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:11">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>4801201</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>15008028</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:11">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
         <v>4801301</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="C59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="10">
         <v>5</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
+      <c r="F59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>15008028</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:11">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55">
-        <v>4804301</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>15008028</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" spans="3:11">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="9"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" customFormat="1" spans="3:11">
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="9"/>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" customFormat="1" spans="3:11">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="9"/>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" customFormat="1" spans="3:11">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="9"/>
-      <c r="K59" s="3"/>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="60" customFormat="1" spans="1:11">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60">
-        <v>4820101</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>73</v>
+        <v>4804301</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="9" t="s">
-        <v>35</v>
+      <c r="F60" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2797,209 +2812,168 @@
       </c>
     </row>
     <row r="61" customFormat="1" spans="3:11">
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="9"/>
+      <c r="F61" s="7"/>
       <c r="K61" s="3"/>
     </row>
     <row r="62" customFormat="1" spans="3:11">
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="9"/>
+      <c r="F62" s="7"/>
       <c r="K62" s="3"/>
     </row>
     <row r="63" customFormat="1" spans="3:11">
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="10"/>
-      <c r="F63" s="9"/>
+      <c r="F63" s="7"/>
       <c r="K63" s="3"/>
     </row>
     <row r="64" customFormat="1" spans="3:11">
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="9"/>
+      <c r="F64" s="7"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" customFormat="1" spans="2:11">
+    <row r="65" customFormat="1" spans="1:11">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
       <c r="B65">
+        <v>4820101</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>15008028</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="3:11">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="7"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" customFormat="1" spans="3:11">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="7"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" customFormat="1" spans="3:11">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="7"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" customFormat="1" spans="3:11">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="7"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" customFormat="1" spans="2:11">
+      <c r="B70">
         <v>4100101</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
+      <c r="C70" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
         <v>15008006</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="2:11">
-      <c r="B66">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="2:11">
+      <c r="B71">
         <v>4100102</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="9" t="s">
+      <c r="C71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
         <v>15008006</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="2:11">
-      <c r="B67">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="2:11">
+      <c r="B72">
         <v>4100103</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>15008006</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="2:11">
-      <c r="B68">
-        <v>4100104</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>15008006</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="2:11">
-      <c r="B69">
-        <v>4100105</v>
-      </c>
-      <c r="C69" s="9" t="s">
+      <c r="C72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>15008006</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="3:11">
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="9"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" customFormat="1" spans="3:11">
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="9"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" customFormat="1" spans="2:12">
-      <c r="B72">
-        <v>4100205</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="E72" s="10"/>
-      <c r="F72" s="9"/>
+      <c r="F72" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G72">
         <v>1</v>
       </c>
@@ -3015,190 +2989,166 @@
       <c r="K72" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="3:11">
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+    </row>
+    <row r="73" customFormat="1" spans="2:11">
+      <c r="B73">
+        <v>4100104</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="E73" s="10"/>
-      <c r="F73" s="9"/>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" customFormat="1" spans="3:11">
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="F73" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>15008006</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="2:11">
+      <c r="B74">
+        <v>4100105</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="9"/>
-      <c r="K74" s="3"/>
+      <c r="F74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>15008006</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="75" customFormat="1" spans="3:11">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="9"/>
+      <c r="F75" s="7"/>
       <c r="K75" s="3"/>
     </row>
     <row r="76" customFormat="1" spans="3:11">
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="9"/>
+      <c r="F76" s="7"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" customFormat="1" spans="3:11">
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+    <row r="77" customFormat="1" spans="2:12">
+      <c r="B77">
+        <v>4100205</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="E77" s="10"/>
-      <c r="F77" s="9"/>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78">
-        <v>4001001</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="F77" s="7"/>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>15008006</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="3:11">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>15008027</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79">
-        <v>4001002</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="F78" s="7"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" customFormat="1" spans="3:11">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="10"/>
-      <c r="F79" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>15008006</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80">
-        <v>4001003</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="F79" s="7"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" customFormat="1" spans="3:11">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="10"/>
-      <c r="F80" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>15008006</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81">
-        <v>4001050</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="F80" s="7"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" customFormat="1" spans="3:11">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>15008006</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6">
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="F81" s="7"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" customFormat="1" spans="3:11">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="9"/>
+      <c r="F82" s="7"/>
+      <c r="K82" s="3"/>
     </row>
     <row r="83" spans="2:11">
       <c r="B83">
-        <v>4001004</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>85</v>
+        <v>4001001</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E83" s="10"/>
-      <c r="F83" s="9" t="s">
-        <v>86</v>
+      <c r="F83" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>15008006</v>
+        <v>15008027</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3212,17 +3162,17 @@
     </row>
     <row r="84" spans="2:11">
       <c r="B84">
-        <v>4001005</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>87</v>
+        <v>4001002</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E84" s="10"/>
-      <c r="F84" s="9" t="s">
-        <v>88</v>
+      <c r="F84" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3242,17 +3192,17 @@
     </row>
     <row r="85" spans="2:11">
       <c r="B85">
-        <v>4001006</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>90</v>
+        <v>4001003</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E85" s="10"/>
-      <c r="F85" s="9" t="s">
-        <v>46</v>
+      <c r="F85" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3272,17 +3222,17 @@
     </row>
     <row r="86" spans="2:11">
       <c r="B86">
-        <v>4001007</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>91</v>
+        <v>4001050</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="E86" s="10"/>
-      <c r="F86" s="9" t="s">
-        <v>92</v>
+      <c r="F86" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3300,73 +3250,121 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
-      <c r="B87">
-        <v>4001008</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>93</v>
-      </c>
+    <row r="87" spans="3:6">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>15008019</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6">
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88">
+        <v>4001004</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="E88" s="10"/>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="3:6">
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="F88" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>15008006</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89">
+        <v>4001005</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="E89" s="10"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="3:6">
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="F89" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>15008006</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90">
+        <v>4001006</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="E90" s="10"/>
-      <c r="F90" s="9"/>
+      <c r="F90" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>15008006</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91">
-        <v>4002001</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>62</v>
+        <v>4001007</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="E91" s="10"/>
-      <c r="F91" s="9" t="s">
-        <v>28</v>
+      <c r="F91" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -3380,23 +3378,23 @@
     </row>
     <row r="92" spans="2:11">
       <c r="B92">
-        <v>4002002</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>94</v>
+        <v>4001008</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E92" s="10"/>
-      <c r="F92" s="9" t="s">
-        <v>95</v>
+      <c r="F92" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>15008006</v>
+        <v>15008019</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -3409,39 +3407,66 @@
       </c>
     </row>
     <row r="93" spans="3:6">
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="5:5">
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="10"/>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="3:6">
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="3:6">
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96">
+        <v>4002001</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E96" s="10"/>
-      <c r="F96" s="9"/>
+      <c r="F96" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>15008028</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97">
-        <v>4002004</v>
-      </c>
-      <c r="C97" s="9" t="s">
+        <v>4002002</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="7" t="s">
         <v>96</v>
       </c>
       <c r="E97" s="10"/>
-      <c r="F97" s="9" t="s">
-        <v>46</v>
+      <c r="F97" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3460,114 +3485,111 @@
       </c>
     </row>
     <row r="98" spans="3:6">
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="B99">
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="3:6">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102">
+        <v>4002004</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>15008006</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104">
         <v>4002006</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="9" t="s">
+      <c r="C104" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
         <v>15008028</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100">
-        <v>4002007</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>15008006</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6">
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="3:6">
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="3:6">
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="3:6">
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="9"/>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="105" spans="2:11">
       <c r="B105">
-        <v>4002010</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>99</v>
+        <v>4002007</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="E105" s="10"/>
-      <c r="F105" s="9" t="s">
-        <v>28</v>
+      <c r="F105" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -3579,118 +3601,49 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
-      <c r="B106">
-        <v>4002011</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>100</v>
-      </c>
+    <row r="106" spans="3:6">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="10"/>
-      <c r="F106" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>15008006</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="5:5">
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="3:6">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="10"/>
-    </row>
-    <row r="108" spans="2:11">
-      <c r="B108">
-        <v>4002020</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="3:6">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="10"/>
-      <c r="F108" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>15008006</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109">
-        <v>4002021</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="3:6">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="10"/>
-      <c r="F109" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>15008006</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>1</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="F109" s="7"/>
     </row>
     <row r="110" spans="2:11">
       <c r="B110">
-        <v>4002022</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>105</v>
+        <v>4002010</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E110" s="10"/>
-      <c r="F110" s="9" t="s">
-        <v>106</v>
+      <c r="F110" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>15008013</v>
+        <v>15008028</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -3704,23 +3657,23 @@
     </row>
     <row r="111" spans="2:11">
       <c r="B111">
-        <v>4002023</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>107</v>
+        <v>4002011</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="E111" s="10"/>
-      <c r="F111" s="9" t="s">
-        <v>44</v>
+      <c r="F111" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>15008020</v>
+        <v>15008006</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -3735,28 +3688,55 @@
     <row r="112" spans="5:5">
       <c r="E112" s="10"/>
     </row>
-    <row r="113" spans="5:5">
+    <row r="113" spans="2:11">
+      <c r="B113">
+        <v>4002020</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="E113" s="10"/>
+      <c r="F113" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>15008006</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114">
-        <v>4002030</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>108</v>
+        <v>4002021</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E114" s="10"/>
-      <c r="F114" s="9" t="s">
-        <v>46</v>
+      <c r="F114" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>15008020</v>
+        <v>15008006</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -3770,36 +3750,63 @@
     </row>
     <row r="115" spans="2:11">
       <c r="B115">
-        <v>4002031</v>
-      </c>
-      <c r="C115" s="9" t="s">
+        <v>4002022</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>15008013</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116">
+        <v>4002023</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D116" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115">
+      <c r="E116" s="10"/>
+      <c r="F116" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
         <v>15008020</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>1</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5">
-      <c r="E116" s="10"/>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" s="10"/>
@@ -3809,102 +3816,86 @@
     </row>
     <row r="119" spans="2:11">
       <c r="B119">
-        <v>4005001</v>
-      </c>
-      <c r="C119" s="9" t="s">
+        <v>4002030</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E119" s="10"/>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>15008020</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120">
+        <v>4002031</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>15008013</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5">
+      <c r="D120" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="E120" s="10"/>
+      <c r="F120" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>15008020</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" s="10"/>
     </row>
-    <row r="122" spans="2:10">
-      <c r="B122">
-        <v>4006101</v>
-      </c>
-      <c r="C122" t="s">
+    <row r="122" spans="5:5">
+      <c r="E122" s="10"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="10"/>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124">
+        <v>4005001</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D124" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="F122" t="s">
+      <c r="E124" s="10"/>
+      <c r="F124" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>15008006</v>
-      </c>
-      <c r="J122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" customFormat="1" spans="2:11">
-      <c r="B123">
-        <v>4006201</v>
-      </c>
-      <c r="C123" t="s">
-        <v>114</v>
-      </c>
-      <c r="D123" t="s">
-        <v>114</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" t="s">
-        <v>31</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>15008006</v>
-      </c>
-      <c r="J123">
-        <v>1</v>
-      </c>
-      <c r="K123" s="3"/>
-    </row>
-    <row r="124" customFormat="1" spans="2:11">
-      <c r="B124">
-        <v>4006301</v>
-      </c>
-      <c r="C124" t="s">
-        <v>115</v>
-      </c>
-      <c r="D124" t="s">
-        <v>115</v>
-      </c>
-      <c r="E124" s="10"/>
-      <c r="F124" t="s">
-        <v>116</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -3912,10 +3903,95 @@
       <c r="H124">
         <v>15008013</v>
       </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
       <c r="J124">
         <v>1</v>
       </c>
-      <c r="K124" s="3"/>
+      <c r="K124" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127">
+        <v>4006101</v>
+      </c>
+      <c r="C127" t="s">
+        <v>114</v>
+      </c>
+      <c r="D127" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" t="s">
+        <v>115</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>15008006</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="1" spans="2:11">
+      <c r="B128">
+        <v>4006201</v>
+      </c>
+      <c r="C128" t="s">
+        <v>116</v>
+      </c>
+      <c r="D128" t="s">
+        <v>116</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>15008006</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" customFormat="1" spans="2:11">
+      <c r="B129">
+        <v>4006301</v>
+      </c>
+      <c r="C129" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" t="s">
+        <v>118</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>15008013</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3934,7 +4010,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3951,7 +4027,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31460" windowHeight="18120" tabRatio="601"/>
+    <workbookView windowWidth="17190" windowHeight="11700" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,6 +32,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Zxy</author>
+    <author>94067</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0">
@@ -85,12 +99,38 @@
         //召唤兽受到伤害的千分比值
         SummonEntityBeHurtDamage_Permilage = 41,
 y:对应效果值 ， x:0 对应的是数值 其他的是千分比计算后的数量或者是比值
-z:效果类型 1:物理 2:法强
-</t>
+z:效果计算者
+0 : 技能释放者
+1 : 效果目标（比如当前 buff 的效果目标,攻击时候的被攻击者， 物品属性的生效目标）
+10: 队长
+//如果是数量 那么直接就加到伤害上  如果是比值  那么就在最后的伤害上乘上倍数</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="G3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+造成伤害的倍数  如生已损失生命比值为40% 那么倍数如果是 2 的话 就是 80 % 就是最后的伤害倍数 
+这里填写 CalulateEffect 的id  只用作计算而已</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -139,6 +179,9 @@
     <t>addedValueGroup</t>
   </si>
   <si>
+    <t>addedValueScaleEffectIds</t>
+  </si>
+  <si>
     <t>finalEffectType</t>
   </si>
   <si>
@@ -166,6 +209,9 @@
     <t>List&lt;List&lt;int&gt;&gt;</t>
   </si>
   <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
     <t>转表符</t>
   </si>
   <si>
@@ -184,6 +230,9 @@
     <t>附加伤害组（, | ）</t>
   </si>
   <si>
+    <t>伤害附加的倍数计算效果列表（适用比值）</t>
+  </si>
+  <si>
     <t xml:space="preserve">最终的效果类型 1 物理伤害 2 法强伤害 </t>
   </si>
   <si>
@@ -205,7 +254,7 @@
     <t>隐墨普通攻击投掷物效果计算</t>
   </si>
   <si>
-    <t>1,1000,1</t>
+    <t>1,1000,0</t>
   </si>
   <si>
     <t>hit_pos</t>
@@ -214,7 +263,16 @@
     <t>隐墨 q 技能穿刺投掷物效果计算</t>
   </si>
   <si>
-    <t>1,1500,1</t>
+    <t>1,1500,0</t>
+  </si>
+  <si>
+    <t>凤紫夕普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>凤紫夕 q 技能被动 残血加普通攻击伤害（只计算）</t>
+  </si>
+  <si>
+    <t>1,1000,0|30,1,1</t>
   </si>
   <si>
     <t>唐依普通攻击投掷物效果计算</t>
@@ -223,7 +281,7 @@
     <t>唐依 q 技能穿刺投掷物效果计算</t>
   </si>
   <si>
-    <t>1,1200,1</t>
+    <t>1,1200,0</t>
   </si>
   <si>
     <t>唐依大招群攻效果计算</t>
@@ -235,19 +293,19 @@
     <t>夜魂q被动区域效果计算</t>
   </si>
   <si>
-    <t>4,1000,1</t>
+    <t>4,1000,0</t>
   </si>
   <si>
     <t>夜魂q攻击附带护甲伤害效果计算</t>
   </si>
   <si>
-    <t>4,1500,1</t>
+    <t>4,1500,0</t>
   </si>
   <si>
     <t>夜魂大招伤害</t>
   </si>
   <si>
-    <t>4,2000,1</t>
+    <t>4,2000,0</t>
   </si>
   <si>
     <t>萧玉普通攻击投掷物效果计算</t>
@@ -256,13 +314,13 @@
     <t>萧玉 q 队友加血效果计算</t>
   </si>
   <si>
-    <t>1,-750,1</t>
+    <t>1,-750,0</t>
   </si>
   <si>
     <t>萧玉 q 敌人减血效果计算 lv1</t>
   </si>
   <si>
-    <t>1,500,1</t>
+    <t>1,500,0</t>
   </si>
   <si>
     <t>萧玉 q 敌人减血效果计算 lv2</t>
@@ -271,31 +329,31 @@
     <t>萧玉 q 敌人减血效果计算 lv3</t>
   </si>
   <si>
-    <t>1,2500,1</t>
+    <t>1,2500,0</t>
   </si>
   <si>
     <t>萧玉 q 敌人减血效果计算 lv4</t>
   </si>
   <si>
-    <t>1,3500,1</t>
+    <t>1,3500,0</t>
   </si>
   <si>
     <t>萧玉 q 敌人减血效果计算 lv5</t>
   </si>
   <si>
-    <t>1,4500,1</t>
+    <t>1,4500,0</t>
   </si>
   <si>
     <t>萧玉 q 被动加血效果计算</t>
   </si>
   <si>
-    <t>1,-200,1</t>
+    <t>1,-200,0</t>
   </si>
   <si>
     <t>萧玉 大招伤害计算</t>
   </si>
   <si>
-    <t>1,2000,1</t>
+    <t>1,2000,0</t>
   </si>
   <si>
     <t>承灵 普通攻击投掷物效果计算</t>
@@ -304,13 +362,13 @@
     <t>承灵 q 被动 召唤物造成伤害自己加血的计算</t>
   </si>
   <si>
-    <t>20,-10,1</t>
+    <t>20,-10,0</t>
   </si>
   <si>
     <t>承灵 q 被动 自己造成伤害给召唤兽加血的计算</t>
   </si>
   <si>
-    <t>20,-20,1</t>
+    <t>20,-20,0</t>
   </si>
   <si>
     <t>怪物1普通攻击投掷物效果计算</t>
@@ -334,13 +392,13 @@
     <t>随机技能 反弹伤害 lv1</t>
   </si>
   <si>
-    <t>20,500,1</t>
+    <t>20,500,0</t>
   </si>
   <si>
     <t>随机技能 自爆人自爆伤害 lv1</t>
   </si>
   <si>
-    <t>1,10000,1</t>
+    <t>1,10000,5</t>
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv1</t>
@@ -376,7 +434,7 @@
     <t>上官翎 W 技能 击晕伤害计算</t>
   </si>
   <si>
-    <t>1,800,1</t>
+    <t>1,800,0</t>
   </si>
   <si>
     <t>上官翎 E 技能位移伤害计算</t>
@@ -385,13 +443,13 @@
     <t>刀疤技能位移伤害计算</t>
   </si>
   <si>
-    <t>0,50000,1</t>
+    <t>0,50000,0</t>
   </si>
   <si>
     <t>唐依技能4流血间隔伤害计算</t>
   </si>
   <si>
-    <t>1,400,1</t>
+    <t>1,400,0</t>
   </si>
   <si>
     <t>唐依 Q 技能伤害</t>
@@ -403,7 +461,7 @@
     <t>唐依 W 技能伤害</t>
   </si>
   <si>
-    <t>1,300,1</t>
+    <t>1,300,0</t>
   </si>
   <si>
     <t>唐依 R 技能伤害</t>
@@ -412,7 +470,7 @@
     <t>怪物1技能1投掷物效果计算</t>
   </si>
   <si>
-    <t>0,100,1|1,400,1</t>
+    <t>0,100,1|1,400,0</t>
   </si>
   <si>
     <t>近战怪物 技能1 区域效果计算</t>
@@ -433,19 +491,19 @@
     <t>日炎效果计算</t>
   </si>
   <si>
-    <t>1,250,1</t>
+    <t>1,250,0</t>
   </si>
   <si>
     <t>3环满层效果计算</t>
   </si>
   <si>
-    <t>1,3000,1</t>
+    <t>1,3000,0</t>
   </si>
   <si>
     <t>概率回血效果计算</t>
   </si>
   <si>
-    <t>20,-1,1</t>
+    <t>20,-1,0</t>
   </si>
   <si>
     <t>上官唯普通命中群攻计算</t>
@@ -460,13 +518,13 @@
     <t>测试道具效果：加血</t>
   </si>
   <si>
-    <t>0,-500,1</t>
+    <t>0,-500,0</t>
   </si>
   <si>
     <t>ai 远程兵 单体伤害</t>
   </si>
   <si>
-    <t>1,4000,1</t>
+    <t>1,4000,0</t>
   </si>
   <si>
     <t>ai 远程兵 区域伤害</t>
@@ -475,13 +533,13 @@
     <t>ai 远程兵 测试 单体加血</t>
   </si>
   <si>
-    <t>0,-150,1</t>
+    <t>0,-150,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -641,12 +699,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1108,20 +1166,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1130,19 +1188,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,34 +1545,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1529,7 +1582,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1547,2451 +1600,2628 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="93" customHeight="1" spans="1:12">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="93" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="3:11">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:11">
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="3:12">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>4001101</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>15008027</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>4001201</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="7" t="s">
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>15008027</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="15" customHeight="1" spans="3:12">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:12">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>4002101</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="G8" s="8"/>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>15008027</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="3:11">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="7"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" customFormat="1" spans="3:11">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="7"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" customFormat="1" spans="3:11">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="7"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" customFormat="1" spans="3:11">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="7"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" customFormat="1" spans="3:11">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:11">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:12">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>4002201</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>15008027</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="3:12">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="3:12">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
         <v>4003101</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>15008027</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:12">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
         <v>4003201</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
+      <c r="C13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>15008027</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:12">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
         <v>4003301</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>15008027</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="3:11">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="7"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" customFormat="1" spans="3:11">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="7"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="3:12">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" spans="3:12">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:12">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
         <v>4004101</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>15008028</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:12">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
         <v>4004201</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="8"/>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>15008027</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:12">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
         <v>4004301</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="8"/>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>15008027</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:12">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
         <v>4004401</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
+      <c r="C20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="8"/>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>15008027</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="3:11">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="7"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="3:12">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:12">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22">
         <v>4005101</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
+      <c r="C22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="8"/>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>15008027</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:12">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23">
         <v>4005201</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
+      <c r="C23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="8"/>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>15008027</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:12">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
         <v>4005301</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
+      <c r="C24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="8"/>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>15008027</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:12">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25">
         <v>4005302</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
+      <c r="C25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="8"/>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>15008027</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:12">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26">
         <v>4005303</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
+      <c r="C26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="8"/>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>15008027</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:12">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
         <v>4005304</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
+      <c r="C27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="8"/>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>15008027</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:12">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28">
         <v>4005305</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
+      <c r="C28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="8"/>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>15008027</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:12">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
         <v>4005401</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
+      <c r="C29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="8"/>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>15008027</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:12">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
         <v>4005501</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
+      <c r="C30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="8"/>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>15008027</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="3:11">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="7"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" customFormat="1" spans="3:11">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="7"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="3:12">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" customFormat="1" spans="3:12">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:12">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
         <v>4006101</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
+      <c r="C33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="8"/>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>15008028</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:12">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34">
         <v>4006201</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
+      <c r="C34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="8"/>
       <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <v>15008028</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:12">
       <c r="A35" t="s">
         <v>0</v>
       </c>
       <c r="B35">
         <v>4006301</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
+      <c r="C35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="8"/>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>15008028</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="3:11">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="7"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" customFormat="1" spans="3:11">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="7"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" customFormat="1" spans="3:11">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="7"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="3:12">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" customFormat="1" spans="3:12">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" customFormat="1" spans="3:12">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:12">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39">
         <v>4101101</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
+      <c r="C39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="8"/>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>15008028</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="3:11">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="7"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="3:12">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:12">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41">
         <v>4102101</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
+      <c r="C41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="8"/>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <v>15008028</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:12">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42">
         <v>4103101</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
+      <c r="C42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="8"/>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>15008028</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="3:11">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="7"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" customFormat="1" spans="3:11">
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="7"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" customFormat="1" spans="3:11">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="7"/>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" customFormat="1" spans="3:11">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="7"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" customFormat="1" spans="3:11">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="7"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" customFormat="1" spans="3:11">
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="7"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" customFormat="1" spans="3:11">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="7"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" customFormat="1" spans="3:11">
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="7"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" customFormat="1" spans="3:11">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="7"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="3:12">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" customFormat="1" spans="3:12">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" customFormat="1" spans="3:12">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" customFormat="1" spans="3:12">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" customFormat="1" spans="3:12">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" customFormat="1" spans="3:12">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" spans="3:12">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" spans="3:12">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" customFormat="1" spans="3:12">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" customFormat="1" spans="1:12">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52">
         <v>4501101</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
+      <c r="C52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="8"/>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>15008028</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:12">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
         <v>4502101</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
+      <c r="C53" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="8"/>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>15008028</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="3:11">
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="7"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" customFormat="1" spans="3:11">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="7"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" customFormat="1" spans="3:11">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="7"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="3:12">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" customFormat="1" spans="3:12">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" customFormat="1" spans="3:12">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" customFormat="1" spans="1:12">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57">
         <v>4801101</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
+      <c r="C57" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="8"/>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>15008028</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:12">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
         <v>4801201</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
+      <c r="C58" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="8"/>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>15008028</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:12">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59">
         <v>4801301</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="10">
+      <c r="C59" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="9">
         <v>5</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
+      <c r="F59" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="8"/>
       <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <v>15008028</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:12">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60">
         <v>4804301</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
+      <c r="C60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="8"/>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>15008028</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="3:11">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="7"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" customFormat="1" spans="3:11">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="7"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" customFormat="1" spans="3:11">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="7"/>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" customFormat="1" spans="3:11">
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="7"/>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" customFormat="1" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="3:12">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" customFormat="1" spans="3:12">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" customFormat="1" spans="3:12">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" customFormat="1" spans="3:12">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" customFormat="1" spans="1:12">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
         <v>4820101</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
+      <c r="C65" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="8"/>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>15008028</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="3:11">
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="7"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" customFormat="1" spans="3:11">
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="7"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" customFormat="1" spans="3:11">
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="7"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" customFormat="1" spans="3:11">
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="7"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" customFormat="1" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="3:12">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" customFormat="1" spans="3:12">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" customFormat="1" spans="3:12">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" customFormat="1" spans="3:12">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" customFormat="1" spans="2:12">
       <c r="B70">
         <v>4100101</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
+      <c r="C70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="8"/>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>15008006</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="2:12">
       <c r="B71">
         <v>4100102</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
+      <c r="C71" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="8"/>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>15008006</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
       <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="2:12">
       <c r="B72">
         <v>4100103</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
+      <c r="C72" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="8"/>
       <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
         <v>15008006</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="2:12">
       <c r="B73">
         <v>4100104</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
+      <c r="C73" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="8"/>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
         <v>15008006</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
       <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="2:12">
       <c r="B74">
         <v>4100105</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
+      <c r="C74" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" s="8"/>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>15008006</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
       <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="3:11">
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="7"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" customFormat="1" spans="3:11">
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="7"/>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" customFormat="1" spans="2:12">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="3:12">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" customFormat="1" spans="3:12">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" customFormat="1" spans="2:13">
       <c r="B77">
         <v>4100205</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="7"/>
-      <c r="G77">
-        <v>1</v>
-      </c>
+      <c r="C77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>15008006</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="3:11">
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="7"/>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" customFormat="1" spans="3:11">
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="7"/>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" customFormat="1" spans="3:11">
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="7"/>
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" customFormat="1" spans="3:11">
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="7"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" customFormat="1" spans="3:11">
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="7"/>
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="3:12">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" customFormat="1" spans="3:12">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" customFormat="1" spans="3:12">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" customFormat="1" spans="3:12">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" customFormat="1" spans="3:12">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="2:12">
       <c r="B83">
         <v>4001001</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
+      <c r="C83" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="8"/>
       <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
         <v>15008027</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
       <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
       <c r="B84">
         <v>4001002</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
+      <c r="C84" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84" s="8"/>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>15008006</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
       <c r="B85">
         <v>4001003</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
+      <c r="C85" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="8"/>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>15008006</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
       <c r="B86">
         <v>4001050</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
+      <c r="C86" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="8"/>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>15008006</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6">
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="2:12">
       <c r="B88">
         <v>4001004</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
+      <c r="C88" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88" s="8"/>
       <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
         <v>15008006</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
       <c r="B89">
         <v>4001005</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
+      <c r="C89" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" s="8"/>
       <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>15008006</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
       <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
       <c r="B90">
         <v>4001006</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
+      <c r="C90" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="8"/>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>15008006</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
       <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
       <c r="B91">
         <v>4001007</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
+      <c r="C91" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" s="8"/>
       <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>15008006</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
       <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
       <c r="B92">
         <v>4001008</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
+      <c r="C92" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G92" s="8"/>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>15008019</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
       <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6">
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="3:6">
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="3:6">
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="3:7">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="2:12">
       <c r="B96">
         <v>4002001</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
+      <c r="C96" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="8"/>
       <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
         <v>15008028</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
       <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12">
       <c r="B97">
         <v>4002002</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
+      <c r="C97" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" s="8"/>
       <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
         <v>15008006</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
       <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6">
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="10"/>
-    </row>
-    <row r="100" spans="3:6">
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="3:6">
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="2:11">
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="3:7">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="2:12">
       <c r="B102">
         <v>4002004</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
+      <c r="C102" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="8"/>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <v>15008006</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
       <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="3:6">
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="2:12">
       <c r="B104">
         <v>4002006</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
+      <c r="C104" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="8"/>
       <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>15008028</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
       <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12">
       <c r="B105">
         <v>4002007</v>
       </c>
-      <c r="C105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
+      <c r="C105" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="8"/>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>15008006</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
       <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6">
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="3:6">
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="3:6">
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="3:6">
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="3:7">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="3:7">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="2:12">
       <c r="B110">
         <v>4002010</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
+      <c r="C110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="8"/>
       <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
         <v>15008028</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
       <c r="J110">
-        <v>1</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12">
       <c r="B111">
         <v>4002011</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
+      <c r="C111" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G111" s="8"/>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>15008006</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
       <c r="J111">
-        <v>1</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="10"/>
-    </row>
-    <row r="113" spans="2:11">
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="2:12">
       <c r="B113">
         <v>4002020</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
+      <c r="C113" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G113" s="8"/>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>15008006</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113">
-        <v>1</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
       <c r="B114">
         <v>4002021</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
+      <c r="C114" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" s="8"/>
       <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
         <v>15008006</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114">
-        <v>1</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12">
       <c r="B115">
         <v>4002022</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
+      <c r="C115" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115" s="9"/>
+      <c r="F115" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G115" s="8"/>
       <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>15008013</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
       <c r="J115">
-        <v>1</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
       <c r="B116">
         <v>4002023</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
+      <c r="C116" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G116" s="8"/>
       <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
         <v>15008020</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
       <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="10"/>
+      <c r="E117" s="9"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="10"/>
-    </row>
-    <row r="119" spans="2:11">
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="2:12">
       <c r="B119">
         <v>4002030</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
+      <c r="C119" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="8"/>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>15008020</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
       <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12">
       <c r="B120">
         <v>4002031</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
+      <c r="C120" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G120" s="8"/>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>15008020</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="10"/>
+      <c r="E121" s="9"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="10"/>
+      <c r="E122" s="9"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="10"/>
-    </row>
-    <row r="124" spans="2:11">
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="2:12">
       <c r="B124">
         <v>4005001</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
+      <c r="C124" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G124" s="8"/>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
         <v>15008013</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
       <c r="J124">
-        <v>1</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="10"/>
+      <c r="E125" s="9"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="10"/>
-    </row>
-    <row r="127" spans="2:10">
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="2:11">
       <c r="B127">
         <v>4006101</v>
       </c>
       <c r="C127" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D127" t="s">
-        <v>114</v>
-      </c>
-      <c r="E127" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="E127" s="9"/>
       <c r="F127" t="s">
-        <v>115</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
         <v>15008006</v>
       </c>
-      <c r="J127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" customFormat="1" spans="2:11">
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="1" spans="2:12">
       <c r="B128">
         <v>4006201</v>
       </c>
       <c r="C128" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D128" t="s">
-        <v>116</v>
-      </c>
-      <c r="E128" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="E128" s="9"/>
       <c r="F128" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
         <v>15008006</v>
       </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-      <c r="K128" s="3"/>
-    </row>
-    <row r="129" customFormat="1" spans="2:11">
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" customFormat="1" spans="2:12">
       <c r="B129">
         <v>4006301</v>
       </c>
       <c r="C129" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D129" t="s">
-        <v>117</v>
-      </c>
-      <c r="E129" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="E129" s="9"/>
       <c r="F129" t="s">
-        <v>118</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>15008013</v>
       </c>
-      <c r="J129">
-        <v>1</v>
-      </c>
-      <c r="K129" s="3"/>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4007,10 +4237,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4024,10 +4254,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>1,1000,0|30,1,1</t>
+  </si>
+  <si>
+    <t>凤紫夕大招流血效果计算</t>
+  </si>
+  <si>
+    <t>1,150,0|3,5,1</t>
   </si>
   <si>
     <t>唐依普通攻击投掷物效果计算</t>
@@ -1547,10 +1553,10 @@
   <sheetPr/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1560,7 +1566,7 @@
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.625" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="14.5" customWidth="1"/>
@@ -1588,7 +1594,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1629,7 +1635,7 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1670,7 +1676,7 @@
       <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1697,7 +1703,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="1:12">
@@ -1717,7 +1723,7 @@
       <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="9"/>
       <c r="H5">
         <v>1</v>
       </c>
@@ -1751,7 +1757,7 @@
       <c r="F6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="H6">
         <v>1</v>
       </c>
@@ -1773,7 +1779,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="9"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="1:12">
@@ -1793,7 +1799,7 @@
       <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="9"/>
       <c r="H8">
         <v>1</v>
       </c>
@@ -1829,7 +1835,7 @@
       <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="9"/>
       <c r="H9">
         <v>1</v>
       </c>
@@ -1846,20 +1852,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="3:12">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+    <row r="10" customFormat="1" spans="1:12">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>4002301</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="L10" s="2"/>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>15008027</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" customFormat="1" spans="3:12">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" customFormat="1" spans="1:12">
@@ -1870,16 +1902,16 @@
         <v>4003101</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12">
         <v>1</v>
       </c>
@@ -1904,16 +1936,16 @@
         <v>4003201</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="G13" s="9"/>
       <c r="H13">
         <v>1</v>
       </c>
@@ -1938,16 +1970,16 @@
         <v>4003301</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="9"/>
       <c r="H14">
         <v>1</v>
       </c>
@@ -1969,7 +2001,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="9"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" customFormat="1" spans="3:12">
@@ -1977,7 +2009,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="9"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" customFormat="1" spans="1:12">
@@ -1988,16 +2020,16 @@
         <v>4004101</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="9"/>
       <c r="H17">
         <v>1</v>
       </c>
@@ -2022,16 +2054,16 @@
         <v>4004201</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="G18" s="9"/>
       <c r="H18">
         <v>1</v>
       </c>
@@ -2056,16 +2088,16 @@
         <v>4004301</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19">
         <v>1</v>
       </c>
@@ -2090,16 +2122,16 @@
         <v>4004401</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="G20" s="9"/>
       <c r="H20">
         <v>1</v>
       </c>
@@ -2121,7 +2153,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="9"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" customFormat="1" spans="1:12">
@@ -2132,16 +2164,16 @@
         <v>4005101</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="9"/>
       <c r="H22">
         <v>1</v>
       </c>
@@ -2166,16 +2198,16 @@
         <v>4005201</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="G23" s="9"/>
       <c r="H23">
         <v>1</v>
       </c>
@@ -2200,16 +2232,16 @@
         <v>4005301</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="G24" s="9"/>
       <c r="H24">
         <v>1</v>
       </c>
@@ -2234,16 +2266,16 @@
         <v>4005302</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="9"/>
       <c r="H25">
         <v>1</v>
       </c>
@@ -2268,16 +2300,16 @@
         <v>4005303</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="G26" s="9"/>
       <c r="H26">
         <v>1</v>
       </c>
@@ -2302,16 +2334,16 @@
         <v>4005304</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="G27" s="9"/>
       <c r="H27">
         <v>1</v>
       </c>
@@ -2336,16 +2368,16 @@
         <v>4005305</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="G28" s="9"/>
       <c r="H28">
         <v>1</v>
       </c>
@@ -2370,16 +2402,16 @@
         <v>4005401</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G29" s="9"/>
       <c r="H29">
         <v>1</v>
       </c>
@@ -2404,16 +2436,16 @@
         <v>4005501</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="G30" s="9"/>
       <c r="H30">
         <v>1</v>
       </c>
@@ -2435,7 +2467,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="9"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" customFormat="1" spans="3:12">
@@ -2443,7 +2475,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="9"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" customFormat="1" spans="1:12">
@@ -2454,16 +2486,16 @@
         <v>4006101</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="9"/>
       <c r="H33">
         <v>1</v>
       </c>
@@ -2488,16 +2520,16 @@
         <v>4006201</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="G34" s="9"/>
       <c r="H34">
         <v>1</v>
       </c>
@@ -2522,16 +2554,16 @@
         <v>4006301</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="G35" s="9"/>
       <c r="H35">
         <v>1</v>
       </c>
@@ -2553,7 +2585,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="9"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" customFormat="1" spans="3:12">
@@ -2561,7 +2593,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="G37" s="9"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" customFormat="1" spans="3:12">
@@ -2569,7 +2601,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="9"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" customFormat="1" spans="1:12">
@@ -2580,16 +2612,16 @@
         <v>4101101</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="9"/>
       <c r="H39">
         <v>1</v>
       </c>
@@ -2611,7 +2643,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="G40" s="9"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" customFormat="1" spans="1:12">
@@ -2622,16 +2654,16 @@
         <v>4102101</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="G41" s="9"/>
       <c r="H41">
         <v>1</v>
       </c>
@@ -2656,16 +2688,16 @@
         <v>4103101</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="G42" s="9"/>
       <c r="H42">
         <v>1</v>
       </c>
@@ -2687,7 +2719,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="G43" s="9"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" customFormat="1" spans="3:12">
@@ -2695,7 +2727,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="G44" s="9"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" customFormat="1" spans="3:12">
@@ -2703,7 +2735,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="G45" s="9"/>
       <c r="L45" s="2"/>
     </row>
     <row r="46" customFormat="1" spans="3:12">
@@ -2711,7 +2743,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="9"/>
       <c r="L46" s="2"/>
     </row>
     <row r="47" customFormat="1" spans="3:12">
@@ -2719,7 +2751,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="G47" s="9"/>
       <c r="L47" s="2"/>
     </row>
     <row r="48" customFormat="1" spans="3:12">
@@ -2727,7 +2759,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="G48" s="9"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" customFormat="1" spans="3:12">
@@ -2735,7 +2767,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="G49" s="9"/>
       <c r="L49" s="2"/>
     </row>
     <row r="50" customFormat="1" spans="3:12">
@@ -2743,7 +2775,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="G50" s="9"/>
       <c r="L50" s="2"/>
     </row>
     <row r="51" customFormat="1" spans="3:12">
@@ -2751,7 +2783,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="G51" s="9"/>
       <c r="L51" s="2"/>
     </row>
     <row r="52" customFormat="1" spans="1:12">
@@ -2762,16 +2794,16 @@
         <v>4501101</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="9"/>
       <c r="H52">
         <v>1</v>
       </c>
@@ -2796,16 +2828,16 @@
         <v>4502101</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="9"/>
       <c r="H53">
         <v>1</v>
       </c>
@@ -2827,7 +2859,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="G54" s="9"/>
       <c r="L54" s="2"/>
     </row>
     <row r="55" customFormat="1" spans="3:12">
@@ -2835,7 +2867,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="G55" s="9"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" customFormat="1" spans="3:12">
@@ -2843,7 +2875,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="9"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="G56" s="9"/>
       <c r="L56" s="2"/>
     </row>
     <row r="57" customFormat="1" spans="1:12">
@@ -2854,16 +2886,16 @@
         <v>4801101</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G57" s="8"/>
+      <c r="G57" s="9"/>
       <c r="H57">
         <v>1</v>
       </c>
@@ -2888,16 +2920,16 @@
         <v>4801201</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="G58" s="9"/>
       <c r="H58">
         <v>1</v>
       </c>
@@ -2922,18 +2954,18 @@
         <v>4801301</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E59" s="9">
         <v>5</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="G59" s="9"/>
       <c r="H59">
         <v>1</v>
       </c>
@@ -2958,16 +2990,16 @@
         <v>4804301</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="8"/>
+      <c r="G60" s="9"/>
       <c r="H60">
         <v>1</v>
       </c>
@@ -2989,7 +3021,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="G61" s="9"/>
       <c r="L61" s="2"/>
     </row>
     <row r="62" customFormat="1" spans="3:12">
@@ -2997,7 +3029,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="9"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="G62" s="9"/>
       <c r="L62" s="2"/>
     </row>
     <row r="63" customFormat="1" spans="3:12">
@@ -3005,7 +3037,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="G63" s="9"/>
       <c r="L63" s="2"/>
     </row>
     <row r="64" customFormat="1" spans="3:12">
@@ -3013,7 +3045,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="9"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="G64" s="9"/>
       <c r="L64" s="2"/>
     </row>
     <row r="65" customFormat="1" spans="1:12">
@@ -3024,16 +3056,16 @@
         <v>4820101</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="G65" s="9"/>
       <c r="H65">
         <v>1</v>
       </c>
@@ -3055,7 +3087,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="G66" s="9"/>
       <c r="L66" s="2"/>
     </row>
     <row r="67" customFormat="1" spans="3:12">
@@ -3063,7 +3095,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="G67" s="9"/>
       <c r="L67" s="2"/>
     </row>
     <row r="68" customFormat="1" spans="3:12">
@@ -3071,7 +3103,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="9"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="G68" s="9"/>
       <c r="L68" s="2"/>
     </row>
     <row r="69" customFormat="1" spans="3:12">
@@ -3079,7 +3111,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="G69" s="9"/>
       <c r="L69" s="2"/>
     </row>
     <row r="70" customFormat="1" spans="2:12">
@@ -3087,16 +3119,16 @@
         <v>4100101</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="G70" s="9"/>
       <c r="H70">
         <v>1</v>
       </c>
@@ -3118,16 +3150,16 @@
         <v>4100102</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G71" s="8"/>
+      <c r="G71" s="9"/>
       <c r="H71">
         <v>1</v>
       </c>
@@ -3149,16 +3181,16 @@
         <v>4100103</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="8"/>
+      <c r="G72" s="9"/>
       <c r="H72">
         <v>1</v>
       </c>
@@ -3180,16 +3212,16 @@
         <v>4100104</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G73" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="G73" s="9"/>
       <c r="H73">
         <v>1</v>
       </c>
@@ -3211,16 +3243,16 @@
         <v>4100105</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G74" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="G74" s="9"/>
       <c r="H74">
         <v>1</v>
       </c>
@@ -3242,7 +3274,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+      <c r="G75" s="9"/>
       <c r="L75" s="2"/>
     </row>
     <row r="76" customFormat="1" spans="3:12">
@@ -3250,7 +3282,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="G76" s="9"/>
       <c r="L76" s="2"/>
     </row>
     <row r="77" customFormat="1" spans="2:13">
@@ -3258,14 +3290,14 @@
         <v>4100205</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="G77" s="9"/>
       <c r="H77">
         <v>1</v>
       </c>
@@ -3290,7 +3322,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="G78" s="9"/>
       <c r="L78" s="2"/>
     </row>
     <row r="79" customFormat="1" spans="3:12">
@@ -3298,7 +3330,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="G79" s="9"/>
       <c r="L79" s="2"/>
     </row>
     <row r="80" customFormat="1" spans="3:12">
@@ -3306,7 +3338,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="G80" s="9"/>
       <c r="L80" s="2"/>
     </row>
     <row r="81" customFormat="1" spans="3:12">
@@ -3314,7 +3346,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
       <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="G81" s="9"/>
       <c r="L81" s="2"/>
     </row>
     <row r="82" customFormat="1" spans="3:12">
@@ -3322,7 +3354,7 @@
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
       <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="G82" s="9"/>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="2:12">
@@ -3330,16 +3362,16 @@
         <v>4001001</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G83" s="8"/>
+      <c r="G83" s="9"/>
       <c r="H83">
         <v>1</v>
       </c>
@@ -3361,16 +3393,16 @@
         <v>4001002</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="G84" s="9"/>
       <c r="H84">
         <v>1</v>
       </c>
@@ -3392,16 +3424,16 @@
         <v>4001003</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="G85" s="9"/>
       <c r="H85">
         <v>1</v>
       </c>
@@ -3423,16 +3455,16 @@
         <v>4001050</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G86" s="8"/>
+      <c r="G86" s="9"/>
       <c r="H86">
         <v>1</v>
       </c>
@@ -3454,23 +3486,23 @@
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="2:12">
       <c r="B88">
         <v>4001004</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="G88" s="9"/>
       <c r="H88">
         <v>1</v>
       </c>
@@ -3492,16 +3524,16 @@
         <v>4001005</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="G89" s="9"/>
       <c r="H89">
         <v>1</v>
       </c>
@@ -3523,16 +3555,16 @@
         <v>4001006</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G90" s="8"/>
+      <c r="G90" s="9"/>
       <c r="H90">
         <v>1</v>
       </c>
@@ -3554,16 +3586,16 @@
         <v>4001007</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="G91" s="9"/>
       <c r="H91">
         <v>1</v>
       </c>
@@ -3585,16 +3617,16 @@
         <v>4001008</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G92" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="G92" s="9"/>
       <c r="H92">
         <v>1</v>
       </c>
@@ -3616,37 +3648,37 @@
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
       <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="3:7">
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
       <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="3:7">
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
       <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" spans="2:12">
       <c r="B96">
         <v>4002001</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G96" s="8"/>
+      <c r="G96" s="9"/>
       <c r="H96">
         <v>1</v>
       </c>
@@ -3668,16 +3700,16 @@
         <v>4002002</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="G97" s="9"/>
       <c r="H97">
         <v>1</v>
       </c>
@@ -3699,7 +3731,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" s="9"/>
@@ -3709,30 +3741,30 @@
       <c r="D100" s="8"/>
       <c r="E100" s="9"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" spans="3:7">
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="9"/>
       <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+      <c r="G101" s="9"/>
     </row>
     <row r="102" spans="2:12">
       <c r="B102">
         <v>4002004</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G102" s="8"/>
+      <c r="G102" s="9"/>
       <c r="H102">
         <v>1</v>
       </c>
@@ -3754,23 +3786,23 @@
       <c r="D103" s="8"/>
       <c r="E103" s="9"/>
       <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
+      <c r="G103" s="9"/>
     </row>
     <row r="104" spans="2:12">
       <c r="B104">
         <v>4002006</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G104" s="8"/>
+      <c r="G104" s="9"/>
       <c r="H104">
         <v>1</v>
       </c>
@@ -3792,16 +3824,16 @@
         <v>4002007</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G105" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="G105" s="9"/>
       <c r="H105">
         <v>1</v>
       </c>
@@ -3823,44 +3855,44 @@
       <c r="D106" s="8"/>
       <c r="E106" s="9"/>
       <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107" spans="3:7">
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="9"/>
       <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="G107" s="9"/>
     </row>
     <row r="108" spans="3:7">
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="9"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="G108" s="9"/>
     </row>
     <row r="109" spans="3:7">
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="9"/>
       <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="G109" s="9"/>
     </row>
     <row r="110" spans="2:12">
       <c r="B110">
         <v>4002010</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G110" s="8"/>
+      <c r="G110" s="9"/>
       <c r="H110">
         <v>1</v>
       </c>
@@ -3882,16 +3914,16 @@
         <v>4002011</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G111" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="G111" s="9"/>
       <c r="H111">
         <v>1</v>
       </c>
@@ -3916,16 +3948,16 @@
         <v>4002020</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G113" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="G113" s="9"/>
       <c r="H113">
         <v>1</v>
       </c>
@@ -3947,16 +3979,16 @@
         <v>4002021</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G114" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="G114" s="9"/>
       <c r="H114">
         <v>1</v>
       </c>
@@ -3978,16 +4010,16 @@
         <v>4002022</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G115" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="G115" s="9"/>
       <c r="H115">
         <v>1</v>
       </c>
@@ -4009,16 +4041,16 @@
         <v>4002023</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G116" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="G116" s="9"/>
       <c r="H116">
         <v>1</v>
       </c>
@@ -4046,16 +4078,16 @@
         <v>4002030</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G119" s="8"/>
+      <c r="G119" s="9"/>
       <c r="H119">
         <v>1</v>
       </c>
@@ -4077,16 +4109,16 @@
         <v>4002031</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G120" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="G120" s="9"/>
       <c r="H120">
         <v>1</v>
       </c>
@@ -4117,16 +4149,16 @@
         <v>4005001</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G124" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="G124" s="9"/>
       <c r="H124">
         <v>1</v>
       </c>
@@ -4154,14 +4186,14 @@
         <v>4006101</v>
       </c>
       <c r="C127" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D127" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -4178,15 +4210,16 @@
         <v>4006201</v>
       </c>
       <c r="C128" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" t="s">
-        <v>40</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G128" s="2"/>
       <c r="H128">
         <v>1</v>
       </c>
@@ -4203,15 +4236,16 @@
         <v>4006301</v>
       </c>
       <c r="C129" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D129" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" t="s">
-        <v>124</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G129" s="2"/>
       <c r="H129">
         <v>1</v>
       </c>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11700" tabRatio="601"/>
+    <workbookView windowWidth="17280" windowHeight="11700" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="133">
   <si>
     <t>#</t>
   </si>
@@ -185,6 +185,9 @@
     <t>finalEffectType</t>
   </si>
   <si>
+    <t>afterDamageEffectIds</t>
+  </si>
+  <si>
     <t>effectResId</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
     <t xml:space="preserve">最终的效果类型 1 物理伤害 2 法强伤害 </t>
   </si>
   <si>
+    <t>伤害时候的效果ids</t>
+  </si>
+  <si>
     <t>效果资源id</t>
   </si>
   <si>
@@ -375,6 +381,18 @@
   </si>
   <si>
     <t>20,-20,0</t>
+  </si>
+  <si>
+    <t>林清远 普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>林清远 q技能区域伤害效果计算</t>
+  </si>
+  <si>
+    <t>林清远 q技能区域伤害加血</t>
+  </si>
+  <si>
+    <t>20,-500,0</t>
   </si>
   <si>
     <t>怪物1普通攻击投掷物效果计算</t>
@@ -1551,12 +1569,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1568,14 +1586,15 @@
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1619,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1609,104 +1628,114 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="93" customHeight="1" spans="1:13">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="93" customHeight="1" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="3:12">
+      <c r="M3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="3:13">
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:12">
+      <c r="I4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:13">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1714,33 +1743,34 @@
         <v>4001101</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2"/>
+      <c r="J5">
         <v>15008027</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:13">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1748,41 +1778,43 @@
         <v>4001201</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2"/>
+      <c r="J6">
         <v>15008027</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="15" customHeight="1" spans="3:12">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="15" customHeight="1" spans="3:13">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:12">
+      <c r="I7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1790,33 +1822,34 @@
         <v>4002101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2"/>
+      <c r="J8">
         <v>15008027</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:13">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1824,35 +1857,36 @@
         <v>4002201</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2"/>
+      <c r="J9">
         <v>15008027</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:13">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1860,41 +1894,43 @@
         <v>4002301</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2"/>
+      <c r="J10">
         <v>15008027</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="3:12">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="3:13">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:12">
+      <c r="I11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:13">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1902,33 +1938,34 @@
         <v>4003101</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2"/>
+      <c r="J12">
         <v>15008027</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1936,33 +1973,34 @@
         <v>4003201</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2"/>
+      <c r="J13">
         <v>15008027</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:13">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1970,49 +2008,52 @@
         <v>4003301</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2"/>
+      <c r="J14">
         <v>15008027</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="3:12">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="3:13">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" customFormat="1" spans="3:12">
+      <c r="I15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" spans="3:13">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:12">
+      <c r="I16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:13">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2020,33 +2061,34 @@
         <v>4004101</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2"/>
+      <c r="J17">
         <v>15008028</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:13">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2054,33 +2096,34 @@
         <v>4004201</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2"/>
+      <c r="J18">
         <v>15008027</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:13">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2088,33 +2131,34 @@
         <v>4004301</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2"/>
+      <c r="J19">
         <v>15008027</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:13">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2122,41 +2166,43 @@
         <v>4004401</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2"/>
+      <c r="J20">
         <v>15008027</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="3:12">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="3:13">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:12">
+      <c r="I21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:13">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2164,33 +2210,34 @@
         <v>4005101</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2"/>
+      <c r="J22">
         <v>15008027</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:13">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2198,33 +2245,34 @@
         <v>4005201</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2"/>
+      <c r="J23">
         <v>15008027</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:13">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2232,33 +2280,34 @@
         <v>4005301</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2"/>
+      <c r="J24">
         <v>15008027</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:13">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2266,33 +2315,34 @@
         <v>4005302</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2"/>
+      <c r="J25">
         <v>15008027</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:13">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2300,33 +2350,34 @@
         <v>4005303</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2"/>
+      <c r="J26">
         <v>15008027</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:13">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2334,33 +2385,34 @@
         <v>4005304</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2"/>
+      <c r="J27">
         <v>15008027</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:13">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2368,33 +2420,34 @@
         <v>4005305</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2"/>
+      <c r="J28">
         <v>15008027</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:13">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2402,33 +2455,34 @@
         <v>4005401</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2"/>
+      <c r="J29">
         <v>15008027</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:13">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2436,49 +2490,52 @@
         <v>4005501</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2"/>
+      <c r="J30">
         <v>15008027</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="3:12">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="3:13">
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" customFormat="1" spans="3:12">
+      <c r="I31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" customFormat="1" spans="3:13">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:12">
+      <c r="I32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:13">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2486,33 +2543,34 @@
         <v>4006101</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2"/>
+      <c r="J33">
         <v>15008028</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:13">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2520,33 +2578,34 @@
         <v>4006201</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2"/>
+      <c r="J34">
         <v>15008028</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:13">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2554,974 +2613,1016 @@
         <v>4006301</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2"/>
+      <c r="J35">
         <v>15008028</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="3:12">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="3:13">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" customFormat="1" spans="3:12">
+      <c r="I36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" customFormat="1" spans="3:13">
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" customFormat="1" spans="3:12">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="I37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:13">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>4007101</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G38" s="9"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" customFormat="1" spans="1:12">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38">
+        <v>15008028</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:13">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39">
-        <v>4101101</v>
+        <v>4007201</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
+        <v>4007301</v>
+      </c>
+      <c r="J39">
         <v>15008028</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
       <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="3:12">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:13">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>4007301</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G40" s="9"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" customFormat="1" spans="1:12">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>4102101</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40">
+        <v>15008028</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="3:13">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="9"/>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>15008028</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:12">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>4103101</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="I41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" customFormat="1" spans="3:13">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="F42" s="8"/>
       <c r="G42" s="9"/>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>15008028</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="3:12">
+      <c r="I42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" customFormat="1" spans="3:13">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
       <c r="F43" s="8"/>
       <c r="G43" s="9"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" customFormat="1" spans="3:12">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="I43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" customFormat="1" spans="1:13">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>4101101</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G44" s="9"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" customFormat="1" spans="3:12">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44">
+        <v>15008028</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="3:13">
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
       <c r="F45" s="8"/>
       <c r="G45" s="9"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" customFormat="1" spans="3:12">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="I45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" customFormat="1" spans="1:13">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>4102101</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="G46" s="9"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" customFormat="1" spans="3:12">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46">
+        <v>15008028</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:13">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>4103101</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="G47" s="9"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" customFormat="1" spans="3:12">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47">
+        <v>15008028</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="3:13">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" spans="3:12">
+      <c r="I48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" customFormat="1" spans="3:13">
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
       <c r="F49" s="8"/>
       <c r="G49" s="9"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" spans="3:12">
+      <c r="I49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" customFormat="1" spans="3:13">
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" customFormat="1" spans="3:12">
+      <c r="I50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" customFormat="1" spans="3:13">
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
       <c r="F51" s="8"/>
       <c r="G51" s="9"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" customFormat="1" spans="1:12">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52">
-        <v>4501101</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="I51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" customFormat="1" spans="3:13">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="F52" s="8"/>
       <c r="G52" s="9"/>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>15008028</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:12">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <v>4502101</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="I52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" customFormat="1" spans="3:13">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="F53" s="8"/>
       <c r="G53" s="9"/>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>15008028</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="3:12">
+      <c r="I53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" customFormat="1" spans="3:13">
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" customFormat="1" spans="3:12">
+      <c r="I54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" customFormat="1" spans="3:13">
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
       <c r="F55" s="8"/>
       <c r="G55" s="9"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" customFormat="1" spans="3:12">
+      <c r="I55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" customFormat="1" spans="3:13">
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="9"/>
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" customFormat="1" spans="1:12">
+      <c r="I56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" customFormat="1" spans="1:13">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57">
-        <v>4801101</v>
+        <v>4501101</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57">
         <v>1</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2"/>
+      <c r="J57">
         <v>15008028</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
       <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:13">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>4801201</v>
+        <v>4502101</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="8" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2"/>
+      <c r="J58">
         <v>15008028</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
       <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:12">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>4801301</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="9">
-        <v>5</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="3:13">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="9"/>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>15008028</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:12">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60">
-        <v>4804301</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="I59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" customFormat="1" spans="3:13">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="F60" s="8"/>
       <c r="G60" s="9"/>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>15008028</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="3:12">
+      <c r="I60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" customFormat="1" spans="3:13">
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
       <c r="F61" s="8"/>
       <c r="G61" s="9"/>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" customFormat="1" spans="3:12">
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="I61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" customFormat="1" spans="1:13">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>4801101</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="E62" s="9"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G62" s="9"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" customFormat="1" spans="3:12">
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62">
+        <v>15008028</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:13">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>4801201</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G63" s="9"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" customFormat="1" spans="3:12">
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="8"/>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63">
+        <v>15008028</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:13">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>4801301</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="9">
+        <v>5</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="G64" s="9"/>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" customFormat="1" spans="1:12">
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64">
+        <v>15008028</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:13">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
-        <v>4820101</v>
+        <v>4804301</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65">
         <v>1</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2"/>
+      <c r="J65">
         <v>15008028</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
       <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="3:12">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="3:13">
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" customFormat="1" spans="3:12">
+      <c r="I66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" customFormat="1" spans="3:13">
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="F67" s="8"/>
       <c r="G67" s="9"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" customFormat="1" spans="3:12">
+      <c r="I67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" customFormat="1" spans="3:13">
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="9"/>
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" customFormat="1" spans="3:12">
+      <c r="I68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" customFormat="1" spans="3:13">
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
       <c r="F69" s="8"/>
       <c r="G69" s="9"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" customFormat="1" spans="2:12">
+      <c r="I69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" customFormat="1" spans="1:13">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
       <c r="B70">
-        <v>4100101</v>
+        <v>4820101</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70">
         <v>1</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2"/>
+      <c r="J70">
+        <v>15008028</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="3:13">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="9"/>
+      <c r="I71" s="2"/>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" customFormat="1" spans="3:13">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="9"/>
+      <c r="I72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" customFormat="1" spans="3:13">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9"/>
+      <c r="I73" s="2"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" customFormat="1" spans="3:13">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9"/>
+      <c r="I74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" customFormat="1" spans="2:13">
+      <c r="B75">
+        <v>4100101</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75">
         <v>15008006</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="2:12">
-      <c r="B71">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="2:13">
+      <c r="B76">
         <v>4100102</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
+      <c r="C76" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76">
         <v>15008006</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="2:12">
-      <c r="B72">
-        <v>4100103</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" s="9"/>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>15008006</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="2:12">
-      <c r="B73">
-        <v>4100104</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G73" s="9"/>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>15008006</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="2:12">
-      <c r="B74">
-        <v>4100105</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G74" s="9"/>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>15008006</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="3:12">
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" customFormat="1" spans="3:12">
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="9"/>
-      <c r="L76" s="2"/>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="77" customFormat="1" spans="2:13">
       <c r="B77">
-        <v>4100205</v>
+        <v>4100103</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E77" s="9"/>
-      <c r="F77" s="8"/>
+      <c r="F77" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G77" s="9"/>
       <c r="H77">
         <v>1</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2"/>
+      <c r="J77">
         <v>15008006</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
       <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="3:12">
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="2:13">
+      <c r="B78">
+        <v>4100104</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="E78" s="9"/>
-      <c r="F78" s="8"/>
+      <c r="F78" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="G78" s="9"/>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" customFormat="1" spans="3:12">
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78">
+        <v>15008006</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="2:13">
+      <c r="B79">
+        <v>4100105</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="E79" s="9"/>
-      <c r="F79" s="8"/>
+      <c r="F79" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="G79" s="9"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" customFormat="1" spans="3:12">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79">
+        <v>15008006</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="3:13">
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" customFormat="1" spans="3:12">
+      <c r="I80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" customFormat="1" spans="3:13">
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
       <c r="F81" s="8"/>
       <c r="G81" s="9"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" customFormat="1" spans="3:12">
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="I81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" customFormat="1" spans="2:14">
+      <c r="B82">
+        <v>4100205</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="2:12">
-      <c r="B83">
-        <v>4001001</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82">
+        <v>15008006</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="3:13">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="F83" s="8"/>
       <c r="G83" s="9"/>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>15008027</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12">
-      <c r="B84">
-        <v>4001002</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="I83" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" customFormat="1" spans="3:13">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F84" s="8"/>
       <c r="G84" s="9"/>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>15008006</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12">
-      <c r="B85">
-        <v>4001003</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="I84" s="2"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" customFormat="1" spans="3:13">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="F85" s="8"/>
       <c r="G85" s="9"/>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>15008006</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12">
-      <c r="B86">
-        <v>4001050</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="I85" s="2"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" customFormat="1" spans="3:13">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="F86" s="8"/>
       <c r="G86" s="9"/>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>15008006</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7">
+      <c r="I86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" customFormat="1" spans="3:13">
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
       <c r="F87" s="8"/>
       <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="2:12">
+      <c r="I87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="2:13">
       <c r="B88">
-        <v>4001004</v>
+        <v>4001001</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="8" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>15008006</v>
-      </c>
       <c r="J88">
-        <v>0</v>
+        <v>15008027</v>
       </c>
       <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
       <c r="B89">
-        <v>4001005</v>
+        <v>4001002</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>97</v>
@@ -3531,199 +3632,247 @@
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="8" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89">
         <v>1</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>15008006</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
       <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
       <c r="B90">
-        <v>4001006</v>
+        <v>4001003</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="8" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90">
         <v>1</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>15008006</v>
       </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
       <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
       <c r="B91">
-        <v>4001007</v>
+        <v>4001050</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="8" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91">
         <v>1</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>15008006</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
       <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12">
-      <c r="B92">
-        <v>4001008</v>
-      </c>
-      <c r="C92" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93">
+        <v>4001004</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G93" s="9"/>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>15008006</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13">
+      <c r="B94">
+        <v>4001005</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G92" s="9"/>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>15008019</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7">
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="3:7">
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="3:7">
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>15008006</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95">
+        <v>4001006</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="E95" s="9"/>
-      <c r="F95" s="8"/>
+      <c r="F95" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="2:12">
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>15008006</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13">
       <c r="B96">
-        <v>4002001</v>
+        <v>4001007</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="8" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96">
         <v>1</v>
       </c>
-      <c r="I96">
-        <v>15008028</v>
-      </c>
       <c r="J96">
-        <v>0</v>
+        <v>15008006</v>
       </c>
       <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13">
       <c r="B97">
-        <v>4002002</v>
+        <v>4001008</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="8" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97">
-        <v>15008006</v>
-      </c>
       <c r="J97">
-        <v>0</v>
+        <v>15008019</v>
       </c>
       <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="3:7">
@@ -3733,8 +3882,12 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="5:5">
+    <row r="99" spans="3:7">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="9"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" spans="3:7">
       <c r="C100" s="8"/>
@@ -3743,42 +3896,66 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7">
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+    <row r="101" spans="2:13">
+      <c r="B101">
+        <v>4002001</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="8"/>
+      <c r="F101" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="2:12">
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>15008028</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
       <c r="B102">
-        <v>4002004</v>
+        <v>4002002</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="8" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102">
         <v>1</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>15008006</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
       <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="3:7">
@@ -3788,67 +3965,15 @@
       <c r="F103" s="8"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="2:12">
-      <c r="B104">
-        <v>4002006</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>107</v>
-      </c>
+    <row r="104" spans="5:5">
       <c r="E104" s="9"/>
-      <c r="F104" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" s="9"/>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>15008028</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12">
-      <c r="B105">
-        <v>4002007</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>108</v>
-      </c>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="F105" s="8"/>
       <c r="G105" s="9"/>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>15008006</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="106" spans="3:7">
       <c r="C106" s="8"/>
@@ -3857,12 +3982,36 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7">
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+    <row r="107" spans="2:13">
+      <c r="B107">
+        <v>4002004</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="8"/>
+      <c r="F107" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G107" s="9"/>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>15008006</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="108" spans="3:7">
       <c r="C108" s="8"/>
@@ -3871,143 +4020,99 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7">
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+    <row r="109" spans="2:13">
+      <c r="B109">
+        <v>4002006</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="8"/>
+      <c r="F109" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="2:12">
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>15008028</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13">
       <c r="B110">
-        <v>4002010</v>
+        <v>4002007</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="8" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110">
         <v>1</v>
       </c>
-      <c r="I110">
-        <v>15008028</v>
-      </c>
       <c r="J110">
-        <v>0</v>
+        <v>15008006</v>
       </c>
       <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12">
-      <c r="B111">
-        <v>4002011</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F111" s="8"/>
       <c r="G111" s="9"/>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>15008006</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5">
+    </row>
+    <row r="112" spans="3:7">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="2:12">
-      <c r="B113">
-        <v>4002020</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="F113" s="8"/>
       <c r="G113" s="9"/>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <v>15008006</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12">
-      <c r="B114">
-        <v>4002021</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="114" spans="3:7">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="F114" s="8"/>
       <c r="G114" s="9"/>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>15008006</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12">
+    </row>
+    <row r="115" spans="2:13">
       <c r="B115">
-        <v>4002022</v>
+        <v>4002010</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>115</v>
@@ -4017,126 +4122,182 @@
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="8" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>15008013</v>
-      </c>
       <c r="J115">
-        <v>0</v>
+        <v>15008028</v>
       </c>
       <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13">
       <c r="B116">
-        <v>4002023</v>
+        <v>4002011</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>15008020</v>
-      </c>
       <c r="J116">
-        <v>0</v>
+        <v>15008006</v>
       </c>
       <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="5:5">
+    <row r="118" spans="2:13">
+      <c r="B118">
+        <v>4002020</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="2:12">
+      <c r="F118" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G118" s="9"/>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>15008006</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13">
       <c r="B119">
-        <v>4002030</v>
+        <v>4002021</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="8" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119">
         <v>1</v>
       </c>
-      <c r="I119">
-        <v>15008020</v>
-      </c>
       <c r="J119">
-        <v>0</v>
+        <v>15008006</v>
       </c>
       <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13">
       <c r="B120">
-        <v>4002031</v>
+        <v>4002022</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120">
         <v>1</v>
       </c>
-      <c r="I120">
+      <c r="J120">
+        <v>15008013</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="B121">
+        <v>4002023</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G121" s="9"/>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="J121">
         <v>15008020</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="5:5">
-      <c r="E121" s="9"/>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="122" spans="5:5">
       <c r="E122" s="9"/>
@@ -4144,118 +4305,191 @@
     <row r="123" spans="5:5">
       <c r="E123" s="9"/>
     </row>
-    <row r="124" spans="2:12">
+    <row r="124" spans="2:13">
       <c r="B124">
-        <v>4005001</v>
+        <v>4002030</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="8" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>15008013</v>
-      </c>
       <c r="J124">
-        <v>0</v>
+        <v>15008020</v>
       </c>
       <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="B125">
+        <v>4002031</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="E125" s="9"/>
+      <c r="F125" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G125" s="9"/>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>15008020</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" s="9"/>
     </row>
-    <row r="127" spans="2:11">
-      <c r="B127">
+    <row r="127" spans="5:5">
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="2:13">
+      <c r="B129">
+        <v>4005001</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="F129" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G129" s="9"/>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>15008013</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132">
         <v>4006101</v>
       </c>
-      <c r="C127" t="s">
-        <v>122</v>
-      </c>
-      <c r="D127" t="s">
-        <v>122</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" t="s">
-        <v>123</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
+      <c r="C132" t="s">
+        <v>128</v>
+      </c>
+      <c r="D132" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="F132" t="s">
+        <v>129</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="J132">
         <v>15008006</v>
       </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" customFormat="1" spans="2:12">
-      <c r="B128">
+      <c r="L132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="1" spans="2:13">
+      <c r="B133">
         <v>4006201</v>
       </c>
-      <c r="C128" t="s">
-        <v>124</v>
-      </c>
-      <c r="D128" t="s">
-        <v>124</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" t="s">
-        <v>42</v>
-      </c>
-      <c r="G128" s="2"/>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
+      <c r="C133" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" t="s">
+        <v>130</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" t="s">
+        <v>44</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133">
         <v>15008006</v>
       </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128" s="2"/>
-    </row>
-    <row r="129" customFormat="1" spans="2:12">
-      <c r="B129">
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133" s="2"/>
+    </row>
+    <row r="134" customFormat="1" spans="2:13">
+      <c r="B134">
         <v>4006301</v>
       </c>
-      <c r="C129" t="s">
-        <v>125</v>
-      </c>
-      <c r="D129" t="s">
-        <v>125</v>
-      </c>
-      <c r="E129" s="9"/>
-      <c r="F129" t="s">
-        <v>126</v>
-      </c>
-      <c r="G129" s="2"/>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
+      <c r="C134" t="s">
+        <v>131</v>
+      </c>
+      <c r="D134" t="s">
+        <v>131</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134" s="2"/>
+      <c r="J134">
         <v>15008013</v>
       </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129" s="2"/>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="135">
   <si>
     <t>#</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>20,-500,0</t>
+  </si>
+  <si>
+    <t>林清远 大招 攻击吸血</t>
+  </si>
+  <si>
+    <t>20,-300,0</t>
   </si>
   <si>
     <t>怪物1普通攻击投掷物效果计算</t>
@@ -1571,10 +1577,10 @@
   <sheetPr/>
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2765,14 +2771,40 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="3:13">
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+    <row r="41" customFormat="1" spans="1:13">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>4007401</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="G41" s="9"/>
+      <c r="H41">
+        <v>1</v>
+      </c>
       <c r="I41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="J41">
+        <v>15008028</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" customFormat="1" spans="3:13">
       <c r="C42" s="8"/>
@@ -2800,10 +2832,10 @@
         <v>4101101</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="8" t="s">
@@ -2844,10 +2876,10 @@
         <v>4102101</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="8" t="s">
@@ -2879,10 +2911,10 @@
         <v>4103101</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="8" t="s">
@@ -2995,10 +3027,10 @@
         <v>4501101</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="8" t="s">
@@ -3030,10 +3062,10 @@
         <v>4502101</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="8" t="s">
@@ -3092,10 +3124,10 @@
         <v>4801101</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="8" t="s">
@@ -3127,14 +3159,14 @@
         <v>4801201</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63">
@@ -3162,16 +3194,16 @@
         <v>4801301</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="9">
         <v>5</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64">
@@ -3199,10 +3231,10 @@
         <v>4804301</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="8" t="s">
@@ -3270,10 +3302,10 @@
         <v>4820101</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="8" t="s">
@@ -3338,10 +3370,10 @@
         <v>4100101</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="8" t="s">
@@ -3370,10 +3402,10 @@
         <v>4100102</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="8" t="s">
@@ -3402,10 +3434,10 @@
         <v>4100103</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="8" t="s">
@@ -3434,10 +3466,10 @@
         <v>4100104</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="8" t="s">
@@ -3466,10 +3498,10 @@
         <v>4100105</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="8" t="s">
@@ -3516,10 +3548,10 @@
         <v>4100205</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="8"/>
@@ -3594,10 +3626,10 @@
         <v>4001001</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="8" t="s">
@@ -3625,10 +3657,10 @@
         <v>4001002</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="8" t="s">
@@ -3656,14 +3688,14 @@
         <v>4001003</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90">
@@ -3687,10 +3719,10 @@
         <v>4001050</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="8" t="s">
@@ -3725,14 +3757,14 @@
         <v>4001004</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93">
@@ -3756,14 +3788,14 @@
         <v>4001005</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94">
@@ -3787,10 +3819,10 @@
         <v>4001006</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="8" t="s">
@@ -3818,14 +3850,14 @@
         <v>4001007</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96">
@@ -3849,10 +3881,10 @@
         <v>4001008</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="8" t="s">
@@ -3901,10 +3933,10 @@
         <v>4002001</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="8" t="s">
@@ -3932,14 +3964,14 @@
         <v>4002002</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102">
@@ -3987,10 +4019,10 @@
         <v>4002004</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="8" t="s">
@@ -4025,10 +4057,10 @@
         <v>4002006</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="8" t="s">
@@ -4056,10 +4088,10 @@
         <v>4002007</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="8" t="s">
@@ -4115,10 +4147,10 @@
         <v>4002010</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="8" t="s">
@@ -4146,10 +4178,10 @@
         <v>4002011</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="8" t="s">
@@ -4180,14 +4212,14 @@
         <v>4002020</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118">
@@ -4211,14 +4243,14 @@
         <v>4002021</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119">
@@ -4242,14 +4274,14 @@
         <v>4002022</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120">
@@ -4273,10 +4305,10 @@
         <v>4002023</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="8" t="s">
@@ -4310,10 +4342,10 @@
         <v>4002030</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="8" t="s">
@@ -4341,14 +4373,14 @@
         <v>4002031</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125">
@@ -4381,14 +4413,14 @@
         <v>4005001</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129">
@@ -4418,14 +4450,14 @@
         <v>4006101</v>
       </c>
       <c r="C132" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -4442,10 +4474,10 @@
         <v>4006201</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D133" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" t="s">
@@ -4469,14 +4501,14 @@
         <v>4006301</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134">

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="11700" tabRatio="601"/>
+    <workbookView windowWidth="16665" windowHeight="11700" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="155">
   <si>
     <t>#</t>
   </si>
@@ -269,295 +269,355 @@
     <t>隐墨 q 技能穿刺投掷物效果计算</t>
   </si>
   <si>
+    <t>0,100,0|1,1500,0</t>
+  </si>
+  <si>
+    <t>0,160,0|1,1500,0</t>
+  </si>
+  <si>
+    <t>0,220,0|1,1500,0</t>
+  </si>
+  <si>
+    <t>0,280,0|1,1500,0</t>
+  </si>
+  <si>
+    <t>0,340,0|1,1500,0</t>
+  </si>
+  <si>
+    <t>凤紫夕普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>凤紫夕 q 技能被动 残血加普通攻击伤害（只计算）</t>
+  </si>
+  <si>
+    <t>1,1000,0|30,1,1</t>
+  </si>
+  <si>
+    <t>1,1250,0|30,1,1</t>
+  </si>
+  <si>
+    <t>1,1500,0|30,1,1</t>
+  </si>
+  <si>
+    <t>1,1750,0|30,1,1</t>
+  </si>
+  <si>
+    <t>1,2000,0|30,1,1</t>
+  </si>
+  <si>
+    <t>凤紫夕大招流血效果计算</t>
+  </si>
+  <si>
+    <t>1,150,0|3,4,1</t>
+  </si>
+  <si>
+    <t>1,200,0|3,5,1</t>
+  </si>
+  <si>
+    <t>1,250,0|3,6,1</t>
+  </si>
+  <si>
+    <t>唐依普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>唐依 q 技能穿刺投掷物效果计算</t>
+  </si>
+  <si>
+    <t>1,1250,0</t>
+  </si>
+  <si>
     <t>1,1500,0</t>
   </si>
   <si>
-    <t>凤紫夕普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>凤紫夕 q 技能被动 残血加普通攻击伤害（只计算）</t>
-  </si>
-  <si>
-    <t>1,1000,0|30,1,1</t>
-  </si>
-  <si>
-    <t>凤紫夕大招流血效果计算</t>
-  </si>
-  <si>
-    <t>1,150,0|3,5,1</t>
-  </si>
-  <si>
-    <t>唐依普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>唐依 q 技能穿刺投掷物效果计算</t>
+    <t>1,1750,0</t>
+  </si>
+  <si>
+    <t>1,2000,0</t>
+  </si>
+  <si>
+    <t>1,2250,0</t>
+  </si>
+  <si>
+    <t>唐依大招群攻效果计算</t>
+  </si>
+  <si>
+    <t>夜魂普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>夜魂q被动区域效果计算</t>
+  </si>
+  <si>
+    <t>4,1000,0</t>
+  </si>
+  <si>
+    <t>夜魂q攻击附带护甲伤害效果计算</t>
+  </si>
+  <si>
+    <t>4,1500,0</t>
+  </si>
+  <si>
+    <t>夜魂大招伤害</t>
+  </si>
+  <si>
+    <t>4,2000,0</t>
+  </si>
+  <si>
+    <t>萧玉普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>萧玉 q 队友加血效果计算</t>
+  </si>
+  <si>
+    <t>1,-750,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv1</t>
+  </si>
+  <si>
+    <t>1,500,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv2</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv3</t>
+  </si>
+  <si>
+    <t>1,2500,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv4</t>
+  </si>
+  <si>
+    <t>1,3500,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv5</t>
+  </si>
+  <si>
+    <t>1,4500,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 被动加血效果计算</t>
+  </si>
+  <si>
+    <t>1,-200,0</t>
+  </si>
+  <si>
+    <t>萧玉 大招伤害计算</t>
+  </si>
+  <si>
+    <t>承灵 普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>承灵 q 被动 召唤物造成伤害自己加血的计算</t>
+  </si>
+  <si>
+    <t>20,-10,0</t>
+  </si>
+  <si>
+    <t>承灵 q 被动 自己造成伤害给召唤兽加血的计算</t>
+  </si>
+  <si>
+    <t>20,-20,0</t>
+  </si>
+  <si>
+    <t>林清远 普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>林清远 q技能区域伤害效果计算</t>
+  </si>
+  <si>
+    <t>0,100,0|1,1000,0</t>
+  </si>
+  <si>
+    <t>0,150,0|1,1100,0</t>
+  </si>
+  <si>
+    <t>0,200,0|1,1200,0</t>
+  </si>
+  <si>
+    <t>0,250,0|1,1300,0</t>
+  </si>
+  <si>
+    <t>0,300,0|1,1400,0</t>
+  </si>
+  <si>
+    <t>林清远 q技能区域伤害加血</t>
+  </si>
+  <si>
+    <t>20,-500,0</t>
+  </si>
+  <si>
+    <t>林清远 大招 攻击吸血</t>
+  </si>
+  <si>
+    <t>20,-200,0</t>
+  </si>
+  <si>
+    <t>20,-300,0</t>
+  </si>
+  <si>
+    <t>怪物1普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>怪物区域3连击效果计算</t>
+  </si>
+  <si>
+    <t>怪物拉人伤害效果计算</t>
+  </si>
+  <si>
+    <t>承灵 q 召唤物 普通攻击效果计算</t>
+  </si>
+  <si>
+    <t>承灵 大招 召唤物 普通攻击效果计算</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv1</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv1</t>
+  </si>
+  <si>
+    <t>20,500,0</t>
+  </si>
+  <si>
+    <t>随机技能 自爆人自爆伤害 lv1</t>
+  </si>
+  <si>
+    <t>1,10000,5</t>
+  </si>
+  <si>
+    <t>随机技能 周周敌人击晕伤害 lv1</t>
+  </si>
+  <si>
+    <t>道具技能 被攻击反射一个攻击球</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv1</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv2</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv3</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv4</t>
+  </si>
+  <si>
+    <t>回旋镖 技能伤害 lv5</t>
+  </si>
+  <si>
+    <t>驱散所有buff（只是显示） lv1</t>
+  </si>
+  <si>
+    <t>上官翎普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>上官翎 Q 技能 投掷物效果计算</t>
+  </si>
+  <si>
+    <t>上官翎 W 技能 击晕伤害计算</t>
+  </si>
+  <si>
+    <t>1,800,0</t>
+  </si>
+  <si>
+    <t>上官翎 E 技能位移伤害计算</t>
+  </si>
+  <si>
+    <t>刀疤技能位移伤害计算</t>
+  </si>
+  <si>
+    <t>0,50000,0</t>
+  </si>
+  <si>
+    <t>唐依技能4流血间隔伤害计算</t>
+  </si>
+  <si>
+    <t>1,400,0</t>
+  </si>
+  <si>
+    <t>唐依 Q 技能伤害</t>
+  </si>
+  <si>
+    <t>唐依q技能伤害</t>
+  </si>
+  <si>
+    <t>唐依 W 技能伤害</t>
+  </si>
+  <si>
+    <t>1,300,0</t>
+  </si>
+  <si>
+    <t>唐依 R 技能伤害</t>
+  </si>
+  <si>
+    <t>怪物1技能1投掷物效果计算</t>
+  </si>
+  <si>
+    <t>0,100,1|1,400,0</t>
+  </si>
+  <si>
+    <t>近战怪物 技能1 区域效果计算</t>
+  </si>
+  <si>
+    <t>怪物2普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>怪物2 技能计算</t>
+  </si>
+  <si>
+    <t>刀疤普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>刀疤技能 1 投掷物效果计算</t>
+  </si>
+  <si>
+    <t>日炎效果计算</t>
+  </si>
+  <si>
+    <t>1,250,0</t>
+  </si>
+  <si>
+    <t>3环满层效果计算</t>
+  </si>
+  <si>
+    <t>1,3000,0</t>
+  </si>
+  <si>
+    <t>概率回血效果计算</t>
+  </si>
+  <si>
+    <t>20,-1,0</t>
+  </si>
+  <si>
+    <t>上官唯普通命中群攻计算</t>
+  </si>
+  <si>
+    <t>大怪 1 3环满层效果 群伤计算</t>
+  </si>
+  <si>
+    <t>大怪 1 技能 周围群伤计算</t>
+  </si>
+  <si>
+    <t>测试道具效果：加血</t>
+  </si>
+  <si>
+    <t>0,-500,0</t>
+  </si>
+  <si>
+    <t>ai 远程兵 单体伤害</t>
+  </si>
+  <si>
+    <t>1,4000,0</t>
+  </si>
+  <si>
+    <t>ai 远程兵 区域伤害</t>
   </si>
   <si>
     <t>1,1200,0</t>
-  </si>
-  <si>
-    <t>唐依大招群攻效果计算</t>
-  </si>
-  <si>
-    <t>夜魂普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>夜魂q被动区域效果计算</t>
-  </si>
-  <si>
-    <t>4,1000,0</t>
-  </si>
-  <si>
-    <t>夜魂q攻击附带护甲伤害效果计算</t>
-  </si>
-  <si>
-    <t>4,1500,0</t>
-  </si>
-  <si>
-    <t>夜魂大招伤害</t>
-  </si>
-  <si>
-    <t>4,2000,0</t>
-  </si>
-  <si>
-    <t>萧玉普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>萧玉 q 队友加血效果计算</t>
-  </si>
-  <si>
-    <t>1,-750,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv1</t>
-  </si>
-  <si>
-    <t>1,500,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv2</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv3</t>
-  </si>
-  <si>
-    <t>1,2500,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv4</t>
-  </si>
-  <si>
-    <t>1,3500,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv5</t>
-  </si>
-  <si>
-    <t>1,4500,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 被动加血效果计算</t>
-  </si>
-  <si>
-    <t>1,-200,0</t>
-  </si>
-  <si>
-    <t>萧玉 大招伤害计算</t>
-  </si>
-  <si>
-    <t>1,2000,0</t>
-  </si>
-  <si>
-    <t>承灵 普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>承灵 q 被动 召唤物造成伤害自己加血的计算</t>
-  </si>
-  <si>
-    <t>20,-10,0</t>
-  </si>
-  <si>
-    <t>承灵 q 被动 自己造成伤害给召唤兽加血的计算</t>
-  </si>
-  <si>
-    <t>20,-20,0</t>
-  </si>
-  <si>
-    <t>林清远 普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>林清远 q技能区域伤害效果计算</t>
-  </si>
-  <si>
-    <t>林清远 q技能区域伤害加血</t>
-  </si>
-  <si>
-    <t>20,-500,0</t>
-  </si>
-  <si>
-    <t>林清远 大招 攻击吸血</t>
-  </si>
-  <si>
-    <t>20,-300,0</t>
-  </si>
-  <si>
-    <t>怪物1普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>怪物区域3连击效果计算</t>
-  </si>
-  <si>
-    <t>怪物拉人伤害效果计算</t>
-  </si>
-  <si>
-    <t>承灵 q 召唤物 普通攻击效果计算</t>
-  </si>
-  <si>
-    <t>承灵 大招 召唤物 普通攻击效果计算</t>
-  </si>
-  <si>
-    <t>随机技能 连锁球 lv1</t>
-  </si>
-  <si>
-    <t>随机技能 反弹伤害 lv1</t>
-  </si>
-  <si>
-    <t>20,500,0</t>
-  </si>
-  <si>
-    <t>随机技能 自爆人自爆伤害 lv1</t>
-  </si>
-  <si>
-    <t>1,10000,5</t>
-  </si>
-  <si>
-    <t>随机技能 周周敌人击晕伤害 lv1</t>
-  </si>
-  <si>
-    <t>道具技能 被攻击反射一个攻击球</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv1</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv2</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv3</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv4</t>
-  </si>
-  <si>
-    <t>回旋镖 技能伤害 lv5</t>
-  </si>
-  <si>
-    <t>驱散所有buff（只是显示） lv1</t>
-  </si>
-  <si>
-    <t>上官翎普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>上官翎 Q 技能 投掷物效果计算</t>
-  </si>
-  <si>
-    <t>上官翎 W 技能 击晕伤害计算</t>
-  </si>
-  <si>
-    <t>1,800,0</t>
-  </si>
-  <si>
-    <t>上官翎 E 技能位移伤害计算</t>
-  </si>
-  <si>
-    <t>刀疤技能位移伤害计算</t>
-  </si>
-  <si>
-    <t>0,50000,0</t>
-  </si>
-  <si>
-    <t>唐依技能4流血间隔伤害计算</t>
-  </si>
-  <si>
-    <t>1,400,0</t>
-  </si>
-  <si>
-    <t>唐依 Q 技能伤害</t>
-  </si>
-  <si>
-    <t>唐依q技能伤害</t>
-  </si>
-  <si>
-    <t>唐依 W 技能伤害</t>
-  </si>
-  <si>
-    <t>1,300,0</t>
-  </si>
-  <si>
-    <t>唐依 R 技能伤害</t>
-  </si>
-  <si>
-    <t>怪物1技能1投掷物效果计算</t>
-  </si>
-  <si>
-    <t>0,100,1|1,400,0</t>
-  </si>
-  <si>
-    <t>近战怪物 技能1 区域效果计算</t>
-  </si>
-  <si>
-    <t>怪物2普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>怪物2 技能计算</t>
-  </si>
-  <si>
-    <t>刀疤普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>刀疤技能 1 投掷物效果计算</t>
-  </si>
-  <si>
-    <t>日炎效果计算</t>
-  </si>
-  <si>
-    <t>1,250,0</t>
-  </si>
-  <si>
-    <t>3环满层效果计算</t>
-  </si>
-  <si>
-    <t>1,3000,0</t>
-  </si>
-  <si>
-    <t>概率回血效果计算</t>
-  </si>
-  <si>
-    <t>20,-1,0</t>
-  </si>
-  <si>
-    <t>上官唯普通命中群攻计算</t>
-  </si>
-  <si>
-    <t>大怪 1 3环满层效果 群伤计算</t>
-  </si>
-  <si>
-    <t>大怪 1 技能 周围群伤计算</t>
-  </si>
-  <si>
-    <t>测试道具效果：加血</t>
-  </si>
-  <si>
-    <t>0,-500,0</t>
-  </si>
-  <si>
-    <t>ai 远程兵 单体伤害</t>
-  </si>
-  <si>
-    <t>1,4000,0</t>
-  </si>
-  <si>
-    <t>ai 远程兵 区域伤害</t>
   </si>
   <si>
     <t>ai 远程兵 测试 单体加血</t>
@@ -1575,12 +1635,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1811,31 +1871,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15" customHeight="1" spans="3:13">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+    <row r="7" customFormat="1" spans="1:13">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>4001202</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="G7" s="9"/>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="J7">
+        <v>15008027</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" customFormat="1" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>4002101</v>
+        <v>4001203</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8">
@@ -1860,17 +1946,15 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>4002201</v>
+        <v>4001204</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
@@ -1897,17 +1981,17 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>4002301</v>
+        <v>4001205</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10">
@@ -1927,7 +2011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="3:13">
+    <row r="11" customFormat="1" ht="15" customHeight="1" spans="3:13">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
@@ -1936,57 +2020,31 @@
       <c r="I11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" customFormat="1" spans="1:13">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>4003101</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
+    <row r="12" customFormat="1" ht="15" customHeight="1" spans="3:13">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="H12">
-        <v>1</v>
-      </c>
       <c r="I12" s="2"/>
-      <c r="J12">
-        <v>15008027</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" customFormat="1" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>4003201</v>
+        <v>4002101</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13">
@@ -2011,17 +2069,19 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>4003301</v>
+        <v>4002201</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
       <c r="F14" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14">
@@ -2041,40 +2101,98 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="3:13">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
+    <row r="15" customFormat="1" spans="1:13">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4002202</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="G15" s="9"/>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" customFormat="1" spans="3:13">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
+      <c r="J15">
+        <v>15008027</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:13">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>4002203</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="G16" s="9"/>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="J16">
+        <v>15008027</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" customFormat="1" spans="1:13">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>4004101</v>
+        <v>4002204</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17">
@@ -2082,7 +2200,7 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2099,17 +2217,19 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>4004201</v>
+        <v>4002205</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18">
@@ -2129,57 +2249,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:13">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>4004301</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="19" customFormat="1" spans="3:13">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="9"/>
-      <c r="H19">
-        <v>1</v>
-      </c>
       <c r="I19" s="2"/>
-      <c r="J19">
-        <v>15008027</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" customFormat="1" spans="1:13">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
-        <v>4004401</v>
+        <v>4002301</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20">
@@ -2199,31 +2293,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="3:13">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+    <row r="21" customFormat="1" spans="1:13">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>4002302</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="9"/>
+      <c r="H21">
+        <v>1</v>
+      </c>
       <c r="I21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="J21">
+        <v>15008027</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" customFormat="1" spans="1:13">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>4005101</v>
+        <v>4002303</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22">
@@ -2243,162 +2363,58 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:13">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>4005201</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>54</v>
-      </c>
+    <row r="23" customFormat="1" spans="3:13">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="9"/>
-      <c r="H23">
-        <v>1</v>
-      </c>
       <c r="I23" s="2"/>
-      <c r="J23">
-        <v>15008027</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:13">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>4005301</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" spans="3:13">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="9"/>
-      <c r="H24">
-        <v>1</v>
-      </c>
       <c r="I24" s="2"/>
-      <c r="J24">
-        <v>15008027</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:13">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>4005302</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:13">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="H25">
-        <v>1</v>
-      </c>
       <c r="I25" s="2"/>
-      <c r="J25">
-        <v>15008027</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:13">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>4005303</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:13">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="9"/>
-      <c r="H26">
-        <v>1</v>
-      </c>
       <c r="I26" s="2"/>
-      <c r="J26">
-        <v>15008027</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" customFormat="1" spans="1:13">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>4005304</v>
+        <v>4003101</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="8" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27">
@@ -2423,17 +2439,17 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>4005305</v>
+        <v>4003201</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28">
@@ -2458,17 +2474,17 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>4005401</v>
+        <v>4003202</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29">
@@ -2493,17 +2509,17 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>4005501</v>
+        <v>4003203</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30">
@@ -2523,75 +2539,101 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="3:13">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+    <row r="31" customFormat="1" spans="1:13">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>4003204</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="G31" s="9"/>
+      <c r="H31">
+        <v>1</v>
+      </c>
       <c r="I31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" customFormat="1" spans="3:13">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="J31">
+        <v>15008027</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:13">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>4003205</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="G32" s="9"/>
+      <c r="H32">
+        <v>1</v>
+      </c>
       <c r="I32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:13">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>4006101</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="J32">
+        <v>15008027</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="3:13">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="9"/>
-      <c r="H33">
-        <v>1</v>
-      </c>
       <c r="I33" s="2"/>
-      <c r="J33">
-        <v>15008028</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" customFormat="1" spans="1:13">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34">
-        <v>4006201</v>
+        <v>4003301</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="8" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34">
@@ -2599,7 +2641,7 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2611,40 +2653,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:13">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>4006301</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>72</v>
-      </c>
+    <row r="35" customFormat="1" spans="3:13">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="9"/>
-      <c r="H35">
-        <v>1</v>
-      </c>
       <c r="I35" s="2"/>
-      <c r="J35">
-        <v>15008028</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" customFormat="1" spans="3:13">
       <c r="C36" s="8"/>
@@ -2655,31 +2671,57 @@
       <c r="I36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" customFormat="1" spans="3:13">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+    <row r="37" customFormat="1" spans="1:13">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>4004101</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G37" s="9"/>
+      <c r="H37">
+        <v>1</v>
+      </c>
       <c r="I37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="J37">
+        <v>15008028</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="38" customFormat="1" spans="1:13">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38">
-        <v>4007101</v>
+        <v>4004201</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="8" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38">
@@ -2687,7 +2729,7 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2704,27 +2746,25 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>4007201</v>
+        <v>4004301</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="8" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" s="2">
-        <v>4007301</v>
-      </c>
+      <c r="I39" s="2"/>
       <c r="J39">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2741,17 +2781,17 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>4007301</v>
+        <v>4004401</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="8" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40">
@@ -2759,7 +2799,7 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2771,75 +2811,101 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:13">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>4007401</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>78</v>
-      </c>
+    <row r="41" customFormat="1" spans="3:13">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="9"/>
-      <c r="H41">
-        <v>1</v>
-      </c>
       <c r="I41" s="2"/>
-      <c r="J41">
-        <v>15008028</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="3:13">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:13">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>4005101</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G42" s="9"/>
+      <c r="H42">
+        <v>1</v>
+      </c>
       <c r="I42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" customFormat="1" spans="3:13">
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="J42">
+        <v>15008027</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:13">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>4005201</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G43" s="9"/>
+      <c r="H43">
+        <v>1</v>
+      </c>
       <c r="I43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="J43">
+        <v>15008027</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="44" customFormat="1" spans="1:13">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44">
-        <v>4101101</v>
+        <v>4005301</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="8" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44">
@@ -2847,7 +2913,7 @@
       </c>
       <c r="I44" s="2"/>
       <c r="J44">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2859,31 +2925,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="3:13">
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+    <row r="45" customFormat="1" spans="1:13">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>4005302</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="G45" s="9"/>
+      <c r="H45">
+        <v>1</v>
+      </c>
       <c r="I45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="J45">
+        <v>15008027</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="46" customFormat="1" spans="1:13">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46">
-        <v>4102101</v>
+        <v>4005303</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46">
@@ -2891,7 +2983,7 @@
       </c>
       <c r="I46" s="2"/>
       <c r="J46">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2908,17 +3000,17 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>4103101</v>
+        <v>4005304</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47">
@@ -2926,7 +3018,7 @@
       </c>
       <c r="I47" s="2"/>
       <c r="J47">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2938,32 +3030,110 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="3:13">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+    <row r="48" customFormat="1" spans="1:13">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>4005305</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="G48" s="9"/>
+      <c r="H48">
+        <v>1</v>
+      </c>
       <c r="I48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" customFormat="1" spans="3:13">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="J48">
+        <v>15008027</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:13">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>4005401</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="G49" s="9"/>
+      <c r="H49">
+        <v>1</v>
+      </c>
       <c r="I49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" customFormat="1" spans="3:13">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="J49">
+        <v>15008027</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:13">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>4005501</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="G50" s="9"/>
+      <c r="H50">
+        <v>1</v>
+      </c>
       <c r="I50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="J50">
+        <v>15008027</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="51" customFormat="1" spans="3:13">
       <c r="C51" s="8"/>
@@ -2983,32 +3153,110 @@
       <c r="I52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" customFormat="1" spans="3:13">
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+    <row r="53" customFormat="1" spans="1:13">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>4006101</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G53" s="9"/>
+      <c r="H53">
+        <v>1</v>
+      </c>
       <c r="I53" s="2"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" customFormat="1" spans="3:13">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="J53">
+        <v>15008028</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:13">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>4006201</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G54" s="9"/>
+      <c r="H54">
+        <v>1</v>
+      </c>
       <c r="I54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" customFormat="1" spans="3:13">
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="J54">
+        <v>15008028</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:13">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>4006301</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="E55" s="9"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="G55" s="9"/>
+      <c r="H55">
+        <v>1</v>
+      </c>
       <c r="I55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="J55">
+        <v>15008028</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="56" customFormat="1" spans="3:13">
       <c r="C56" s="8"/>
@@ -3019,53 +3267,27 @@
       <c r="I56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" customFormat="1" spans="1:13">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>4501101</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>83</v>
-      </c>
+    <row r="57" customFormat="1" spans="3:13">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F57" s="8"/>
       <c r="G57" s="9"/>
-      <c r="H57">
-        <v>1</v>
-      </c>
       <c r="I57" s="2"/>
-      <c r="J57">
-        <v>15008028</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M57" s="2"/>
     </row>
     <row r="58" customFormat="1" spans="1:13">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>4502101</v>
+        <v>4007101</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="8" t="s">
@@ -3089,55 +3311,141 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="3:13">
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+    <row r="59" customFormat="1" spans="1:13">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>4007201</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E59" s="9"/>
-      <c r="F59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="G59" s="9"/>
-      <c r="I59" s="2"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" customFormat="1" spans="3:13">
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>4007301</v>
+      </c>
+      <c r="J59">
+        <v>15008028</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:13">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>4007202</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E60" s="9"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="G60" s="9"/>
-      <c r="I60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" customFormat="1" spans="3:13">
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>4007301</v>
+      </c>
+      <c r="J60">
+        <v>15008028</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:13">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>4007203</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E61" s="9"/>
-      <c r="F61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="G61" s="9"/>
-      <c r="I61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <v>4007301</v>
+      </c>
+      <c r="J61">
+        <v>15008028</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="62" customFormat="1" spans="1:13">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62">
-        <v>4801101</v>
+        <v>4007204</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="8" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62">
         <v>1</v>
       </c>
-      <c r="I62" s="2"/>
+      <c r="I62" s="2">
+        <v>4007301</v>
+      </c>
       <c r="J62">
         <v>15008028</v>
       </c>
@@ -3156,23 +3464,25 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>4801201</v>
+        <v>4007205</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63" s="2"/>
+      <c r="I63" s="2">
+        <v>4007301</v>
+      </c>
       <c r="J63">
         <v>15008028</v>
       </c>
@@ -3186,148 +3496,172 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="1:13">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64">
-        <v>4801301</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="9">
-        <v>5</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>89</v>
-      </c>
+    <row r="64" customFormat="1" spans="3:13">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="9"/>
-      <c r="H64">
-        <v>1</v>
-      </c>
       <c r="I64" s="2"/>
-      <c r="J64">
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" customFormat="1" spans="3:13">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9"/>
+      <c r="I65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" customFormat="1" spans="1:13">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>4007301</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66">
         <v>15008028</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:13">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65">
-        <v>4804301</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:13">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>4007401</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67">
         <v>15008028</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" customFormat="1" spans="3:13">
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-      <c r="I66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" customFormat="1" spans="3:13">
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="I67" s="2"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" customFormat="1" spans="3:13">
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:13">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>4007402</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="E68" s="9"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="G68" s="9"/>
+      <c r="H68">
+        <v>1</v>
+      </c>
       <c r="I68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" customFormat="1" spans="3:13">
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="J68">
+        <v>15008028</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:13">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>4007403</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="E69" s="9"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="G69" s="9"/>
+      <c r="H69">
+        <v>1</v>
+      </c>
       <c r="I69" s="2"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" customFormat="1" spans="1:13">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70">
-        <v>4820101</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="J69">
+        <v>15008028</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="3:13">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="F70" s="8"/>
       <c r="G70" s="9"/>
-      <c r="H70">
-        <v>1</v>
-      </c>
       <c r="I70" s="2"/>
-      <c r="J70">
-        <v>15008028</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M70" s="2"/>
     </row>
     <row r="71" customFormat="1" spans="3:13">
       <c r="C71" s="8"/>
@@ -3347,14 +3681,40 @@
       <c r="I72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" customFormat="1" spans="3:13">
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+    <row r="73" customFormat="1" spans="1:13">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>4101101</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="8"/>
+      <c r="F73" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G73" s="9"/>
+      <c r="H73">
+        <v>1</v>
+      </c>
       <c r="I73" s="2"/>
-      <c r="M73" s="2"/>
+      <c r="J73">
+        <v>15008028</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="74" customFormat="1" spans="3:13">
       <c r="C74" s="8"/>
@@ -3365,15 +3725,18 @@
       <c r="I74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" customFormat="1" spans="2:13">
+    <row r="75" customFormat="1" spans="1:13">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
       <c r="B75">
-        <v>4100101</v>
+        <v>4102101</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="8" t="s">
@@ -3385,7 +3748,7 @@
       </c>
       <c r="I75" s="2"/>
       <c r="J75">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3397,19 +3760,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="2:13">
+    <row r="76" customFormat="1" spans="1:13">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
       <c r="B76">
-        <v>4100102</v>
+        <v>4103101</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="8" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76">
@@ -3417,7 +3783,7 @@
       </c>
       <c r="I76" s="2"/>
       <c r="J76">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3429,101 +3795,32 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="2:13">
-      <c r="B77">
-        <v>4100103</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>94</v>
-      </c>
+    <row r="77" customFormat="1" spans="3:13">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="F77" s="8"/>
       <c r="G77" s="9"/>
-      <c r="H77">
-        <v>1</v>
-      </c>
       <c r="I77" s="2"/>
-      <c r="J77">
-        <v>15008006</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="2:13">
-      <c r="B78">
-        <v>4100104</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" customFormat="1" spans="3:13">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="F78" s="8"/>
       <c r="G78" s="9"/>
-      <c r="H78">
-        <v>1</v>
-      </c>
       <c r="I78" s="2"/>
-      <c r="J78">
-        <v>15008006</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="2:13">
-      <c r="B79">
-        <v>4100105</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" customFormat="1" spans="3:13">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="F79" s="8"/>
       <c r="G79" s="9"/>
-      <c r="H79">
-        <v>1</v>
-      </c>
       <c r="I79" s="2"/>
-      <c r="J79">
-        <v>15008006</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M79" s="2"/>
     </row>
     <row r="80" customFormat="1" spans="3:13">
       <c r="C80" s="8"/>
@@ -3543,38 +3840,14 @@
       <c r="I81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" customFormat="1" spans="2:14">
-      <c r="B82">
-        <v>4100205</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>97</v>
-      </c>
+    <row r="82" customFormat="1" spans="3:13">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="9"/>
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
-      <c r="H82">
-        <v>1</v>
-      </c>
       <c r="I82" s="2"/>
-      <c r="J82">
-        <v>15008006</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
+      <c r="M82" s="2"/>
     </row>
     <row r="83" customFormat="1" spans="3:13">
       <c r="C83" s="8"/>
@@ -3603,137 +3876,127 @@
       <c r="I85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" customFormat="1" spans="3:13">
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+    <row r="86" customFormat="1" spans="1:13">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>4501101</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="E86" s="9"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G86" s="9"/>
+      <c r="H86">
+        <v>1</v>
+      </c>
       <c r="I86" s="2"/>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" customFormat="1" spans="3:13">
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="J86">
+        <v>15008028</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:13">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>4502101</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="8"/>
+      <c r="F87" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G87" s="9"/>
+      <c r="H87">
+        <v>1</v>
+      </c>
       <c r="I87" s="2"/>
-      <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="2:13">
-      <c r="B88">
-        <v>4001001</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="J87">
+        <v>15008028</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="3:13">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F88" s="8"/>
       <c r="G88" s="9"/>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>15008027</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13">
-      <c r="B89">
-        <v>4001002</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="I88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" customFormat="1" spans="3:13">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="F89" s="8"/>
       <c r="G89" s="9"/>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>15008006</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13">
-      <c r="B90">
-        <v>4001003</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="I89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" customFormat="1" spans="3:13">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="F90" s="8"/>
       <c r="G90" s="9"/>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>15008006</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13">
+      <c r="I90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" customFormat="1" spans="1:13">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
       <c r="B91">
-        <v>4001050</v>
+        <v>4801101</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91">
         <v>1</v>
       </c>
+      <c r="I91" s="2"/>
       <c r="J91">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -3745,33 +4008,67 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="3:7">
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+    <row r="92" customFormat="1" spans="1:13">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>4801201</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="E92" s="9"/>
-      <c r="F92" s="8"/>
+      <c r="F92" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="2:13">
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92">
+        <v>15008028</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:13">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
       <c r="B93">
-        <v>4001004</v>
+        <v>4801301</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E93" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="E93" s="9">
+        <v>5</v>
+      </c>
       <c r="F93" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93">
         <v>1</v>
       </c>
+      <c r="I93" s="2"/>
       <c r="J93">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -3783,26 +4080,30 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" customFormat="1" spans="1:13">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
       <c r="B94">
-        <v>4001005</v>
+        <v>4804301</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94">
         <v>1</v>
       </c>
+      <c r="I94" s="2"/>
       <c r="J94">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -3814,209 +4115,212 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="2:13">
-      <c r="B95">
-        <v>4001006</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>108</v>
-      </c>
+    <row r="95" customFormat="1" spans="3:13">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="F95" s="8"/>
       <c r="G95" s="9"/>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>15008006</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13">
-      <c r="B96">
-        <v>4001007</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="I95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" customFormat="1" spans="3:13">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="F96" s="8"/>
       <c r="G96" s="9"/>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>15008006</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="2:13">
-      <c r="B97">
-        <v>4001008</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="I96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" customFormat="1" spans="3:13">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="F97" s="8"/>
       <c r="G97" s="9"/>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>15008019</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7">
+      <c r="I97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" customFormat="1" spans="3:13">
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="3:7">
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="I98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" customFormat="1" spans="1:13">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>4820101</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="E99" s="9"/>
-      <c r="F99" s="8"/>
+      <c r="F99" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="3:7">
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" s="2"/>
+      <c r="J99">
+        <v>15008028</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="3:13">
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="9"/>
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="2:13">
-      <c r="B101">
-        <v>4002001</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="I100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" customFormat="1" spans="3:13">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F101" s="8"/>
       <c r="G101" s="9"/>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="J101">
-        <v>15008028</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13">
-      <c r="B102">
-        <v>4002002</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="I101" s="2"/>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" customFormat="1" spans="3:13">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="F102" s="8"/>
       <c r="G102" s="9"/>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="J102">
-        <v>15008006</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="3:7">
+      <c r="I102" s="2"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" customFormat="1" spans="3:13">
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="9"/>
       <c r="F103" s="8"/>
       <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="5:5">
+      <c r="I103" s="2"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" customFormat="1" spans="2:13">
+      <c r="B104">
+        <v>4100101</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="E104" s="9"/>
-    </row>
-    <row r="105" spans="3:7">
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="F104" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G104" s="9"/>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104" s="2"/>
+      <c r="J104">
+        <v>15008006</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="2:13">
+      <c r="B105">
+        <v>4100102</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="8"/>
+      <c r="F105" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:7">
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" s="2"/>
+      <c r="J105">
+        <v>15008006</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="2:13">
+      <c r="B106">
+        <v>4100103</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="8"/>
+      <c r="F106" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="2:13">
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" s="2"/>
+      <c r="J106">
+        <v>15008006</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="2:13">
       <c r="B107">
-        <v>4002004</v>
+        <v>4100104</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>114</v>
@@ -4026,12 +4330,13 @@
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="8" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107">
         <v>1</v>
       </c>
+      <c r="I107" s="2"/>
       <c r="J107">
         <v>15008006</v>
       </c>
@@ -4045,181 +4350,178 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="3:7">
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+    <row r="108" customFormat="1" spans="2:13">
+      <c r="B108">
+        <v>4100105</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="E108" s="9"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="2:13">
-      <c r="B109">
-        <v>4002006</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" s="2"/>
+      <c r="J108">
+        <v>15008006</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" spans="3:13">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F109" s="8"/>
       <c r="G109" s="9"/>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="J109">
-        <v>15008028</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" spans="2:13">
-      <c r="B110">
-        <v>4002007</v>
-      </c>
-      <c r="C110" s="8" t="s">
+      <c r="I109" s="2"/>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" customFormat="1" spans="3:13">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9"/>
+      <c r="I110" s="2"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" customFormat="1" spans="2:14">
+      <c r="B111">
+        <v>4100205</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D111" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G110" s="9"/>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="J110">
-        <v>15008006</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="3:7">
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
       <c r="E111" s="9"/>
       <c r="F111" s="8"/>
       <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="3:7">
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" s="2"/>
+      <c r="J111">
+        <v>15008006</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="3:13">
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="9"/>
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="3:7">
+      <c r="I112" s="2"/>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" customFormat="1" spans="3:13">
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
       <c r="F113" s="8"/>
       <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="3:7">
+      <c r="I113" s="2"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" customFormat="1" spans="3:13">
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="9"/>
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="2:13">
-      <c r="B115">
-        <v>4002010</v>
-      </c>
-      <c r="C115" s="8" t="s">
+      <c r="I114" s="2"/>
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" customFormat="1" spans="3:13">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="9"/>
+      <c r="I115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" customFormat="1" spans="3:13">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9"/>
+      <c r="I116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="2:13">
+      <c r="B117">
+        <v>4001001</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="8" t="s">
+      <c r="E117" s="9"/>
+      <c r="F117" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G115" s="9"/>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="J115">
-        <v>15008028</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13">
-      <c r="B116">
-        <v>4002011</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G116" s="9"/>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="J116">
-        <v>15008006</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <v>1</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5">
-      <c r="E117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>15008027</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="118" spans="2:13">
       <c r="B118">
-        <v>4002020</v>
+        <v>4001002</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="8" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="G118" s="9"/>
       <c r="H118">
@@ -4240,17 +4542,17 @@
     </row>
     <row r="119" spans="2:13">
       <c r="B119">
-        <v>4002021</v>
+        <v>4001003</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119">
@@ -4271,24 +4573,24 @@
     </row>
     <row r="120" spans="2:13">
       <c r="B120">
-        <v>4002022</v>
+        <v>4001050</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="8" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="J120">
-        <v>15008013</v>
+        <v>15008006</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -4300,63 +4602,95 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="2:13">
-      <c r="B121">
-        <v>4002023</v>
-      </c>
-      <c r="C121" s="8" t="s">
+    <row r="121" spans="3:7">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="B122">
+        <v>4001004</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G122" s="9"/>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>15008006</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="B123">
+        <v>4001005</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G121" s="9"/>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="J121">
-        <v>15008020</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>1</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5">
-      <c r="E122" s="9"/>
-    </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>15008006</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="124" spans="2:13">
       <c r="B124">
-        <v>4002030</v>
+        <v>4001006</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="8" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G124" s="9"/>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="J124">
-        <v>15008020</v>
+        <v>15008006</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -4370,158 +4704,681 @@
     </row>
     <row r="125" spans="2:13">
       <c r="B125">
-        <v>4002031</v>
+        <v>4001007</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="J125">
+        <v>15008006</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13">
+      <c r="B126">
+        <v>4001008</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G126" s="9"/>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>15008019</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="9"/>
+    </row>
+    <row r="128" spans="3:7">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="3:7">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="9"/>
+    </row>
+    <row r="130" spans="2:13">
+      <c r="B130">
+        <v>4002001</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="F130" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" s="9"/>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>15008028</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13">
+      <c r="B131">
+        <v>4002002</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G131" s="9"/>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>15008006</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="3:7">
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="3:7">
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="2:13">
+      <c r="B136">
+        <v>4002004</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G136" s="9"/>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>15008006</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138">
+        <v>4002006</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G138" s="9"/>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>15008028</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139">
+        <v>4002007</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G139" s="9"/>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>15008006</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="3:7">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="9"/>
+    </row>
+    <row r="142" spans="3:7">
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="9"/>
+    </row>
+    <row r="143" spans="3:7">
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="9"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144">
+        <v>4002010</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G144" s="9"/>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>15008028</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145">
+        <v>4002011</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G145" s="9"/>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>15008006</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147">
+        <v>4002020</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="9"/>
+      <c r="F147" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>15008006</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148">
+        <v>4002021</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E148" s="9"/>
+      <c r="F148" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G148" s="9"/>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>15008006</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149">
+        <v>4002022</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G149" s="9"/>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>15008013</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150">
+        <v>4002023</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G150" s="9"/>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="J150">
         <v>15008020</v>
       </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>1</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5">
-      <c r="E126" s="9"/>
-    </row>
-    <row r="127" spans="5:5">
-      <c r="E127" s="9"/>
-    </row>
-    <row r="128" spans="5:5">
-      <c r="E128" s="9"/>
-    </row>
-    <row r="129" spans="2:13">
-      <c r="B129">
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153">
+        <v>4002030</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E153" s="9"/>
+      <c r="F153" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G153" s="9"/>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>15008020</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154">
+        <v>4002031</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G154" s="9"/>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>15008020</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158">
         <v>4005001</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G129" s="9"/>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="J129">
+      <c r="C158" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E158" s="9"/>
+      <c r="F158" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G158" s="9"/>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="J158">
         <v>15008013</v>
       </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>1</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="9"/>
-    </row>
-    <row r="131" spans="5:5">
-      <c r="E131" s="9"/>
-    </row>
-    <row r="132" spans="2:12">
-      <c r="B132">
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="9"/>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" spans="2:12">
+      <c r="B161">
         <v>4006101</v>
       </c>
-      <c r="C132" t="s">
-        <v>130</v>
-      </c>
-      <c r="D132" t="s">
-        <v>130</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" t="s">
-        <v>131</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="J132">
+      <c r="C161" t="s">
+        <v>149</v>
+      </c>
+      <c r="D161" t="s">
+        <v>149</v>
+      </c>
+      <c r="E161" s="9"/>
+      <c r="F161" t="s">
+        <v>150</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="J161">
         <v>15008006</v>
       </c>
-      <c r="L132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" customFormat="1" spans="2:13">
-      <c r="B133">
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="1" spans="2:13">
+      <c r="B162">
         <v>4006201</v>
       </c>
-      <c r="C133" t="s">
-        <v>132</v>
-      </c>
-      <c r="D133" t="s">
-        <v>132</v>
-      </c>
-      <c r="E133" s="9"/>
-      <c r="F133" t="s">
-        <v>44</v>
-      </c>
-      <c r="G133" s="2"/>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133" s="2"/>
-      <c r="J133">
+      <c r="C162" t="s">
+        <v>151</v>
+      </c>
+      <c r="D162" t="s">
+        <v>151</v>
+      </c>
+      <c r="E162" s="9"/>
+      <c r="F162" t="s">
+        <v>152</v>
+      </c>
+      <c r="G162" s="2"/>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162" s="2"/>
+      <c r="J162">
         <v>15008006</v>
       </c>
-      <c r="L133">
-        <v>1</v>
-      </c>
-      <c r="M133" s="2"/>
-    </row>
-    <row r="134" customFormat="1" spans="2:13">
-      <c r="B134">
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162" s="2"/>
+    </row>
+    <row r="163" customFormat="1" spans="2:13">
+      <c r="B163">
         <v>4006301</v>
       </c>
-      <c r="C134" t="s">
-        <v>133</v>
-      </c>
-      <c r="D134" t="s">
-        <v>133</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" t="s">
-        <v>134</v>
-      </c>
-      <c r="G134" s="2"/>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134" s="2"/>
-      <c r="J134">
+      <c r="C163" t="s">
+        <v>153</v>
+      </c>
+      <c r="D163" t="s">
+        <v>153</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" t="s">
+        <v>154</v>
+      </c>
+      <c r="G163" s="2"/>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163" s="2"/>
+      <c r="J163">
         <v>15008013</v>
       </c>
-      <c r="L134">
-        <v>1</v>
-      </c>
-      <c r="M134" s="2"/>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16665" windowHeight="11700" tabRatio="601"/>
+    <workbookView windowWidth="16500" windowHeight="11700" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="181">
   <si>
     <t>#</t>
   </si>
@@ -476,10 +476,61 @@
     <t>随机技能 连锁球 lv1</t>
   </si>
   <si>
+    <t>0,50,0|1,800,0</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv2</t>
+  </si>
+  <si>
+    <t>0,100,0|1,900,0</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv3</t>
+  </si>
+  <si>
+    <t>0,150,0|1,1000,0</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv4</t>
+  </si>
+  <si>
+    <t>0,200,0|1,1100,0</t>
+  </si>
+  <si>
+    <t>随机技能 连锁球 lv5</t>
+  </si>
+  <si>
+    <t>0,250,0|1,1200,0</t>
+  </si>
+  <si>
     <t>随机技能 反弹伤害 lv1</t>
   </si>
   <si>
-    <t>20,500,0</t>
+    <t>0,15,0|20,50,0</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv2</t>
+  </si>
+  <si>
+    <t>0,20,0|20,70,0</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv3</t>
+  </si>
+  <si>
+    <t>0,25,0|20,90,0</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv4</t>
+  </si>
+  <si>
+    <t>0,30,0|20,110,0</t>
+  </si>
+  <si>
+    <t>随机技能 反弹伤害 lv5</t>
+  </si>
+  <si>
+    <t>0,35,0|20,130,0</t>
   </si>
   <si>
     <t>随机技能 自爆人自爆伤害 lv1</t>
@@ -489,6 +540,33 @@
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv1</t>
+  </si>
+  <si>
+    <t>0,60,0|1,400,0</t>
+  </si>
+  <si>
+    <t>随机技能 周周敌人击晕伤害 lv2</t>
+  </si>
+  <si>
+    <t>0,100,0|1,500,0</t>
+  </si>
+  <si>
+    <t>随机技能 周周敌人击晕伤害 lv3</t>
+  </si>
+  <si>
+    <t>0,140,0|1,600,0</t>
+  </si>
+  <si>
+    <t>随机技能 周周敌人击晕伤害 lv4</t>
+  </si>
+  <si>
+    <t>0,180,0|1,700,0</t>
+  </si>
+  <si>
+    <t>随机技能 周周敌人击晕伤害 lv5</t>
+  </si>
+  <si>
+    <t>0,220,0|1,800,0</t>
   </si>
   <si>
     <t>道具技能 被攻击反射一个攻击球</t>
@@ -1635,12 +1713,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3988,7 +4066,7 @@
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="8" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91">
@@ -4013,17 +4091,17 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>4801201</v>
+        <v>4801102</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92">
@@ -4048,19 +4126,17 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>4801301</v>
+        <v>4801103</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E93" s="9">
-        <v>5</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E93" s="9"/>
       <c r="F93" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93">
@@ -4085,17 +4161,17 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>4804301</v>
+        <v>4801104</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="8" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94">
@@ -4115,14 +4191,40 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" customFormat="1" spans="3:13">
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+    <row r="95" customFormat="1" spans="1:13">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>4801105</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="E95" s="9"/>
-      <c r="F95" s="8"/>
+      <c r="F95" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G95" s="9"/>
+      <c r="H95">
+        <v>1</v>
+      </c>
       <c r="I95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="J95">
+        <v>15008028</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="96" customFormat="1" spans="3:13">
       <c r="C96" s="8"/>
@@ -4133,40 +4235,92 @@
       <c r="I96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" customFormat="1" spans="3:13">
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+    <row r="97" customFormat="1" spans="1:13">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>4801201</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="E97" s="9"/>
-      <c r="F97" s="8"/>
+      <c r="F97" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="G97" s="9"/>
+      <c r="H97">
+        <v>1</v>
+      </c>
       <c r="I97" s="2"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" customFormat="1" spans="3:13">
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="J97">
+        <v>15008028</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:13">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>4801202</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="8"/>
+      <c r="F98" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="G98" s="9"/>
+      <c r="H98">
+        <v>1</v>
+      </c>
       <c r="I98" s="2"/>
-      <c r="M98" s="2"/>
+      <c r="J98">
+        <v>15008028</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="99" customFormat="1" spans="1:13">
       <c r="A99" t="s">
         <v>0</v>
       </c>
       <c r="B99">
-        <v>4820101</v>
+        <v>4801203</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="8" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99">
@@ -4186,23 +4340,75 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" customFormat="1" spans="3:13">
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+    <row r="100" customFormat="1" spans="1:13">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>4801204</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="E100" s="9"/>
-      <c r="F100" s="8"/>
+      <c r="F100" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="G100" s="9"/>
+      <c r="H100">
+        <v>1</v>
+      </c>
       <c r="I100" s="2"/>
-      <c r="M100" s="2"/>
-    </row>
-    <row r="101" customFormat="1" spans="3:13">
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="J100">
+        <v>15008028</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:13">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>4801205</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="8"/>
+      <c r="F101" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G101" s="9"/>
+      <c r="H101">
+        <v>1</v>
+      </c>
       <c r="I101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="J101">
+        <v>15008028</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="102" customFormat="1" spans="3:13">
       <c r="C102" s="8"/>
@@ -4222,19 +4428,24 @@
       <c r="I103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" customFormat="1" spans="2:13">
+    <row r="104" customFormat="1" spans="1:13">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
       <c r="B104">
-        <v>4100101</v>
+        <v>4801301</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E104" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="E104" s="9">
+        <v>5</v>
+      </c>
       <c r="F104" s="8" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104">
@@ -4242,7 +4453,7 @@
       </c>
       <c r="I104" s="2"/>
       <c r="J104">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4254,51 +4465,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" customFormat="1" spans="2:13">
-      <c r="B105">
-        <v>4100102</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>112</v>
-      </c>
+    <row r="105" customFormat="1" spans="3:13">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F105" s="8"/>
       <c r="G105" s="9"/>
-      <c r="H105">
-        <v>1</v>
-      </c>
       <c r="I105" s="2"/>
-      <c r="J105">
-        <v>15008006</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="2:13">
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" customFormat="1" spans="1:13">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
       <c r="B106">
-        <v>4100103</v>
+        <v>4804301</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="8" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106">
@@ -4306,7 +4497,7 @@
       </c>
       <c r="I106" s="2"/>
       <c r="J106">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4318,19 +4509,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" customFormat="1" spans="2:13">
+    <row r="107" customFormat="1" spans="1:13">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
       <c r="B107">
-        <v>4100104</v>
+        <v>4804302</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="8" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107">
@@ -4338,7 +4532,7 @@
       </c>
       <c r="I107" s="2"/>
       <c r="J107">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4350,19 +4544,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" customFormat="1" spans="2:13">
+    <row r="108" customFormat="1" spans="1:13">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
       <c r="B108">
-        <v>4100105</v>
+        <v>4804303</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="8" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108">
@@ -4370,7 +4567,7 @@
       </c>
       <c r="I108" s="2"/>
       <c r="J108">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -4382,56 +4579,84 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" customFormat="1" spans="3:13">
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+    <row r="109" customFormat="1" spans="1:13">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>4804304</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="8"/>
+      <c r="F109" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="G109" s="9"/>
+      <c r="H109">
+        <v>1</v>
+      </c>
       <c r="I109" s="2"/>
-      <c r="M109" s="2"/>
-    </row>
-    <row r="110" customFormat="1" spans="3:13">
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="J109">
+        <v>15008028</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="1:13">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>4804305</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="E110" s="9"/>
-      <c r="F110" s="8"/>
+      <c r="F110" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="G110" s="9"/>
+      <c r="H110">
+        <v>1</v>
+      </c>
       <c r="I110" s="2"/>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" customFormat="1" spans="2:14">
-      <c r="B111">
-        <v>4100205</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>116</v>
-      </c>
+      <c r="J110">
+        <v>15008028</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="3:13">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="9"/>
       <c r="F111" s="8"/>
       <c r="G111" s="9"/>
-      <c r="H111">
-        <v>1</v>
-      </c>
       <c r="I111" s="2"/>
-      <c r="J111">
-        <v>15008006</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>1</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
+      <c r="M111" s="2"/>
     </row>
     <row r="112" customFormat="1" spans="3:13">
       <c r="C112" s="8"/>
@@ -4442,14 +4667,40 @@
       <c r="I112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" customFormat="1" spans="3:13">
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+    <row r="113" customFormat="1" spans="1:13">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>4820101</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="8"/>
+      <c r="F113" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G113" s="9"/>
+      <c r="H113">
+        <v>1</v>
+      </c>
       <c r="I113" s="2"/>
-      <c r="M113" s="2"/>
+      <c r="J113">
+        <v>15008028</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="114" customFormat="1" spans="3:13">
       <c r="C114" s="8"/>
@@ -4478,46 +4729,24 @@
       <c r="I116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="2:13">
-      <c r="B117">
-        <v>4001001</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>117</v>
-      </c>
+    <row r="117" customFormat="1" spans="3:13">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F117" s="8"/>
       <c r="G117" s="9"/>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="J117">
-        <v>15008027</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="L117">
-        <v>1</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="2:13">
+      <c r="I117" s="2"/>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" customFormat="1" spans="2:13">
       <c r="B118">
-        <v>4001002</v>
+        <v>4100101</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="8" t="s">
@@ -4527,6 +4756,7 @@
       <c r="H118">
         <v>1</v>
       </c>
+      <c r="I118" s="2"/>
       <c r="J118">
         <v>15008006</v>
       </c>
@@ -4540,24 +4770,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="2:13">
+    <row r="119" customFormat="1" spans="2:13">
       <c r="B119">
-        <v>4001003</v>
+        <v>4100102</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="8" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="G119" s="9"/>
       <c r="H119">
         <v>1</v>
       </c>
+      <c r="I119" s="2"/>
       <c r="J119">
         <v>15008006</v>
       </c>
@@ -4571,24 +4802,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="2:13">
+    <row r="120" customFormat="1" spans="2:13">
       <c r="B120">
-        <v>4001050</v>
+        <v>4100103</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G120" s="9"/>
       <c r="H120">
         <v>1</v>
       </c>
+      <c r="I120" s="2"/>
       <c r="J120">
         <v>15008006</v>
       </c>
@@ -4602,31 +4834,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="3:7">
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+    <row r="121" customFormat="1" spans="2:13">
+      <c r="B121">
+        <v>4100104</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="E121" s="9"/>
-      <c r="F121" s="8"/>
+      <c r="F121" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="G121" s="9"/>
-    </row>
-    <row r="122" spans="2:13">
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121">
+        <v>15008006</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="2:13">
       <c r="B122">
-        <v>4001004</v>
+        <v>4100105</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="8" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="G122" s="9"/>
       <c r="H122">
         <v>1</v>
       </c>
+      <c r="I122" s="2"/>
       <c r="J122">
         <v>15008006</v>
       </c>
@@ -4640,86 +4898,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="2:13">
-      <c r="B123">
-        <v>4001005</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="123" customFormat="1" spans="3:13">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="F123" s="8"/>
       <c r="G123" s="9"/>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="J123">
-        <v>15008006</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="2:13">
-      <c r="B124">
-        <v>4001006</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="I123" s="2"/>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" customFormat="1" spans="3:13">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F124" s="8"/>
       <c r="G124" s="9"/>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="J124">
-        <v>15008006</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="2:13">
+      <c r="I124" s="2"/>
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" customFormat="1" spans="2:14">
       <c r="B125">
-        <v>4001007</v>
+        <v>4100205</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="8" t="s">
-        <v>129</v>
-      </c>
+      <c r="F125" s="8"/>
       <c r="G125" s="9"/>
       <c r="H125">
         <v>1</v>
       </c>
+      <c r="I125" s="2"/>
       <c r="J125">
         <v>15008006</v>
       </c>
@@ -4732,137 +4945,178 @@
       <c r="M125" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="126" spans="2:13">
-      <c r="B126">
-        <v>4001008</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>130</v>
-      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="1" spans="3:13">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="F126" s="8"/>
       <c r="G126" s="9"/>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="J126">
-        <v>15008019</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="3:7">
+      <c r="I126" s="2"/>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" customFormat="1" spans="3:13">
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="9"/>
       <c r="F127" s="8"/>
       <c r="G127" s="9"/>
-    </row>
-    <row r="128" spans="3:7">
+      <c r="I127" s="2"/>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" customFormat="1" spans="3:13">
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="9"/>
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
-    </row>
-    <row r="129" spans="3:7">
+      <c r="I128" s="2"/>
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" customFormat="1" spans="3:13">
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="9"/>
       <c r="F129" s="8"/>
       <c r="G129" s="9"/>
-    </row>
-    <row r="130" spans="2:13">
-      <c r="B130">
-        <v>4002001</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="I129" s="2"/>
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" customFormat="1" spans="3:13">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F130" s="8"/>
       <c r="G130" s="9"/>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="J130">
-        <v>15008028</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>1</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="I130" s="2"/>
+      <c r="M130" s="2"/>
     </row>
     <row r="131" spans="2:13">
       <c r="B131">
-        <v>4002002</v>
+        <v>4001001</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="8" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="J131">
+        <v>15008027</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="B132">
+        <v>4001002</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="F132" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132" s="9"/>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="J132">
         <v>15008006</v>
       </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>1</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="3:7">
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="9"/>
-    </row>
-    <row r="133" spans="5:5">
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13">
+      <c r="B133">
+        <v>4001003</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="E133" s="9"/>
-    </row>
-    <row r="134" spans="3:7">
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
+      <c r="F133" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G133" s="9"/>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>15008006</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="B134">
+        <v>4001050</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="E134" s="9"/>
-      <c r="F134" s="8"/>
+      <c r="F134" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G134" s="9"/>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>15008006</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="135" spans="3:7">
       <c r="C135" s="8"/>
@@ -4873,17 +5127,17 @@
     </row>
     <row r="136" spans="2:13">
       <c r="B136">
-        <v>4002004</v>
+        <v>4001004</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="8" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="G136" s="9"/>
       <c r="H136">
@@ -4902,33 +5156,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="3:7">
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
+    <row r="137" spans="2:13">
+      <c r="B137">
+        <v>4001005</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E137" s="9"/>
-      <c r="F137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="G137" s="9"/>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>15008006</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="138" spans="2:13">
       <c r="B138">
-        <v>4002006</v>
+        <v>4001006</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="J138">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -4942,17 +5220,17 @@
     </row>
     <row r="139" spans="2:13">
       <c r="B139">
-        <v>4002007</v>
+        <v>4001007</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="8" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139">
@@ -4971,12 +5249,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="3:7">
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+    <row r="140" spans="2:13">
+      <c r="B140">
+        <v>4001008</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="E140" s="9"/>
-      <c r="F140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="G140" s="9"/>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>15008019</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="141" spans="3:7">
       <c r="C141" s="8"/>
@@ -5001,13 +5303,13 @@
     </row>
     <row r="144" spans="2:13">
       <c r="B144">
-        <v>4002010</v>
+        <v>4002001</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="8" t="s">
@@ -5032,17 +5334,17 @@
     </row>
     <row r="145" spans="2:13">
       <c r="B145">
-        <v>4002011</v>
+        <v>4002002</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="8" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145">
@@ -5061,122 +5363,50 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="5:5">
+    <row r="146" spans="3:7">
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
       <c r="E146" s="9"/>
-    </row>
-    <row r="147" spans="2:13">
-      <c r="B147">
-        <v>4002020</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="F146" s="8"/>
+      <c r="G146" s="9"/>
+    </row>
+    <row r="147" spans="5:5">
       <c r="E147" s="9"/>
-      <c r="F147" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G147" s="9"/>
-      <c r="H147">
-        <v>1</v>
-      </c>
-      <c r="J147">
-        <v>15008006</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="148" spans="2:13">
-      <c r="B148">
-        <v>4002021</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>140</v>
-      </c>
+    </row>
+    <row r="148" spans="3:7">
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="F148" s="8"/>
       <c r="G148" s="9"/>
-      <c r="H148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>15008006</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="2:13">
-      <c r="B149">
-        <v>4002022</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>142</v>
-      </c>
+    </row>
+    <row r="149" spans="3:7">
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="F149" s="8"/>
       <c r="G149" s="9"/>
-      <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>15008013</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="150" spans="2:13">
       <c r="B150">
-        <v>4002023</v>
+        <v>4002004</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>15008020</v>
+        <v>15008006</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -5188,32 +5418,64 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="5:5">
+    <row r="151" spans="3:7">
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
       <c r="E151" s="9"/>
-    </row>
-    <row r="152" spans="5:5">
+      <c r="F151" s="8"/>
+      <c r="G151" s="9"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152">
+        <v>4002006</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="E152" s="9"/>
+      <c r="F152" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G152" s="9"/>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>15008028</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="153" spans="2:13">
       <c r="B153">
-        <v>4002030</v>
+        <v>4002007</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G153" s="9"/>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="J153">
-        <v>15008020</v>
+        <v>15008006</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -5225,66 +5487,54 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="2:13">
-      <c r="B154">
-        <v>4002031</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>146</v>
-      </c>
+    <row r="154" spans="3:7">
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="F154" s="8"/>
       <c r="G154" s="9"/>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="J154">
-        <v>15008020</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <v>1</v>
-      </c>
-      <c r="M154" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="155" spans="5:5">
+    </row>
+    <row r="155" spans="3:7">
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
       <c r="E155" s="9"/>
-    </row>
-    <row r="156" spans="5:5">
+      <c r="F155" s="8"/>
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" spans="3:7">
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
       <c r="E156" s="9"/>
-    </row>
-    <row r="157" spans="5:5">
+      <c r="F156" s="8"/>
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="3:7">
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
       <c r="E157" s="9"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="9"/>
     </row>
     <row r="158" spans="2:13">
       <c r="B158">
-        <v>4005001</v>
+        <v>4002010</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="8" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="G158" s="9"/>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="J158">
-        <v>15008013</v>
+        <v>15008028</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -5296,89 +5546,355 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="5:5">
+    <row r="159" spans="2:13">
+      <c r="B159">
+        <v>4002011</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="E159" s="9"/>
+      <c r="F159" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G159" s="9"/>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>15008006</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" s="9"/>
     </row>
-    <row r="161" spans="2:12">
+    <row r="161" spans="2:13">
       <c r="B161">
-        <v>4006101</v>
-      </c>
-      <c r="C161" t="s">
-        <v>149</v>
-      </c>
-      <c r="D161" t="s">
-        <v>149</v>
+        <v>4002020</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="E161" s="9"/>
-      <c r="F161" t="s">
-        <v>150</v>
-      </c>
+      <c r="F161" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G161" s="9"/>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="J161">
         <v>15008006</v>
       </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
       <c r="L161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" customFormat="1" spans="2:13">
+      <c r="M161" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13">
       <c r="B162">
-        <v>4006201</v>
-      </c>
-      <c r="C162" t="s">
-        <v>151</v>
-      </c>
-      <c r="D162" t="s">
-        <v>151</v>
+        <v>4002021</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" t="s">
-        <v>152</v>
-      </c>
-      <c r="G162" s="2"/>
+      <c r="F162" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G162" s="9"/>
       <c r="H162">
         <v>1</v>
       </c>
-      <c r="I162" s="2"/>
       <c r="J162">
         <v>15008006</v>
       </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
       <c r="L162">
         <v>1</v>
       </c>
-      <c r="M162" s="2"/>
-    </row>
-    <row r="163" customFormat="1" spans="2:13">
+      <c r="M162" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13">
       <c r="B163">
-        <v>4006301</v>
-      </c>
-      <c r="C163" t="s">
-        <v>153</v>
-      </c>
-      <c r="D163" t="s">
-        <v>153</v>
+        <v>4002022</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" t="s">
-        <v>154</v>
-      </c>
-      <c r="G163" s="2"/>
+      <c r="F163" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G163" s="9"/>
       <c r="H163">
         <v>1</v>
       </c>
-      <c r="I163" s="2"/>
       <c r="J163">
         <v>15008013</v>
       </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
       <c r="L163">
         <v>1</v>
       </c>
-      <c r="M163" s="2"/>
+      <c r="M163" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13">
+      <c r="B164">
+        <v>4002023</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E164" s="9"/>
+      <c r="F164" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G164" s="9"/>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>15008020</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5">
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="5:5">
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167">
+        <v>4002030</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E167" s="9"/>
+      <c r="F167" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G167" s="9"/>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>15008020</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168">
+        <v>4002031</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E168" s="9"/>
+      <c r="F168" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G168" s="9"/>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>15008020</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5">
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="5:5">
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="5:5">
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="2:13">
+      <c r="B172">
+        <v>4005001</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E172" s="9"/>
+      <c r="F172" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G172" s="9"/>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>15008013</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5">
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="5:5">
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="2:12">
+      <c r="B175">
+        <v>4006101</v>
+      </c>
+      <c r="C175" t="s">
+        <v>175</v>
+      </c>
+      <c r="D175" t="s">
+        <v>175</v>
+      </c>
+      <c r="E175" s="9"/>
+      <c r="F175" t="s">
+        <v>176</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>15008006</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" customFormat="1" spans="2:13">
+      <c r="B176">
+        <v>4006201</v>
+      </c>
+      <c r="C176" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" t="s">
+        <v>177</v>
+      </c>
+      <c r="E176" s="9"/>
+      <c r="F176" t="s">
+        <v>178</v>
+      </c>
+      <c r="G176" s="2"/>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2"/>
+      <c r="J176">
+        <v>15008006</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" s="2"/>
+    </row>
+    <row r="177" customFormat="1" spans="2:13">
+      <c r="B177">
+        <v>4006301</v>
+      </c>
+      <c r="C177" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" t="s">
+        <v>179</v>
+      </c>
+      <c r="E177" s="9"/>
+      <c r="F177" t="s">
+        <v>180</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177" s="2"/>
+      <c r="J177">
+        <v>15008013</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="191">
   <si>
     <t>#</t>
   </si>
@@ -537,6 +537,36 @@
   </si>
   <si>
     <t>1,10000,5</t>
+  </si>
+  <si>
+    <t>随机技能 击退伤害 lv1</t>
+  </si>
+  <si>
+    <t>0,120,0|1,700,0</t>
+  </si>
+  <si>
+    <t>随机技能 击退伤害 lv2</t>
+  </si>
+  <si>
+    <t>0,180,0|1,800,0</t>
+  </si>
+  <si>
+    <t>随机技能 击退伤害 lv3</t>
+  </si>
+  <si>
+    <t>0,240,0|1,900,0</t>
+  </si>
+  <si>
+    <t>随机技能 击退伤害 lv4</t>
+  </si>
+  <si>
+    <t>0,300,0|1,1000,0</t>
+  </si>
+  <si>
+    <t>随机技能 击退伤害 lv5</t>
+  </si>
+  <si>
+    <t>0,360,0|1,1100,0</t>
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv1</t>
@@ -1713,10 +1743,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
@@ -4479,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>4804301</v>
+        <v>4801401</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>126</v>
@@ -4514,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>4804302</v>
+        <v>4801402</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>128</v>
@@ -4549,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="B108">
-        <v>4804303</v>
+        <v>4801403</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>130</v>
@@ -4584,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <v>4804304</v>
+        <v>4801404</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>132</v>
@@ -4619,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <v>4804305</v>
+        <v>4801405</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>134</v>
@@ -4658,31 +4688,57 @@
       <c r="I111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" customFormat="1" spans="3:13">
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+    <row r="112" customFormat="1" spans="1:13">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>4804301</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="E112" s="9"/>
-      <c r="F112" s="8"/>
+      <c r="F112" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="G112" s="9"/>
+      <c r="H112">
+        <v>1</v>
+      </c>
       <c r="I112" s="2"/>
-      <c r="M112" s="2"/>
+      <c r="J112">
+        <v>15008028</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="113" customFormat="1" spans="1:13">
       <c r="A113" t="s">
         <v>0</v>
       </c>
       <c r="B113">
-        <v>4820101</v>
+        <v>4804302</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="8" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113">
@@ -4702,32 +4758,110 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" customFormat="1" spans="3:13">
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+    <row r="114" customFormat="1" spans="1:13">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>4804303</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="G114" s="9"/>
+      <c r="H114">
+        <v>1</v>
+      </c>
       <c r="I114" s="2"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" customFormat="1" spans="3:13">
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="J114">
+        <v>15008028</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:13">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>4804304</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="G115" s="9"/>
+      <c r="H115">
+        <v>1</v>
+      </c>
       <c r="I115" s="2"/>
-      <c r="M115" s="2"/>
-    </row>
-    <row r="116" customFormat="1" spans="3:13">
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
+      <c r="J115">
+        <v>15008028</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="1:13">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>4804305</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="E116" s="9"/>
-      <c r="F116" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="G116" s="9"/>
+      <c r="H116">
+        <v>1</v>
+      </c>
       <c r="I116" s="2"/>
-      <c r="M116" s="2"/>
+      <c r="J116">
+        <v>15008028</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="117" customFormat="1" spans="3:13">
       <c r="C117" s="8"/>
@@ -4738,165 +4872,50 @@
       <c r="I117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" customFormat="1" spans="2:13">
-      <c r="B118">
-        <v>4100101</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>137</v>
-      </c>
+    <row r="118" customFormat="1" spans="3:13">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="F118" s="8"/>
       <c r="G118" s="9"/>
-      <c r="H118">
-        <v>1</v>
-      </c>
       <c r="I118" s="2"/>
-      <c r="J118">
-        <v>15008006</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" spans="2:13">
-      <c r="B119">
-        <v>4100102</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" customFormat="1" spans="3:13">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F119" s="8"/>
       <c r="G119" s="9"/>
-      <c r="H119">
-        <v>1</v>
-      </c>
       <c r="I119" s="2"/>
-      <c r="J119">
-        <v>15008006</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" customFormat="1" spans="2:13">
-      <c r="B120">
-        <v>4100103</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" customFormat="1" spans="3:13">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F120" s="8"/>
       <c r="G120" s="9"/>
-      <c r="H120">
-        <v>1</v>
-      </c>
       <c r="I120" s="2"/>
-      <c r="J120">
-        <v>15008006</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="121" customFormat="1" spans="2:13">
-      <c r="B121">
-        <v>4100104</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" customFormat="1" spans="3:13">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="F121" s="8"/>
       <c r="G121" s="9"/>
-      <c r="H121">
-        <v>1</v>
-      </c>
       <c r="I121" s="2"/>
-      <c r="J121">
-        <v>15008006</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>1</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" spans="2:13">
-      <c r="B122">
-        <v>4100105</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" customFormat="1" spans="3:13">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="F122" s="8"/>
       <c r="G122" s="9"/>
-      <c r="H122">
-        <v>1</v>
-      </c>
       <c r="I122" s="2"/>
-      <c r="J122">
-        <v>15008006</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M122" s="2"/>
     </row>
     <row r="123" customFormat="1" spans="3:13">
       <c r="C123" s="8"/>
@@ -4916,25 +4935,30 @@
       <c r="I124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" customFormat="1" spans="2:14">
+    <row r="125" customFormat="1" spans="1:13">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
       <c r="B125">
-        <v>4100205</v>
+        <v>4820101</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="8"/>
+      <c r="F125" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G125" s="9"/>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125" s="2"/>
       <c r="J125">
-        <v>15008006</v>
+        <v>15008028</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -4944,9 +4968,6 @@
       </c>
       <c r="M125" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="N125">
-        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="1" spans="3:13">
@@ -4985,24 +5006,47 @@
       <c r="I129" s="2"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" customFormat="1" spans="3:13">
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
+    <row r="130" customFormat="1" spans="2:13">
+      <c r="B130">
+        <v>4100101</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="E130" s="9"/>
-      <c r="F130" s="8"/>
+      <c r="F130" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G130" s="9"/>
+      <c r="H130">
+        <v>1</v>
+      </c>
       <c r="I130" s="2"/>
-      <c r="M130" s="2"/>
-    </row>
-    <row r="131" spans="2:13">
+      <c r="J130">
+        <v>15008006</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="2:13">
       <c r="B131">
-        <v>4001001</v>
+        <v>4100102</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="8" t="s">
@@ -5012,8 +5056,9 @@
       <c r="H131">
         <v>1</v>
       </c>
+      <c r="I131" s="2"/>
       <c r="J131">
-        <v>15008027</v>
+        <v>15008006</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -5025,24 +5070,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="2:13">
+    <row r="132" customFormat="1" spans="2:13">
       <c r="B132">
-        <v>4001002</v>
+        <v>4100103</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G132" s="9"/>
       <c r="H132">
         <v>1</v>
       </c>
+      <c r="I132" s="2"/>
       <c r="J132">
         <v>15008006</v>
       </c>
@@ -5056,24 +5102,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="2:13">
+    <row r="133" customFormat="1" spans="2:13">
       <c r="B133">
-        <v>4001003</v>
+        <v>4100104</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="8" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133">
         <v>1</v>
       </c>
+      <c r="I133" s="2"/>
       <c r="J133">
         <v>15008006</v>
       </c>
@@ -5087,24 +5134,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="2:13">
+    <row r="134" customFormat="1" spans="2:13">
       <c r="B134">
-        <v>4001050</v>
+        <v>4100105</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="8" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134">
         <v>1</v>
       </c>
+      <c r="I134" s="2"/>
       <c r="J134">
         <v>15008006</v>
       </c>
@@ -5118,62 +5166,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="3:7">
+    <row r="135" customFormat="1" spans="3:13">
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="9"/>
       <c r="F135" s="8"/>
       <c r="G135" s="9"/>
-    </row>
-    <row r="136" spans="2:13">
-      <c r="B136">
-        <v>4001004</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="I135" s="2"/>
+      <c r="M135" s="2"/>
+    </row>
+    <row r="136" customFormat="1" spans="3:13">
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="8" t="s">
-        <v>149</v>
-      </c>
+      <c r="F136" s="8"/>
       <c r="G136" s="9"/>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="J136">
-        <v>15008006</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>1</v>
-      </c>
-      <c r="M136" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="2:13">
+      <c r="I136" s="2"/>
+      <c r="M136" s="2"/>
+    </row>
+    <row r="137" customFormat="1" spans="2:14">
       <c r="B137">
-        <v>4001005</v>
+        <v>4100205</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E137" s="9"/>
-      <c r="F137" s="8" t="s">
-        <v>151</v>
-      </c>
+      <c r="F137" s="8"/>
       <c r="G137" s="9"/>
       <c r="H137">
         <v>1</v>
       </c>
+      <c r="I137" s="2"/>
       <c r="J137">
         <v>15008006</v>
       </c>
@@ -5186,141 +5213,106 @@
       <c r="M137" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="138" spans="2:13">
-      <c r="B138">
-        <v>4001006</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" spans="3:13">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F138" s="8"/>
       <c r="G138" s="9"/>
-      <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="J138">
-        <v>15008006</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="2:13">
-      <c r="B139">
-        <v>4001007</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>154</v>
-      </c>
+      <c r="I138" s="2"/>
+      <c r="M138" s="2"/>
+    </row>
+    <row r="139" customFormat="1" spans="3:13">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="8" t="s">
-        <v>155</v>
-      </c>
+      <c r="F139" s="8"/>
       <c r="G139" s="9"/>
-      <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="J139">
-        <v>15008006</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="2:13">
-      <c r="B140">
-        <v>4001008</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>156</v>
-      </c>
+      <c r="I139" s="2"/>
+      <c r="M139" s="2"/>
+    </row>
+    <row r="140" customFormat="1" spans="3:13">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="F140" s="8"/>
       <c r="G140" s="9"/>
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <v>15008019</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="141" spans="3:7">
+      <c r="I140" s="2"/>
+      <c r="M140" s="2"/>
+    </row>
+    <row r="141" customFormat="1" spans="3:13">
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="9"/>
       <c r="F141" s="8"/>
       <c r="G141" s="9"/>
-    </row>
-    <row r="142" spans="3:7">
+      <c r="I141" s="2"/>
+      <c r="M141" s="2"/>
+    </row>
+    <row r="142" customFormat="1" spans="3:13">
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="9"/>
       <c r="F142" s="8"/>
       <c r="G142" s="9"/>
-    </row>
-    <row r="143" spans="3:7">
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
+      <c r="I142" s="2"/>
+      <c r="M142" s="2"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143">
+        <v>4001001</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="E143" s="9"/>
-      <c r="F143" s="8"/>
+      <c r="F143" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G143" s="9"/>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>15008027</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="144" spans="2:13">
       <c r="B144">
-        <v>4002001</v>
+        <v>4001002</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="8" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="J144">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -5334,17 +5326,17 @@
     </row>
     <row r="145" spans="2:13">
       <c r="B145">
-        <v>4002002</v>
+        <v>4001003</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G145" s="9"/>
       <c r="H145">
@@ -5363,39 +5355,115 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="3:7">
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
+    <row r="146" spans="2:13">
+      <c r="B146">
+        <v>4001050</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="E146" s="9"/>
-      <c r="F146" s="8"/>
+      <c r="F146" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G146" s="9"/>
-    </row>
-    <row r="147" spans="5:5">
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>15008006</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7">
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
       <c r="E147" s="9"/>
-    </row>
-    <row r="148" spans="3:7">
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="9"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148">
+        <v>4001004</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="E148" s="9"/>
-      <c r="F148" s="8"/>
+      <c r="F148" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="G148" s="9"/>
-    </row>
-    <row r="149" spans="3:7">
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>15008006</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149">
+        <v>4001005</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="E149" s="9"/>
-      <c r="F149" s="8"/>
+      <c r="F149" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="G149" s="9"/>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>15008006</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="150" spans="2:13">
       <c r="B150">
-        <v>4002004</v>
+        <v>4001006</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="8" t="s">
@@ -5418,33 +5486,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="3:7">
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
+    <row r="151" spans="2:13">
+      <c r="B151">
+        <v>4001007</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="E151" s="9"/>
-      <c r="F151" s="8"/>
+      <c r="F151" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="G151" s="9"/>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>15008006</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="152" spans="2:13">
       <c r="B152">
-        <v>4002006</v>
+        <v>4001008</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="8" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G152" s="9"/>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="J152">
-        <v>15008028</v>
+        <v>15008019</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -5456,36 +5548,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="2:13">
-      <c r="B153">
-        <v>4002007</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>161</v>
-      </c>
+    <row r="153" spans="3:7">
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="F153" s="8"/>
       <c r="G153" s="9"/>
-      <c r="H153">
-        <v>1</v>
-      </c>
-      <c r="J153">
-        <v>15008006</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>1</v>
-      </c>
-      <c r="M153" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="154" spans="3:7">
       <c r="C154" s="8"/>
@@ -5501,129 +5569,105 @@
       <c r="F155" s="8"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="3:7">
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
+    <row r="156" spans="2:13">
+      <c r="B156">
+        <v>4002001</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="E156" s="9"/>
-      <c r="F156" s="8"/>
+      <c r="F156" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G156" s="9"/>
-    </row>
-    <row r="157" spans="3:7">
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>15008028</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157">
+        <v>4002002</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="E157" s="9"/>
-      <c r="F157" s="8"/>
+      <c r="F157" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="G157" s="9"/>
-    </row>
-    <row r="158" spans="2:13">
-      <c r="B158">
-        <v>4002010</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>15008006</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7">
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F158" s="8"/>
       <c r="G158" s="9"/>
-      <c r="H158">
-        <v>1</v>
-      </c>
-      <c r="J158">
-        <v>15008028</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158">
-        <v>1</v>
-      </c>
-      <c r="M158" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="159" spans="2:13">
-      <c r="B159">
-        <v>4002011</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>163</v>
-      </c>
+    </row>
+    <row r="159" spans="5:5">
       <c r="E159" s="9"/>
-      <c r="F159" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G159" s="9"/>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="J159">
-        <v>15008006</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>1</v>
-      </c>
-      <c r="M159" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5">
+    </row>
+    <row r="160" spans="3:7">
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
       <c r="E160" s="9"/>
-    </row>
-    <row r="161" spans="2:13">
-      <c r="B161">
-        <v>4002020</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="F160" s="8"/>
+      <c r="G160" s="9"/>
+    </row>
+    <row r="161" spans="3:7">
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="8" t="s">
-        <v>165</v>
-      </c>
+      <c r="F161" s="8"/>
       <c r="G161" s="9"/>
-      <c r="H161">
-        <v>1</v>
-      </c>
-      <c r="J161">
-        <v>15008006</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <v>1</v>
-      </c>
-      <c r="M161" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="162" spans="2:13">
       <c r="B162">
-        <v>4002021</v>
+        <v>4002004</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="8" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="G162" s="9"/>
       <c r="H162">
@@ -5642,40 +5686,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="2:13">
-      <c r="B163">
-        <v>4002022</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>168</v>
-      </c>
+    <row r="163" spans="3:7">
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="8" t="s">
-        <v>169</v>
-      </c>
+      <c r="F163" s="8"/>
       <c r="G163" s="9"/>
-      <c r="H163">
-        <v>1</v>
-      </c>
-      <c r="J163">
-        <v>15008013</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>1</v>
-      </c>
-      <c r="M163" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="164" spans="2:13">
       <c r="B164">
-        <v>4002023</v>
+        <v>4002006</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>170</v>
@@ -5685,216 +5705,464 @@
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="8" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="J164">
+        <v>15008028</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165">
+        <v>4002007</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E165" s="9"/>
+      <c r="F165" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G165" s="9"/>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>15008006</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="9"/>
+    </row>
+    <row r="167" spans="3:7">
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="9"/>
+    </row>
+    <row r="168" spans="3:7">
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="9"/>
+    </row>
+    <row r="169" spans="3:7">
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="9"/>
+    </row>
+    <row r="170" spans="2:13">
+      <c r="B170">
+        <v>4002010</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E170" s="9"/>
+      <c r="F170" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170" s="9"/>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>15008028</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13">
+      <c r="B171">
+        <v>4002011</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E171" s="9"/>
+      <c r="F171" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G171" s="9"/>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>15008006</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5">
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="2:13">
+      <c r="B173">
+        <v>4002020</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E173" s="9"/>
+      <c r="F173" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G173" s="9"/>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>15008006</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13">
+      <c r="B174">
+        <v>4002021</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E174" s="9"/>
+      <c r="F174" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G174" s="9"/>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>15008006</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13">
+      <c r="B175">
+        <v>4002022</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E175" s="9"/>
+      <c r="F175" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G175" s="9"/>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>15008013</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13">
+      <c r="B176">
+        <v>4002023</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E176" s="9"/>
+      <c r="F176" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G176" s="9"/>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="J176">
         <v>15008020</v>
       </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="165" spans="5:5">
-      <c r="E165" s="9"/>
-    </row>
-    <row r="166" spans="5:5">
-      <c r="E166" s="9"/>
-    </row>
-    <row r="167" spans="2:13">
-      <c r="B167">
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5">
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" spans="5:5">
+      <c r="E178" s="9"/>
+    </row>
+    <row r="179" spans="2:13">
+      <c r="B179">
         <v>4002030</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E167" s="9"/>
-      <c r="F167" s="8" t="s">
+      <c r="C179" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E179" s="9"/>
+      <c r="F179" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G167" s="9"/>
-      <c r="H167">
-        <v>1</v>
-      </c>
-      <c r="J167">
+      <c r="G179" s="9"/>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="J179">
         <v>15008020</v>
       </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="168" spans="2:13">
-      <c r="B168">
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13">
+      <c r="B180">
         <v>4002031</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E168" s="9"/>
-      <c r="F168" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G168" s="9"/>
-      <c r="H168">
-        <v>1</v>
-      </c>
-      <c r="J168">
+      <c r="C180" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E180" s="9"/>
+      <c r="F180" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G180" s="9"/>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="J180">
         <v>15008020</v>
       </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-      <c r="M168" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="5:5">
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="5:5">
-      <c r="E170" s="9"/>
-    </row>
-    <row r="171" spans="5:5">
-      <c r="E171" s="9"/>
-    </row>
-    <row r="172" spans="2:13">
-      <c r="B172">
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5">
+      <c r="E181" s="9"/>
+    </row>
+    <row r="182" spans="5:5">
+      <c r="E182" s="9"/>
+    </row>
+    <row r="183" spans="5:5">
+      <c r="E183" s="9"/>
+    </row>
+    <row r="184" spans="2:13">
+      <c r="B184">
         <v>4005001</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E172" s="9"/>
-      <c r="F172" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G172" s="9"/>
-      <c r="H172">
-        <v>1</v>
-      </c>
-      <c r="J172">
+      <c r="C184" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E184" s="9"/>
+      <c r="F184" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G184" s="9"/>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="J184">
         <v>15008013</v>
       </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>1</v>
-      </c>
-      <c r="M172" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="173" spans="5:5">
-      <c r="E173" s="9"/>
-    </row>
-    <row r="174" spans="5:5">
-      <c r="E174" s="9"/>
-    </row>
-    <row r="175" spans="2:12">
-      <c r="B175">
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5">
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="5:5">
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="2:12">
+      <c r="B187">
         <v>4006101</v>
       </c>
-      <c r="C175" t="s">
-        <v>175</v>
-      </c>
-      <c r="D175" t="s">
-        <v>175</v>
-      </c>
-      <c r="E175" s="9"/>
-      <c r="F175" t="s">
-        <v>176</v>
-      </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
-      <c r="J175">
+      <c r="C187" t="s">
+        <v>185</v>
+      </c>
+      <c r="D187" t="s">
+        <v>185</v>
+      </c>
+      <c r="E187" s="9"/>
+      <c r="F187" t="s">
+        <v>186</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="J187">
         <v>15008006</v>
       </c>
-      <c r="L175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" customFormat="1" spans="2:13">
-      <c r="B176">
+      <c r="L187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="1" spans="2:13">
+      <c r="B188">
         <v>4006201</v>
       </c>
-      <c r="C176" t="s">
-        <v>177</v>
-      </c>
-      <c r="D176" t="s">
-        <v>177</v>
-      </c>
-      <c r="E176" s="9"/>
-      <c r="F176" t="s">
-        <v>178</v>
-      </c>
-      <c r="G176" s="2"/>
-      <c r="H176">
-        <v>1</v>
-      </c>
-      <c r="I176" s="2"/>
-      <c r="J176">
+      <c r="C188" t="s">
+        <v>187</v>
+      </c>
+      <c r="D188" t="s">
+        <v>187</v>
+      </c>
+      <c r="E188" s="9"/>
+      <c r="F188" t="s">
+        <v>188</v>
+      </c>
+      <c r="G188" s="2"/>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188" s="2"/>
+      <c r="J188">
         <v>15008006</v>
       </c>
-      <c r="L176">
-        <v>1</v>
-      </c>
-      <c r="M176" s="2"/>
-    </row>
-    <row r="177" customFormat="1" spans="2:13">
-      <c r="B177">
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188" s="2"/>
+    </row>
+    <row r="189" customFormat="1" spans="2:13">
+      <c r="B189">
         <v>4006301</v>
       </c>
-      <c r="C177" t="s">
-        <v>179</v>
-      </c>
-      <c r="D177" t="s">
-        <v>179</v>
-      </c>
-      <c r="E177" s="9"/>
-      <c r="F177" t="s">
-        <v>180</v>
-      </c>
-      <c r="G177" s="2"/>
-      <c r="H177">
-        <v>1</v>
-      </c>
-      <c r="I177" s="2"/>
-      <c r="J177">
+      <c r="C189" t="s">
+        <v>189</v>
+      </c>
+      <c r="D189" t="s">
+        <v>189</v>
+      </c>
+      <c r="E189" s="9"/>
+      <c r="F189" t="s">
+        <v>190</v>
+      </c>
+      <c r="G189" s="2"/>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189" s="2"/>
+      <c r="J189">
         <v>15008013</v>
       </c>
-      <c r="L177">
-        <v>1</v>
-      </c>
-      <c r="M177" s="2"/>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16500" windowHeight="11700" tabRatio="601"/>
+    <workbookView windowWidth="16665" windowHeight="11700" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="193">
   <si>
     <t>#</t>
   </si>
@@ -269,19 +269,19 @@
     <t>隐墨 q 技能穿刺投掷物效果计算</t>
   </si>
   <si>
-    <t>0,100,0|1,1500,0</t>
-  </si>
-  <si>
-    <t>0,160,0|1,1500,0</t>
-  </si>
-  <si>
-    <t>0,220,0|1,1500,0</t>
-  </si>
-  <si>
-    <t>0,280,0|1,1500,0</t>
-  </si>
-  <si>
-    <t>0,340,0|1,1500,0</t>
+    <t>0,100,0|1,800,0</t>
+  </si>
+  <si>
+    <t>0,180,0|1,900,0</t>
+  </si>
+  <si>
+    <t>0,350,0|1,1000,0</t>
+  </si>
+  <si>
+    <t>0,600,0|1,1100,0</t>
+  </si>
+  <si>
+    <t>0,1100,0|1,1200,0</t>
   </si>
   <si>
     <t>凤紫夕普通攻击投掷物效果计算</t>
@@ -290,19 +290,19 @@
     <t>凤紫夕 q 技能被动 残血加普通攻击伤害（只计算）</t>
   </si>
   <si>
-    <t>1,1000,0|30,1,1</t>
-  </si>
-  <si>
-    <t>1,1250,0|30,1,1</t>
-  </si>
-  <si>
-    <t>1,1500,0|30,1,1</t>
-  </si>
-  <si>
-    <t>1,1750,0|30,1,1</t>
-  </si>
-  <si>
-    <t>1,2000,0|30,1,1</t>
+    <t>1,500,0|30,1,1</t>
+  </si>
+  <si>
+    <t>1,1100,0|30,1,1</t>
+  </si>
+  <si>
+    <t>1,1700,0|30,1,1</t>
+  </si>
+  <si>
+    <t>1,2300,0|30,1,1</t>
+  </si>
+  <si>
+    <t>1,3000,0|30,1,1</t>
   </si>
   <si>
     <t>凤紫夕大招流血效果计算</t>
@@ -323,90 +323,99 @@
     <t>唐依 q 技能穿刺投掷物效果计算</t>
   </si>
   <si>
+    <t>1,80,0|1,1000,0</t>
+  </si>
+  <si>
+    <t>1,150,0|1,1100,0</t>
+  </si>
+  <si>
+    <t>1,280,0|1,1200,0</t>
+  </si>
+  <si>
+    <t>1,540,0|1,1300,0</t>
+  </si>
+  <si>
+    <t>1,960,0|1,1400,0</t>
+  </si>
+  <si>
+    <t>唐依大招群攻效果计算</t>
+  </si>
+  <si>
     <t>1,1250,0</t>
   </si>
   <si>
+    <t>夜魂普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>夜魂q被动区域效果计算</t>
+  </si>
+  <si>
+    <t>4,1000,0</t>
+  </si>
+  <si>
+    <t>夜魂q攻击附带护甲伤害效果计算</t>
+  </si>
+  <si>
+    <t>4,1500,0</t>
+  </si>
+  <si>
+    <t>夜魂大招伤害</t>
+  </si>
+  <si>
+    <t>4,2000,0</t>
+  </si>
+  <si>
+    <t>萧玉普通攻击投掷物效果计算</t>
+  </si>
+  <si>
+    <t>萧玉 q 队友加血效果计算</t>
+  </si>
+  <si>
+    <t>1,-750,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv1</t>
+  </si>
+  <si>
+    <t>1,500,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv2</t>
+  </si>
+  <si>
     <t>1,1500,0</t>
   </si>
   <si>
-    <t>1,1750,0</t>
+    <t>萧玉 q 敌人减血效果计算 lv3</t>
+  </si>
+  <si>
+    <t>1,2500,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv4</t>
+  </si>
+  <si>
+    <t>1,3500,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 敌人减血效果计算 lv5</t>
+  </si>
+  <si>
+    <t>1,4500,0</t>
+  </si>
+  <si>
+    <t>萧玉 q 被动加血效果计算</t>
+  </si>
+  <si>
+    <t>1,-200,0</t>
+  </si>
+  <si>
+    <t>萧玉 大招伤害计算</t>
   </si>
   <si>
     <t>1,2000,0</t>
   </si>
   <si>
-    <t>1,2250,0</t>
-  </si>
-  <si>
-    <t>唐依大招群攻效果计算</t>
-  </si>
-  <si>
-    <t>夜魂普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>夜魂q被动区域效果计算</t>
-  </si>
-  <si>
-    <t>4,1000,0</t>
-  </si>
-  <si>
-    <t>夜魂q攻击附带护甲伤害效果计算</t>
-  </si>
-  <si>
-    <t>4,1500,0</t>
-  </si>
-  <si>
-    <t>夜魂大招伤害</t>
-  </si>
-  <si>
-    <t>4,2000,0</t>
-  </si>
-  <si>
-    <t>萧玉普通攻击投掷物效果计算</t>
-  </si>
-  <si>
-    <t>萧玉 q 队友加血效果计算</t>
-  </si>
-  <si>
-    <t>1,-750,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv1</t>
-  </si>
-  <si>
-    <t>1,500,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv2</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv3</t>
-  </si>
-  <si>
-    <t>1,2500,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv4</t>
-  </si>
-  <si>
-    <t>1,3500,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 敌人减血效果计算 lv5</t>
-  </si>
-  <si>
-    <t>1,4500,0</t>
-  </si>
-  <si>
-    <t>萧玉 q 被动加血效果计算</t>
-  </si>
-  <si>
-    <t>1,-200,0</t>
-  </si>
-  <si>
-    <t>萧玉 大招伤害计算</t>
-  </si>
-  <si>
     <t>承灵 普通攻击投掷物效果计算</t>
   </si>
   <si>
@@ -461,6 +470,9 @@
     <t>怪物1普通攻击投掷物效果计算</t>
   </si>
   <si>
+    <t>怪物2普通攻击投掷物效果计算</t>
+  </si>
+  <si>
     <t>怪物区域3连击效果计算</t>
   </si>
   <si>
@@ -476,61 +488,61 @@
     <t>随机技能 连锁球 lv1</t>
   </si>
   <si>
-    <t>0,50,0|1,800,0</t>
+    <t>0,50,0|1,400,0</t>
   </si>
   <si>
     <t>随机技能 连锁球 lv2</t>
   </si>
   <si>
-    <t>0,100,0|1,900,0</t>
+    <t>0,100,0|1,450,0</t>
   </si>
   <si>
     <t>随机技能 连锁球 lv3</t>
   </si>
   <si>
-    <t>0,150,0|1,1000,0</t>
+    <t>0,200,0|1,550,0</t>
   </si>
   <si>
     <t>随机技能 连锁球 lv4</t>
   </si>
   <si>
-    <t>0,200,0|1,1100,0</t>
+    <t>0,350,0|1,600,0</t>
   </si>
   <si>
     <t>随机技能 连锁球 lv5</t>
   </si>
   <si>
-    <t>0,250,0|1,1200,0</t>
+    <t>0,550,0|1,700,0</t>
   </si>
   <si>
     <t>随机技能 反弹伤害 lv1</t>
   </si>
   <si>
-    <t>0,15,0|20,50,0</t>
+    <t>0,20,0|20,50,0</t>
   </si>
   <si>
     <t>随机技能 反弹伤害 lv2</t>
   </si>
   <si>
-    <t>0,20,0|20,70,0</t>
+    <t>0,30,0|20,70,0</t>
   </si>
   <si>
     <t>随机技能 反弹伤害 lv3</t>
   </si>
   <si>
-    <t>0,25,0|20,90,0</t>
+    <t>0,45,0|20,90,0</t>
   </si>
   <si>
     <t>随机技能 反弹伤害 lv4</t>
   </si>
   <si>
-    <t>0,30,0|20,110,0</t>
+    <t>0,60,0|20,110,0</t>
   </si>
   <si>
     <t>随机技能 反弹伤害 lv5</t>
   </si>
   <si>
-    <t>0,35,0|20,130,0</t>
+    <t>0,80,0|20,130,0</t>
   </si>
   <si>
     <t>随机技能 自爆人自爆伤害 lv1</t>
@@ -542,63 +554,60 @@
     <t>随机技能 击退伤害 lv1</t>
   </si>
   <si>
-    <t>0,120,0|1,700,0</t>
+    <t>0,150,0|1,500,0</t>
   </si>
   <si>
     <t>随机技能 击退伤害 lv2</t>
   </si>
   <si>
-    <t>0,180,0|1,800,0</t>
+    <t>0,250,0|1,550,0</t>
   </si>
   <si>
     <t>随机技能 击退伤害 lv3</t>
   </si>
   <si>
-    <t>0,240,0|1,900,0</t>
+    <t>0,400,0|1,600,0</t>
   </si>
   <si>
     <t>随机技能 击退伤害 lv4</t>
   </si>
   <si>
-    <t>0,300,0|1,1000,0</t>
+    <t>0,600,0|1,700,0</t>
   </si>
   <si>
     <t>随机技能 击退伤害 lv5</t>
   </si>
   <si>
-    <t>0,360,0|1,1100,0</t>
+    <t>0,800,0|1,800,0</t>
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv1</t>
   </si>
   <si>
-    <t>0,60,0|1,400,0</t>
+    <t>0,50,0|1,300,0</t>
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv2</t>
   </si>
   <si>
-    <t>0,100,0|1,500,0</t>
+    <t>0,100,0|1,350,0</t>
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv3</t>
   </si>
   <si>
-    <t>0,140,0|1,600,0</t>
+    <t>0,150,0|1,400,0</t>
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv4</t>
   </si>
   <si>
-    <t>0,180,0|1,700,0</t>
+    <t>0,250,0|1,500,0</t>
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv5</t>
   </si>
   <si>
-    <t>0,220,0|1,800,0</t>
-  </si>
-  <si>
     <t>道具技能 被攻击反射一个攻击球</t>
   </si>
   <si>
@@ -669,9 +678,6 @@
   </si>
   <si>
     <t>近战怪物 技能1 区域效果计算</t>
-  </si>
-  <si>
-    <t>怪物2普通攻击投掷物效果计算</t>
   </si>
   <si>
     <t>怪物2 技能计算</t>
@@ -1743,12 +1749,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="$A80:$XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2741,7 +2747,7 @@
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="8" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34">
@@ -2787,10 +2793,10 @@
         <v>4004101</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="8" t="s">
@@ -2822,14 +2828,14 @@
         <v>4004201</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38">
@@ -2857,14 +2863,14 @@
         <v>4004301</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39">
@@ -2892,14 +2898,14 @@
         <v>4004401</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40">
@@ -2936,10 +2942,10 @@
         <v>4005101</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="8" t="s">
@@ -2971,14 +2977,14 @@
         <v>4005201</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43">
@@ -3006,14 +3012,14 @@
         <v>4005301</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44">
@@ -3041,14 +3047,14 @@
         <v>4005302</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45">
@@ -3076,14 +3082,14 @@
         <v>4005303</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46">
@@ -3111,14 +3117,14 @@
         <v>4005304</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47">
@@ -3146,14 +3152,14 @@
         <v>4005305</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48">
@@ -3181,14 +3187,14 @@
         <v>4005401</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49">
@@ -3216,14 +3222,14 @@
         <v>4005501</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="8" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50">
@@ -3269,10 +3275,10 @@
         <v>4006101</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="8" t="s">
@@ -3304,14 +3310,14 @@
         <v>4006201</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54">
@@ -3339,14 +3345,14 @@
         <v>4006301</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55">
@@ -3392,10 +3398,10 @@
         <v>4007101</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="8" t="s">
@@ -3427,14 +3433,14 @@
         <v>4007201</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59">
@@ -3464,14 +3470,14 @@
         <v>4007202</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60">
@@ -3501,14 +3507,14 @@
         <v>4007203</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61">
@@ -3538,14 +3544,14 @@
         <v>4007204</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62">
@@ -3575,14 +3581,14 @@
         <v>4007205</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63">
@@ -3630,14 +3636,14 @@
         <v>4007301</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66">
@@ -3665,14 +3671,14 @@
         <v>4007401</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67">
@@ -3700,14 +3706,14 @@
         <v>4007402</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68">
@@ -3735,14 +3741,14 @@
         <v>4007403</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69">
@@ -3797,10 +3803,10 @@
         <v>4101101</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="8" t="s">
@@ -3824,49 +3830,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" customFormat="1" spans="3:13">
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+    <row r="74" customFormat="1" spans="1:13">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>4102101</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E74" s="9"/>
-      <c r="F74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G74" s="9"/>
+      <c r="H74">
+        <v>1</v>
+      </c>
       <c r="I74" s="2"/>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" customFormat="1" spans="1:13">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>4102101</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="J74">
+        <v>15008028</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="3:13">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="F75" s="8"/>
       <c r="G75" s="9"/>
-      <c r="H75">
-        <v>1</v>
-      </c>
       <c r="I75" s="2"/>
-      <c r="J75">
-        <v>15008028</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M75" s="2"/>
     </row>
     <row r="76" customFormat="1" spans="1:13">
       <c r="A76" t="s">
@@ -3876,14 +3882,14 @@
         <v>4103101</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="8" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76">
@@ -3903,14 +3909,40 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="3:13">
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+    <row r="77" customFormat="1" spans="1:13">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>4104101</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="E77" s="9"/>
-      <c r="F77" s="8"/>
+      <c r="F77" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G77" s="9"/>
+      <c r="H77">
+        <v>1</v>
+      </c>
       <c r="I77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="J77">
+        <v>15008028</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="78" customFormat="1" spans="3:13">
       <c r="C78" s="8"/>
@@ -3957,23 +3989,75 @@
       <c r="I82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" customFormat="1" spans="3:13">
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+    <row r="83" customFormat="1" spans="1:13">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>4501101</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="E83" s="9"/>
-      <c r="F83" s="8"/>
+      <c r="F83" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G83" s="9"/>
+      <c r="H83">
+        <v>1</v>
+      </c>
       <c r="I83" s="2"/>
-      <c r="M83" s="2"/>
-    </row>
-    <row r="84" customFormat="1" spans="3:13">
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+      <c r="J83">
+        <v>15008028</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:13">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>4502101</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="E84" s="9"/>
-      <c r="F84" s="8"/>
+      <c r="F84" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G84" s="9"/>
+      <c r="H84">
+        <v>1</v>
+      </c>
       <c r="I84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="J84">
+        <v>15008028</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="85" customFormat="1" spans="3:13">
       <c r="C85" s="8"/>
@@ -3984,119 +4068,145 @@
       <c r="I85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" customFormat="1" spans="1:13">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86">
-        <v>4501101</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>102</v>
-      </c>
+    <row r="86" customFormat="1" spans="3:13">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F86" s="8"/>
       <c r="G86" s="9"/>
-      <c r="H86">
-        <v>1</v>
-      </c>
       <c r="I86" s="2"/>
-      <c r="J86">
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" customFormat="1" spans="3:13">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="9"/>
+      <c r="I87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" customFormat="1" spans="1:13">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>4801101</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G88" s="9"/>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88">
         <v>15008028</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:13">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87">
-        <v>4502101</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" s="9"/>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87" s="2"/>
-      <c r="J87">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:13">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>4801102</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G89" s="9"/>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2"/>
+      <c r="J89">
         <v>15008028</v>
       </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="3:13">
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="I88" s="2"/>
-      <c r="M88" s="2"/>
-    </row>
-    <row r="89" customFormat="1" spans="3:13">
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="I89" s="2"/>
-      <c r="M89" s="2"/>
-    </row>
-    <row r="90" customFormat="1" spans="3:13">
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:13">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>4801103</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="8"/>
+      <c r="F90" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G90" s="9"/>
+      <c r="H90">
+        <v>1</v>
+      </c>
       <c r="I90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="J90">
+        <v>15008028</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="91" customFormat="1" spans="1:13">
       <c r="A91" t="s">
         <v>0</v>
       </c>
       <c r="B91">
-        <v>4801101</v>
+        <v>4801104</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G91" s="9"/>
       <c r="H91">
@@ -4121,17 +4231,17 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>4801102</v>
+        <v>4801105</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92">
@@ -4151,57 +4261,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" customFormat="1" spans="1:13">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93">
-        <v>4801103</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>108</v>
-      </c>
+    <row r="93" customFormat="1" spans="3:13">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="F93" s="8"/>
       <c r="G93" s="9"/>
-      <c r="H93">
-        <v>1</v>
-      </c>
       <c r="I93" s="2"/>
-      <c r="J93">
-        <v>15008028</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M93" s="2"/>
     </row>
     <row r="94" customFormat="1" spans="1:13">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94">
-        <v>4801104</v>
+        <v>4801201</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94">
@@ -4226,17 +4310,17 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>4801105</v>
+        <v>4801202</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95">
@@ -4256,31 +4340,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" customFormat="1" spans="3:13">
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+    <row r="96" customFormat="1" spans="1:13">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>4801203</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="8"/>
+      <c r="F96" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G96" s="9"/>
+      <c r="H96">
+        <v>1</v>
+      </c>
       <c r="I96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="J96">
+        <v>15008028</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="97" customFormat="1" spans="1:13">
       <c r="A97" t="s">
         <v>0</v>
       </c>
       <c r="B97">
-        <v>4801201</v>
+        <v>4801204</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97">
@@ -4305,17 +4415,17 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>4801202</v>
+        <v>4801205</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98">
@@ -4335,92 +4445,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" customFormat="1" spans="1:13">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99">
-        <v>4801203</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>118</v>
-      </c>
+    <row r="99" customFormat="1" spans="3:13">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="F99" s="8"/>
       <c r="G99" s="9"/>
-      <c r="H99">
-        <v>1</v>
-      </c>
       <c r="I99" s="2"/>
-      <c r="J99">
-        <v>15008028</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:13">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100">
-        <v>4801204</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" customFormat="1" spans="3:13">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="F100" s="8"/>
       <c r="G100" s="9"/>
-      <c r="H100">
-        <v>1</v>
-      </c>
       <c r="I100" s="2"/>
-      <c r="J100">
-        <v>15008028</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M100" s="2"/>
     </row>
     <row r="101" customFormat="1" spans="1:13">
       <c r="A101" t="s">
         <v>0</v>
       </c>
       <c r="B101">
-        <v>4801205</v>
+        <v>4801301</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E101" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="E101" s="9">
+        <v>5</v>
+      </c>
       <c r="F101" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G101" s="9"/>
       <c r="H101">
@@ -4449,33 +4509,57 @@
       <c r="I102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" customFormat="1" spans="3:13">
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+    <row r="103" customFormat="1" spans="1:13">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>4801401</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="E103" s="9"/>
-      <c r="F103" s="8"/>
+      <c r="F103" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="G103" s="9"/>
+      <c r="H103">
+        <v>1</v>
+      </c>
       <c r="I103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="J103">
+        <v>15008028</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="104" customFormat="1" spans="1:13">
       <c r="A104" t="s">
         <v>0</v>
       </c>
       <c r="B104">
-        <v>4801301</v>
+        <v>4801402</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" s="9">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E104" s="9"/>
       <c r="F104" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104">
@@ -4495,31 +4579,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" customFormat="1" spans="3:13">
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+    <row r="105" customFormat="1" spans="1:13">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>4801403</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="8"/>
+      <c r="F105" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="G105" s="9"/>
+      <c r="H105">
+        <v>1</v>
+      </c>
       <c r="I105" s="2"/>
-      <c r="M105" s="2"/>
+      <c r="J105">
+        <v>15008028</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="106" customFormat="1" spans="1:13">
       <c r="A106" t="s">
         <v>0</v>
       </c>
       <c r="B106">
-        <v>4801401</v>
+        <v>4801404</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="8" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106">
@@ -4544,17 +4654,17 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>4801402</v>
+        <v>4801405</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="8" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G107" s="9"/>
       <c r="H107">
@@ -4574,57 +4684,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" customFormat="1" spans="1:13">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>4801403</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>130</v>
-      </c>
+    <row r="108" customFormat="1" spans="3:13">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="F108" s="8"/>
       <c r="G108" s="9"/>
-      <c r="H108">
-        <v>1</v>
-      </c>
       <c r="I108" s="2"/>
-      <c r="J108">
-        <v>15008028</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M108" s="2"/>
     </row>
     <row r="109" customFormat="1" spans="1:13">
       <c r="A109" t="s">
         <v>0</v>
       </c>
       <c r="B109">
-        <v>4801404</v>
+        <v>4804301</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="8" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109">
@@ -4649,17 +4733,17 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <v>4801405</v>
+        <v>4804302</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110">
@@ -4679,31 +4763,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" customFormat="1" spans="3:13">
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+    <row r="111" customFormat="1" spans="1:13">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>4804303</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="E111" s="9"/>
-      <c r="F111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="G111" s="9"/>
+      <c r="H111">
+        <v>1</v>
+      </c>
       <c r="I111" s="2"/>
-      <c r="M111" s="2"/>
+      <c r="J111">
+        <v>15008028</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="112" customFormat="1" spans="1:13">
       <c r="A112" t="s">
         <v>0</v>
       </c>
       <c r="B112">
-        <v>4804301</v>
+        <v>4804304</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112">
@@ -4728,17 +4838,17 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>4804302</v>
+        <v>4804305</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113">
@@ -4758,119 +4868,67 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" customFormat="1" spans="1:13">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>4804303</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>140</v>
-      </c>
+    <row r="114" customFormat="1" spans="3:13">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="F114" s="8"/>
       <c r="G114" s="9"/>
-      <c r="H114">
-        <v>1</v>
-      </c>
       <c r="I114" s="2"/>
-      <c r="J114">
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" customFormat="1" spans="3:13">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="9"/>
+      <c r="I115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" customFormat="1" spans="3:13">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9"/>
+      <c r="I116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" customFormat="1" spans="1:13">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>4820101</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G117" s="9"/>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" s="2"/>
+      <c r="J117">
         <v>15008028</v>
       </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <v>1</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:13">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115">
-        <v>4804304</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G115" s="9"/>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115" s="2"/>
-      <c r="J115">
-        <v>15008028</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" customFormat="1" spans="1:13">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>4804305</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G116" s="9"/>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" s="2"/>
-      <c r="J116">
-        <v>15008028</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <v>1</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" spans="3:13">
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
-      <c r="I117" s="2"/>
-      <c r="M117" s="2"/>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="118" customFormat="1" spans="3:13">
       <c r="C118" s="8"/>
@@ -4899,58 +4957,147 @@
       <c r="I120" s="2"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" customFormat="1" spans="3:13">
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+    <row r="121" customFormat="1" spans="2:13">
+      <c r="B121">
+        <v>4100101</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E121" s="9"/>
-      <c r="F121" s="8"/>
+      <c r="F121" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G121" s="9"/>
+      <c r="H121">
+        <v>1</v>
+      </c>
       <c r="I121" s="2"/>
-      <c r="M121" s="2"/>
-    </row>
-    <row r="122" customFormat="1" spans="3:13">
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="J121">
+        <v>15008006</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="2:13">
+      <c r="B122">
+        <v>4100102</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="E122" s="9"/>
-      <c r="F122" s="8"/>
+      <c r="F122" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G122" s="9"/>
+      <c r="H122">
+        <v>1</v>
+      </c>
       <c r="I122" s="2"/>
-      <c r="M122" s="2"/>
-    </row>
-    <row r="123" customFormat="1" spans="3:13">
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="J122">
+        <v>15008006</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="2:13">
+      <c r="B123">
+        <v>4100103</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="E123" s="9"/>
-      <c r="F123" s="8"/>
+      <c r="F123" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="G123" s="9"/>
+      <c r="H123">
+        <v>1</v>
+      </c>
       <c r="I123" s="2"/>
-      <c r="M123" s="2"/>
-    </row>
-    <row r="124" customFormat="1" spans="3:13">
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="J123">
+        <v>15008006</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" spans="2:13">
+      <c r="B124">
+        <v>4100104</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="8"/>
+      <c r="F124" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G124" s="9"/>
+      <c r="H124">
+        <v>1</v>
+      </c>
       <c r="I124" s="2"/>
-      <c r="M124" s="2"/>
-    </row>
-    <row r="125" customFormat="1" spans="1:13">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
+      <c r="J124">
+        <v>15008006</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" spans="2:13">
       <c r="B125">
-        <v>4820101</v>
+        <v>4100105</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="8" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G125" s="9"/>
       <c r="H125">
@@ -4958,7 +5105,7 @@
       </c>
       <c r="I125" s="2"/>
       <c r="J125">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -4988,14 +5135,38 @@
       <c r="I127" s="2"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" customFormat="1" spans="3:13">
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+    <row r="128" customFormat="1" spans="2:14">
+      <c r="B128">
+        <v>4100205</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
+      <c r="H128">
+        <v>1</v>
+      </c>
       <c r="I128" s="2"/>
-      <c r="M128" s="2"/>
+      <c r="J128">
+        <v>15008006</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" customFormat="1" spans="3:13">
       <c r="C129" s="8"/>
@@ -5006,123 +5177,53 @@
       <c r="I129" s="2"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" customFormat="1" spans="2:13">
-      <c r="B130">
-        <v>4100101</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>147</v>
-      </c>
+    <row r="130" customFormat="1" spans="3:13">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="F130" s="8"/>
       <c r="G130" s="9"/>
-      <c r="H130">
-        <v>1</v>
-      </c>
       <c r="I130" s="2"/>
-      <c r="J130">
-        <v>15008006</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>1</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" customFormat="1" spans="2:13">
-      <c r="B131">
-        <v>4100102</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" customFormat="1" spans="3:13">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F131" s="8"/>
       <c r="G131" s="9"/>
-      <c r="H131">
-        <v>1</v>
-      </c>
       <c r="I131" s="2"/>
-      <c r="J131">
-        <v>15008006</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>1</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" customFormat="1" spans="2:13">
-      <c r="B132">
-        <v>4100103</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>149</v>
-      </c>
+      <c r="M131" s="2"/>
+    </row>
+    <row r="132" customFormat="1" spans="3:13">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F132" s="8"/>
       <c r="G132" s="9"/>
-      <c r="H132">
-        <v>1</v>
-      </c>
       <c r="I132" s="2"/>
-      <c r="J132">
-        <v>15008006</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>1</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" customFormat="1" spans="2:13">
+      <c r="M132" s="2"/>
+    </row>
+    <row r="133" spans="2:13">
       <c r="B133">
-        <v>4100104</v>
+        <v>4001001</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G133" s="9"/>
       <c r="H133">
         <v>1</v>
       </c>
-      <c r="I133" s="2"/>
       <c r="J133">
-        <v>15008006</v>
+        <v>15008027</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -5134,25 +5235,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" customFormat="1" spans="2:13">
+    <row r="134" spans="2:13">
       <c r="B134">
-        <v>4100105</v>
+        <v>4001002</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G134" s="9"/>
       <c r="H134">
         <v>1</v>
       </c>
-      <c r="I134" s="2"/>
       <c r="J134">
         <v>15008006</v>
       </c>
@@ -5166,204 +5266,260 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" customFormat="1" spans="3:13">
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+    <row r="135" spans="2:13">
+      <c r="B135">
+        <v>4001003</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="E135" s="9"/>
-      <c r="F135" s="8"/>
+      <c r="F135" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="G135" s="9"/>
-      <c r="I135" s="2"/>
-      <c r="M135" s="2"/>
-    </row>
-    <row r="136" customFormat="1" spans="3:13">
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>15008006</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13">
+      <c r="B136">
+        <v>4001050</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="E136" s="9"/>
-      <c r="F136" s="8"/>
+      <c r="F136" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G136" s="9"/>
-      <c r="I136" s="2"/>
-      <c r="M136" s="2"/>
-    </row>
-    <row r="137" customFormat="1" spans="2:14">
-      <c r="B137">
-        <v>4100205</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>152</v>
-      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>15008006</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
       <c r="E137" s="9"/>
       <c r="F137" s="8"/>
       <c r="G137" s="9"/>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137" s="2"/>
-      <c r="J137">
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138">
+        <v>4001004</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G138" s="9"/>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="J138">
         <v>15008006</v>
       </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>1</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" customFormat="1" spans="3:13">
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="9"/>
-      <c r="I138" s="2"/>
-      <c r="M138" s="2"/>
-    </row>
-    <row r="139" customFormat="1" spans="3:13">
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139">
+        <v>4001005</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="E139" s="9"/>
-      <c r="F139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="G139" s="9"/>
-      <c r="I139" s="2"/>
-      <c r="M139" s="2"/>
-    </row>
-    <row r="140" customFormat="1" spans="3:13">
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>15008006</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140">
+        <v>4001006</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="E140" s="9"/>
-      <c r="F140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="G140" s="9"/>
-      <c r="I140" s="2"/>
-      <c r="M140" s="2"/>
-    </row>
-    <row r="141" customFormat="1" spans="3:13">
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>15008006</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141">
+        <v>4001007</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="E141" s="9"/>
-      <c r="F141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="G141" s="9"/>
-      <c r="I141" s="2"/>
-      <c r="M141" s="2"/>
-    </row>
-    <row r="142" customFormat="1" spans="3:13">
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>15008006</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142">
+        <v>4001008</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="E142" s="9"/>
-      <c r="F142" s="8"/>
+      <c r="F142" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G142" s="9"/>
-      <c r="I142" s="2"/>
-      <c r="M142" s="2"/>
-    </row>
-    <row r="143" spans="2:13">
-      <c r="B143">
-        <v>4001001</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>15008019</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7">
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F143" s="8"/>
       <c r="G143" s="9"/>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="J143">
-        <v>15008027</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="2:13">
-      <c r="B144">
-        <v>4001002</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>154</v>
-      </c>
+    </row>
+    <row r="144" spans="3:7">
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="F144" s="8"/>
       <c r="G144" s="9"/>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <v>15008006</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13">
-      <c r="B145">
-        <v>4001003</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>155</v>
-      </c>
+    </row>
+    <row r="145" spans="3:7">
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="8" t="s">
-        <v>156</v>
-      </c>
+      <c r="F145" s="8"/>
       <c r="G145" s="9"/>
-      <c r="H145">
-        <v>1</v>
-      </c>
-      <c r="J145">
-        <v>15008006</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="146" spans="2:13">
       <c r="B146">
-        <v>4001050</v>
+        <v>4002001</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="8" t="s">
@@ -5374,169 +5530,93 @@
         <v>1</v>
       </c>
       <c r="J146">
+        <v>15008028</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147">
+        <v>4002002</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E147" s="9"/>
+      <c r="F147" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="J147">
         <v>15008006</v>
       </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>1</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="3:7">
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="9"/>
-    </row>
-    <row r="148" spans="2:13">
-      <c r="B148">
-        <v>4001004</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>158</v>
-      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7">
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="8" t="s">
-        <v>159</v>
-      </c>
+      <c r="F148" s="8"/>
       <c r="G148" s="9"/>
-      <c r="H148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>15008006</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="2:13">
-      <c r="B149">
-        <v>4001005</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>160</v>
-      </c>
+    </row>
+    <row r="149" spans="5:5">
       <c r="E149" s="9"/>
-      <c r="F149" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G149" s="9"/>
-      <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>15008006</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="150" spans="2:13">
-      <c r="B150">
-        <v>4001006</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>163</v>
-      </c>
+    </row>
+    <row r="150" spans="3:7">
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F150" s="8"/>
       <c r="G150" s="9"/>
-      <c r="H150">
-        <v>1</v>
-      </c>
-      <c r="J150">
-        <v>15008006</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="2:13">
-      <c r="B151">
-        <v>4001007</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>164</v>
-      </c>
+    </row>
+    <row r="151" spans="3:7">
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="8" t="s">
-        <v>165</v>
-      </c>
+      <c r="F151" s="8"/>
       <c r="G151" s="9"/>
-      <c r="H151">
-        <v>1</v>
-      </c>
-      <c r="J151">
-        <v>15008006</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>1</v>
-      </c>
-      <c r="M151" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="152" spans="2:13">
       <c r="B152">
-        <v>4001008</v>
+        <v>4002004</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G152" s="9"/>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="J152">
-        <v>15008019</v>
+        <v>15008006</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -5555,81 +5635,81 @@
       <c r="F153" s="8"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="3:7">
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
+    <row r="154" spans="2:13">
+      <c r="B154">
+        <v>4002006</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E154" s="9"/>
-      <c r="F154" s="8"/>
+      <c r="F154" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G154" s="9"/>
-    </row>
-    <row r="155" spans="3:7">
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>15008028</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155">
+        <v>4002007</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="E155" s="9"/>
-      <c r="F155" s="8"/>
+      <c r="F155" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="G155" s="9"/>
-    </row>
-    <row r="156" spans="2:13">
-      <c r="B156">
-        <v>4002001</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>15008006</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7">
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="F156" s="8"/>
       <c r="G156" s="9"/>
-      <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="J156">
-        <v>15008028</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>1</v>
-      </c>
-      <c r="M156" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="2:13">
-      <c r="B157">
-        <v>4002002</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>167</v>
-      </c>
+    </row>
+    <row r="157" spans="3:7">
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="8" t="s">
-        <v>168</v>
-      </c>
+      <c r="F157" s="8"/>
       <c r="G157" s="9"/>
-      <c r="H157">
-        <v>1</v>
-      </c>
-      <c r="J157">
-        <v>15008006</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>1</v>
-      </c>
-      <c r="M157" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="158" spans="3:7">
       <c r="C158" s="8"/>
@@ -5638,81 +5718,129 @@
       <c r="F158" s="8"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="5:5">
+    <row r="159" spans="3:7">
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
       <c r="E159" s="9"/>
-    </row>
-    <row r="160" spans="3:7">
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="9"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160">
+        <v>4002010</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="E160" s="9"/>
-      <c r="F160" s="8"/>
+      <c r="F160" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G160" s="9"/>
-    </row>
-    <row r="161" spans="3:7">
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>15008028</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161">
+        <v>4002011</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="E161" s="9"/>
-      <c r="F161" s="8"/>
+      <c r="F161" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G161" s="9"/>
-    </row>
-    <row r="162" spans="2:13">
-      <c r="B162">
-        <v>4002004</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>169</v>
-      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>15008006</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5">
       <c r="E162" s="9"/>
-      <c r="F162" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G162" s="9"/>
-      <c r="H162">
-        <v>1</v>
-      </c>
-      <c r="J162">
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163">
+        <v>4002020</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G163" s="9"/>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="J163">
         <v>15008006</v>
       </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>1</v>
-      </c>
-      <c r="M162" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="163" spans="3:7">
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="9"/>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="164" spans="2:13">
       <c r="B164">
-        <v>4002006</v>
+        <v>4002021</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="8" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="J164">
-        <v>15008028</v>
+        <v>15008006</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -5726,24 +5854,24 @@
     </row>
     <row r="165" spans="2:13">
       <c r="B165">
-        <v>4002007</v>
+        <v>4002022</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="8" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="J165">
-        <v>15008006</v>
+        <v>15008013</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -5755,54 +5883,94 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="3:7">
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
+    <row r="166" spans="2:13">
+      <c r="B166">
+        <v>4002023</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="E166" s="9"/>
-      <c r="F166" s="8"/>
+      <c r="F166" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G166" s="9"/>
-    </row>
-    <row r="167" spans="3:7">
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>15008020</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5">
       <c r="E167" s="9"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="9"/>
-    </row>
-    <row r="168" spans="3:7">
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
+    </row>
+    <row r="168" spans="5:5">
       <c r="E168" s="9"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="9"/>
-    </row>
-    <row r="169" spans="3:7">
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
+    </row>
+    <row r="169" spans="2:13">
+      <c r="B169">
+        <v>4002030</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="E169" s="9"/>
-      <c r="F169" s="8"/>
+      <c r="F169" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="G169" s="9"/>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>15008020</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="170" spans="2:13">
       <c r="B170">
-        <v>4002010</v>
+        <v>4002031</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="8" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="J170">
-        <v>15008028</v>
+        <v>15008020</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -5814,355 +5982,129 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="2:13">
-      <c r="B171">
-        <v>4002011</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>173</v>
-      </c>
+    <row r="171" spans="5:5">
       <c r="E171" s="9"/>
-      <c r="F171" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G171" s="9"/>
-      <c r="H171">
-        <v>1</v>
-      </c>
-      <c r="J171">
-        <v>15008006</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-      <c r="M171" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="172" spans="5:5">
       <c r="E172" s="9"/>
     </row>
-    <row r="173" spans="2:13">
-      <c r="B173">
-        <v>4002020</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>174</v>
-      </c>
+    <row r="173" spans="5:5">
       <c r="E173" s="9"/>
-      <c r="F173" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G173" s="9"/>
-      <c r="H173">
-        <v>1</v>
-      </c>
-      <c r="J173">
-        <v>15008006</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-      <c r="L173">
-        <v>1</v>
-      </c>
-      <c r="M173" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="174" spans="2:13">
       <c r="B174">
-        <v>4002021</v>
+        <v>4005001</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G174" s="9"/>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="J174">
+        <v>15008013</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5">
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="5:5">
+      <c r="E176" s="9"/>
+    </row>
+    <row r="177" spans="2:12">
+      <c r="B177">
+        <v>4006101</v>
+      </c>
+      <c r="C177" t="s">
+        <v>187</v>
+      </c>
+      <c r="D177" t="s">
+        <v>187</v>
+      </c>
+      <c r="E177" s="9"/>
+      <c r="F177" t="s">
+        <v>188</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="J177">
         <v>15008006</v>
       </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>1</v>
-      </c>
-      <c r="M174" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="175" spans="2:13">
-      <c r="B175">
-        <v>4002022</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E175" s="9"/>
-      <c r="F175" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G175" s="9"/>
-      <c r="H175">
-        <v>1</v>
-      </c>
-      <c r="J175">
+      <c r="L177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" customFormat="1" spans="2:13">
+      <c r="B178">
+        <v>4006201</v>
+      </c>
+      <c r="C178" t="s">
+        <v>189</v>
+      </c>
+      <c r="D178" t="s">
+        <v>189</v>
+      </c>
+      <c r="E178" s="9"/>
+      <c r="F178" t="s">
+        <v>190</v>
+      </c>
+      <c r="G178" s="2"/>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178" s="2"/>
+      <c r="J178">
+        <v>15008006</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178" s="2"/>
+    </row>
+    <row r="179" customFormat="1" spans="2:13">
+      <c r="B179">
+        <v>4006301</v>
+      </c>
+      <c r="C179" t="s">
+        <v>191</v>
+      </c>
+      <c r="D179" t="s">
+        <v>191</v>
+      </c>
+      <c r="E179" s="9"/>
+      <c r="F179" t="s">
+        <v>192</v>
+      </c>
+      <c r="G179" s="2"/>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179" s="2"/>
+      <c r="J179">
         <v>15008013</v>
       </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175">
-        <v>1</v>
-      </c>
-      <c r="M175" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="176" spans="2:13">
-      <c r="B176">
-        <v>4002023</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E176" s="9"/>
-      <c r="F176" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G176" s="9"/>
-      <c r="H176">
-        <v>1</v>
-      </c>
-      <c r="J176">
-        <v>15008020</v>
-      </c>
-      <c r="K176">
-        <v>0</v>
-      </c>
-      <c r="L176">
-        <v>1</v>
-      </c>
-      <c r="M176" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="177" spans="5:5">
-      <c r="E177" s="9"/>
-    </row>
-    <row r="178" spans="5:5">
-      <c r="E178" s="9"/>
-    </row>
-    <row r="179" spans="2:13">
-      <c r="B179">
-        <v>4002030</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E179" s="9"/>
-      <c r="F179" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G179" s="9"/>
-      <c r="H179">
-        <v>1</v>
-      </c>
-      <c r="J179">
-        <v>15008020</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
       <c r="L179">
         <v>1</v>
       </c>
-      <c r="M179" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="180" spans="2:13">
-      <c r="B180">
-        <v>4002031</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E180" s="9"/>
-      <c r="F180" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G180" s="9"/>
-      <c r="H180">
-        <v>1</v>
-      </c>
-      <c r="J180">
-        <v>15008020</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>1</v>
-      </c>
-      <c r="M180" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="181" spans="5:5">
-      <c r="E181" s="9"/>
-    </row>
-    <row r="182" spans="5:5">
-      <c r="E182" s="9"/>
-    </row>
-    <row r="183" spans="5:5">
-      <c r="E183" s="9"/>
-    </row>
-    <row r="184" spans="2:13">
-      <c r="B184">
-        <v>4005001</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E184" s="9"/>
-      <c r="F184" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G184" s="9"/>
-      <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="J184">
-        <v>15008013</v>
-      </c>
-      <c r="K184">
-        <v>0</v>
-      </c>
-      <c r="L184">
-        <v>1</v>
-      </c>
-      <c r="M184" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="5:5">
-      <c r="E185" s="9"/>
-    </row>
-    <row r="186" spans="5:5">
-      <c r="E186" s="9"/>
-    </row>
-    <row r="187" spans="2:12">
-      <c r="B187">
-        <v>4006101</v>
-      </c>
-      <c r="C187" t="s">
-        <v>185</v>
-      </c>
-      <c r="D187" t="s">
-        <v>185</v>
-      </c>
-      <c r="E187" s="9"/>
-      <c r="F187" t="s">
-        <v>186</v>
-      </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-      <c r="J187">
-        <v>15008006</v>
-      </c>
-      <c r="L187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" customFormat="1" spans="2:13">
-      <c r="B188">
-        <v>4006201</v>
-      </c>
-      <c r="C188" t="s">
-        <v>187</v>
-      </c>
-      <c r="D188" t="s">
-        <v>187</v>
-      </c>
-      <c r="E188" s="9"/>
-      <c r="F188" t="s">
-        <v>188</v>
-      </c>
-      <c r="G188" s="2"/>
-      <c r="H188">
-        <v>1</v>
-      </c>
-      <c r="I188" s="2"/>
-      <c r="J188">
-        <v>15008006</v>
-      </c>
-      <c r="L188">
-        <v>1</v>
-      </c>
-      <c r="M188" s="2"/>
-    </row>
-    <row r="189" customFormat="1" spans="2:13">
-      <c r="B189">
-        <v>4006301</v>
-      </c>
-      <c r="C189" t="s">
-        <v>189</v>
-      </c>
-      <c r="D189" t="s">
-        <v>189</v>
-      </c>
-      <c r="E189" s="9"/>
-      <c r="F189" t="s">
-        <v>190</v>
-      </c>
-      <c r="G189" s="2"/>
-      <c r="H189">
-        <v>1</v>
-      </c>
-      <c r="I189" s="2"/>
-      <c r="J189">
-        <v>15008013</v>
-      </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-      <c r="M189" s="2"/>
+      <c r="M179" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/CalculateEffect.xlsx
+++ b/data_config/CalculateEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16665" windowHeight="11700" tabRatio="601"/>
+    <workbookView windowWidth="16440" windowHeight="11700" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="194">
   <si>
     <t>#</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>随机技能 周周敌人击晕伤害 lv5</t>
+  </si>
+  <si>
+    <t>大灰熊 普通攻击投掷物效果计算</t>
   </si>
   <si>
     <t>道具技能 被攻击反射一个攻击球</t>
@@ -1752,9 +1755,9 @@
   <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="$A80:$XFD83"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4877,14 +4880,40 @@
       <c r="I114" s="2"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" customFormat="1" spans="3:13">
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+    <row r="115" customFormat="1" spans="1:13">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>4880101</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G115" s="9"/>
+      <c r="H115">
+        <v>1</v>
+      </c>
       <c r="I115" s="2"/>
-      <c r="M115" s="2"/>
+      <c r="J115">
+        <v>15008028</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="116" customFormat="1" spans="3:13">
       <c r="C116" s="8"/>
@@ -4903,10 +4932,10 @@
         <v>4820101</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="8" t="s">
@@ -4962,10 +4991,10 @@
         <v>4100101</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="8" t="s">
@@ -4994,10 +5023,10 @@
         <v>4100102</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="8" t="s">
@@ -5026,10 +5055,10 @@
         <v>4100103</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="8" t="s">
@@ -5058,10 +5087,10 @@
         <v>4100104</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="8" t="s">
@@ -5090,10 +5119,10 @@
         <v>4100105</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="8" t="s">
@@ -5140,10 +5169,10 @@
         <v>4100205</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="8"/>
@@ -5209,10 +5238,10 @@
         <v>4001001</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="8" t="s">
@@ -5240,10 +5269,10 @@
         <v>4001002</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="8" t="s">
@@ -5271,14 +5300,14 @@
         <v>4001003</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G135" s="9"/>
       <c r="H135">
@@ -5302,10 +5331,10 @@
         <v>4001050</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="8" t="s">
@@ -5340,14 +5369,14 @@
         <v>4001004</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G138" s="9"/>
       <c r="H138">
@@ -5371,14 +5400,14 @@
         <v>4001005</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G139" s="9"/>
       <c r="H139">
@@ -5402,10 +5431,10 @@
         <v>4001006</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="8" t="s">
@@ -5433,14 +5462,14 @@
         <v>4001007</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141">
@@ -5464,10 +5493,10 @@
         <v>4001008</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="8" t="s">
@@ -5547,14 +5576,14 @@
         <v>4002002</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G147" s="9"/>
       <c r="H147">
@@ -5602,10 +5631,10 @@
         <v>4002004</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="8" t="s">
@@ -5671,10 +5700,10 @@
         <v>4002007</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="8" t="s">
@@ -5730,10 +5759,10 @@
         <v>4002010</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="8" t="s">
@@ -5761,10 +5790,10 @@
         <v>4002011</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="8" t="s">
@@ -5795,14 +5824,14 @@
         <v>4002020</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G163" s="9"/>
       <c r="H163">
@@ -5826,14 +5855,14 @@
         <v>4002021</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G164" s="9"/>
       <c r="H164">
@@ -5857,14 +5886,14 @@
         <v>4002022</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G165" s="9"/>
       <c r="H165">
@@ -5888,10 +5917,10 @@
         <v>4002023</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="8" t="s">
@@ -5925,10 +5954,10 @@
         <v>4002030</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="8" t="s">
@@ -5956,14 +5985,14 @@
         <v>4002031</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G170" s="9"/>
       <c r="H170">
@@ -5996,14 +6025,14 @@
         <v>4005001</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G174" s="9"/>
       <c r="H174">
@@ -6033,14 +6062,14 @@
         <v>4006101</v>
       </c>
       <c r="C177" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D177" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -6057,14 +6086,14 @@
         <v>4006201</v>
       </c>
       <c r="C178" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D178" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G178" s="2"/>
       <c r="H178">
@@ -6084,14 +6113,14 @@
         <v>4006301</v>
       </c>
       <c r="C179" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D179" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G179" s="2"/>
       <c r="H179">
